--- a/bulk_import_template_smith_version.xlsx
+++ b/bulk_import_template_smith_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmichelson\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E12ABB2-BA23-455C-838F-92ECAAFF94E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0052B737-7439-498B-AEED-2E1833B14BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7388,164 +7388,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -7554,6 +7431,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -7951,58 +7931,56 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BN1" sqref="BN1"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="GJ14" sqref="GJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="16" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="2" hidden="1" customWidth="1"/>
     <col min="3" max="4" width="11.7109375" style="2" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="23" customWidth="1"/>
     <col min="8" max="8" width="30.140625" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" style="23" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="24" customWidth="1"/>
     <col min="13" max="16" width="14.28515625" style="2" customWidth="1"/>
     <col min="17" max="17" width="17.7109375" style="2" customWidth="1"/>
     <col min="18" max="20" width="14.28515625" style="2" customWidth="1"/>
     <col min="21" max="21" width="17.7109375" style="2" customWidth="1"/>
     <col min="22" max="22" width="20.42578125" style="2" customWidth="1"/>
-    <col min="23" max="23" width="11" style="4" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" style="4" customWidth="1"/>
+    <col min="23" max="23" width="11" style="2" customWidth="1"/>
+    <col min="24" max="24" width="10.5703125" style="2" customWidth="1"/>
     <col min="25" max="25" width="23.85546875" style="2" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="4" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="2" customWidth="1"/>
     <col min="27" max="27" width="26.85546875" style="2" customWidth="1"/>
     <col min="28" max="28" width="20.42578125" style="2" customWidth="1"/>
-    <col min="29" max="29" width="11" style="4" customWidth="1"/>
-    <col min="30" max="30" width="10.5703125" style="4" customWidth="1"/>
+    <col min="29" max="29" width="11" style="2" customWidth="1"/>
+    <col min="30" max="30" width="10.5703125" style="2" customWidth="1"/>
     <col min="31" max="31" width="23.85546875" style="2" customWidth="1"/>
-    <col min="32" max="32" width="15.140625" style="4" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" style="2" customWidth="1"/>
     <col min="33" max="46" width="26.85546875" style="2" customWidth="1"/>
-    <col min="47" max="47" width="9.140625" style="2" customWidth="1"/>
-    <col min="48" max="48" width="9.140625" style="4" customWidth="1"/>
+    <col min="47" max="48" width="9.140625" style="2" customWidth="1"/>
     <col min="49" max="49" width="10.5703125" style="2" customWidth="1"/>
-    <col min="50" max="50" width="19" style="4" customWidth="1"/>
-    <col min="51" max="51" width="19.140625" style="4" customWidth="1"/>
+    <col min="50" max="50" width="19" style="2" customWidth="1"/>
+    <col min="51" max="51" width="19.140625" style="2" customWidth="1"/>
     <col min="52" max="52" width="10.5703125" style="2" customWidth="1"/>
-    <col min="53" max="53" width="11.5703125" style="4" customWidth="1"/>
+    <col min="53" max="53" width="11.5703125" style="2" customWidth="1"/>
     <col min="54" max="54" width="26.85546875" style="2" customWidth="1"/>
-    <col min="55" max="55" width="9.140625" style="2" customWidth="1"/>
-    <col min="56" max="56" width="9.140625" style="4" customWidth="1"/>
+    <col min="55" max="56" width="9.140625" style="2" customWidth="1"/>
     <col min="57" max="57" width="10.5703125" style="2" customWidth="1"/>
-    <col min="58" max="58" width="19" style="4" customWidth="1"/>
-    <col min="59" max="59" width="19.140625" style="4" customWidth="1"/>
+    <col min="58" max="58" width="19" style="2" customWidth="1"/>
+    <col min="59" max="59" width="19.140625" style="2" customWidth="1"/>
     <col min="60" max="60" width="10.5703125" style="2" customWidth="1"/>
-    <col min="61" max="61" width="11.5703125" style="4" customWidth="1"/>
+    <col min="61" max="61" width="11.5703125" style="2" customWidth="1"/>
     <col min="62" max="62" width="15.85546875" style="2" customWidth="1"/>
     <col min="63" max="63" width="10.5703125" style="2" customWidth="1"/>
-    <col min="64" max="64" width="20.7109375" customWidth="1"/>
+    <col min="64" max="64" width="20.7109375" style="23" customWidth="1"/>
     <col min="65" max="65" width="12" style="2" customWidth="1"/>
-    <col min="66" max="66" width="12" style="3" customWidth="1"/>
+    <col min="66" max="66" width="12" style="24" customWidth="1"/>
     <col min="67" max="76" width="12" style="2" customWidth="1"/>
     <col min="77" max="77" width="15.28515625" style="2" customWidth="1"/>
     <col min="78" max="79" width="12" style="2" customWidth="1"/>
@@ -8045,61 +8023,62 @@
     <col min="126" max="126" width="15.42578125" style="2" customWidth="1"/>
     <col min="127" max="127" width="9.28515625" style="2"/>
     <col min="128" max="128" width="17.7109375" style="2" customWidth="1"/>
-    <col min="129" max="129" width="17.7109375" customWidth="1"/>
+    <col min="129" max="129" width="17.7109375" style="23" customWidth="1"/>
     <col min="130" max="130" width="17" style="2" customWidth="1"/>
     <col min="131" max="131" width="17.7109375" style="2" customWidth="1"/>
-    <col min="132" max="132" width="17.7109375" customWidth="1"/>
+    <col min="132" max="132" width="17.7109375" style="23" customWidth="1"/>
     <col min="133" max="134" width="17.7109375" style="2" customWidth="1"/>
     <col min="135" max="136" width="12.28515625" style="2" customWidth="1"/>
     <col min="137" max="137" width="17.7109375" style="2" customWidth="1"/>
-    <col min="138" max="138" width="17.7109375" customWidth="1"/>
+    <col min="138" max="138" width="17.7109375" style="23" customWidth="1"/>
     <col min="139" max="139" width="11.7109375" style="2" customWidth="1"/>
     <col min="140" max="140" width="17.7109375" style="2" customWidth="1"/>
-    <col min="141" max="141" width="17.7109375" customWidth="1"/>
+    <col min="141" max="141" width="17.7109375" style="23" customWidth="1"/>
     <col min="142" max="142" width="16" style="2" customWidth="1"/>
     <col min="143" max="143" width="17.7109375" style="2" customWidth="1"/>
-    <col min="144" max="144" width="17.7109375" customWidth="1"/>
+    <col min="144" max="144" width="17.7109375" style="23" customWidth="1"/>
     <col min="145" max="145" width="9.140625" style="2" customWidth="1"/>
     <col min="146" max="146" width="17.7109375" style="2" customWidth="1"/>
-    <col min="147" max="147" width="17.7109375" customWidth="1"/>
-    <col min="148" max="148" width="12" customWidth="1"/>
+    <col min="147" max="147" width="17.7109375" style="23" customWidth="1"/>
+    <col min="148" max="148" width="12" style="23" customWidth="1"/>
     <col min="149" max="149" width="17.7109375" style="2" customWidth="1"/>
-    <col min="150" max="150" width="17.7109375" customWidth="1"/>
+    <col min="150" max="150" width="17.7109375" style="23" customWidth="1"/>
     <col min="151" max="151" width="11.85546875" style="2" customWidth="1"/>
     <col min="152" max="152" width="17.7109375" style="2" customWidth="1"/>
-    <col min="153" max="153" width="17.7109375" customWidth="1"/>
+    <col min="153" max="153" width="17.7109375" style="23" customWidth="1"/>
     <col min="154" max="154" width="11.85546875" style="2" customWidth="1"/>
     <col min="155" max="155" width="17.7109375" style="2" customWidth="1"/>
-    <col min="156" max="156" width="17.7109375" customWidth="1"/>
+    <col min="156" max="156" width="17.7109375" style="23" customWidth="1"/>
     <col min="157" max="157" width="11.85546875" style="2" customWidth="1"/>
     <col min="158" max="158" width="17.7109375" style="2" customWidth="1"/>
-    <col min="159" max="159" width="17.7109375" customWidth="1"/>
+    <col min="159" max="159" width="17.7109375" style="23" customWidth="1"/>
     <col min="160" max="160" width="11.85546875" style="2" customWidth="1"/>
     <col min="161" max="161" width="17.7109375" style="2" customWidth="1"/>
-    <col min="162" max="162" width="17.7109375" customWidth="1"/>
+    <col min="162" max="162" width="17.7109375" style="23" customWidth="1"/>
     <col min="163" max="163" width="14.85546875" style="2" customWidth="1"/>
     <col min="164" max="164" width="17.7109375" style="2" customWidth="1"/>
-    <col min="165" max="165" width="17.7109375" customWidth="1"/>
+    <col min="165" max="165" width="17.7109375" style="23" customWidth="1"/>
     <col min="166" max="166" width="12.28515625" style="2" customWidth="1"/>
     <col min="167" max="167" width="17.7109375" style="2" customWidth="1"/>
-    <col min="168" max="168" width="17.7109375" customWidth="1"/>
+    <col min="168" max="168" width="17.7109375" style="23" customWidth="1"/>
     <col min="169" max="169" width="9.140625" style="2" customWidth="1"/>
     <col min="170" max="170" width="17.7109375" style="2" customWidth="1"/>
-    <col min="171" max="171" width="17.7109375" customWidth="1"/>
+    <col min="171" max="171" width="17.7109375" style="23" customWidth="1"/>
     <col min="172" max="172" width="9.140625" style="2" customWidth="1"/>
     <col min="173" max="173" width="17.7109375" style="2" customWidth="1"/>
-    <col min="174" max="174" width="17.7109375" customWidth="1"/>
+    <col min="174" max="174" width="17.7109375" style="23" customWidth="1"/>
     <col min="175" max="175" width="18.42578125" style="2" customWidth="1"/>
     <col min="176" max="176" width="17.7109375" style="2" customWidth="1"/>
-    <col min="177" max="177" width="17.7109375" customWidth="1"/>
+    <col min="177" max="177" width="17.7109375" style="23" customWidth="1"/>
     <col min="178" max="178" width="10.140625" style="2" customWidth="1"/>
     <col min="179" max="179" width="17.7109375" style="2" customWidth="1"/>
-    <col min="180" max="180" width="17.7109375" customWidth="1"/>
-    <col min="181" max="1024" width="9.28515625" style="2"/>
+    <col min="180" max="180" width="17.7109375" style="23" customWidth="1"/>
+    <col min="181" max="187" width="9.28515625" style="2"/>
+    <col min="188" max="1024" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:188" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="DY1" s="2"/>
@@ -8121,2259 +8100,2259 @@
       <c r="FX1" s="2"/>
     </row>
     <row r="2" spans="1:188" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="W2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="Z2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AB2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AC2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AD2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AE2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AH2" s="12" t="s">
+      <c r="AH2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AI2" s="12" t="s">
+      <c r="AI2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AK2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AL2" s="12" t="s">
+      <c r="AL2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AM2" s="12" t="s">
+      <c r="AM2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AN2" s="12" t="s">
+      <c r="AN2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AO2" s="12" t="s">
+      <c r="AO2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AP2" s="12" t="s">
+      <c r="AP2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AQ2" s="12" t="s">
+      <c r="AQ2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="12" t="s">
+      <c r="AR2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AS2" s="12" t="s">
+      <c r="AS2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="AT2" s="13" t="s">
+      <c r="AT2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AU2" s="13" t="s">
+      <c r="AU2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AV2" s="14" t="s">
+      <c r="AV2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AW2" s="15" t="s">
+      <c r="AW2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AX2" s="14" t="s">
+      <c r="AX2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AY2" s="14" t="s">
+      <c r="AY2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AZ2" s="15" t="s">
+      <c r="AZ2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BA2" s="14" t="s">
+      <c r="BA2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="13" t="s">
+      <c r="BB2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BC2" s="13" t="s">
+      <c r="BC2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BD2" s="14" t="s">
+      <c r="BD2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BE2" s="15" t="s">
+      <c r="BE2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BF2" s="14" t="s">
+      <c r="BF2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BG2" s="14" t="s">
+      <c r="BG2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BH2" s="15" t="s">
+      <c r="BH2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BI2" s="14" t="s">
+      <c r="BI2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="BJ2" s="16" t="s">
+      <c r="BJ2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BK2" s="16" t="s">
+      <c r="BK2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BL2" s="16" t="s">
+      <c r="BL2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BM2" s="16" t="s">
+      <c r="BM2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BN2" s="16" t="s">
+      <c r="BN2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BO2" s="16" t="s">
+      <c r="BO2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BP2" s="16" t="s">
+      <c r="BP2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BQ2" s="16" t="s">
+      <c r="BQ2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BR2" s="16" t="s">
+      <c r="BR2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BS2" s="16" t="s">
+      <c r="BS2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BT2" s="16" t="s">
+      <c r="BT2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BU2" s="16" t="s">
+      <c r="BU2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BV2" s="16" t="s">
+      <c r="BV2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BW2" s="16" t="s">
+      <c r="BW2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BX2" s="16" t="s">
+      <c r="BX2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BY2" s="16" t="s">
+      <c r="BY2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="BZ2" s="16" t="s">
+      <c r="BZ2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="CA2" s="16" t="s">
+      <c r="CA2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="CB2" s="16" t="s">
+      <c r="CB2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="CC2" s="16" t="s">
+      <c r="CC2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="CD2" s="16" t="s">
+      <c r="CD2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="CE2" s="16" t="s">
+      <c r="CE2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="CF2" s="16" t="s">
+      <c r="CF2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="CG2" s="16" t="s">
+      <c r="CG2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="CH2" s="17" t="s">
+      <c r="CH2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CI2" s="17" t="s">
+      <c r="CI2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CJ2" s="17" t="s">
+      <c r="CJ2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CK2" s="17" t="s">
+      <c r="CK2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CL2" s="17" t="s">
+      <c r="CL2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CM2" s="17" t="s">
+      <c r="CM2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CN2" s="17" t="s">
+      <c r="CN2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CO2" s="17" t="s">
+      <c r="CO2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CP2" s="17" t="s">
+      <c r="CP2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CQ2" s="17" t="s">
+      <c r="CQ2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CR2" s="17" t="s">
+      <c r="CR2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CS2" s="17" t="s">
+      <c r="CS2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CT2" s="17" t="s">
+      <c r="CT2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CU2" s="17" t="s">
+      <c r="CU2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CV2" s="17" t="s">
+      <c r="CV2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CW2" s="17" t="s">
+      <c r="CW2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CX2" s="17" t="s">
+      <c r="CX2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CY2" s="17" t="s">
+      <c r="CY2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="CZ2" s="17" t="s">
+      <c r="CZ2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DA2" s="17" t="s">
+      <c r="DA2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DB2" s="17" t="s">
+      <c r="DB2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DC2" s="17" t="s">
+      <c r="DC2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DD2" s="17" t="s">
+      <c r="DD2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DE2" s="17" t="s">
+      <c r="DE2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DF2" s="17" t="s">
+      <c r="DF2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DG2" s="17" t="s">
+      <c r="DG2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DH2" s="17" t="s">
+      <c r="DH2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DI2" s="17" t="s">
+      <c r="DI2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DJ2" s="17" t="s">
+      <c r="DJ2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DK2" s="17" t="s">
+      <c r="DK2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DL2" s="17" t="s">
+      <c r="DL2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DM2" s="17" t="s">
+      <c r="DM2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DN2" s="17" t="s">
+      <c r="DN2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DO2" s="17" t="s">
+      <c r="DO2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DP2" s="17" t="s">
+      <c r="DP2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DQ2" s="17" t="s">
+      <c r="DQ2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DR2" s="17" t="s">
+      <c r="DR2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DS2" s="17" t="s">
+      <c r="DS2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DT2" s="17" t="s">
+      <c r="DT2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DU2" s="17" t="s">
+      <c r="DU2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="DV2" s="15" t="s">
+      <c r="DV2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="DW2" s="15" t="s">
+      <c r="DW2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="DX2" s="15" t="s">
+      <c r="DX2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="DY2" s="15" t="s">
+      <c r="DY2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="DZ2" s="15" t="s">
+      <c r="DZ2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="EA2" s="15" t="s">
+      <c r="EA2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="EB2" s="15" t="s">
+      <c r="EB2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="EC2" s="15" t="s">
+      <c r="EC2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="ED2" s="18" t="s">
+      <c r="ED2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EE2" s="18" t="s">
+      <c r="EE2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EF2" s="18" t="s">
+      <c r="EF2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EG2" s="18" t="s">
+      <c r="EG2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EH2" s="18" t="s">
+      <c r="EH2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EI2" s="18" t="s">
+      <c r="EI2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EJ2" s="18" t="s">
+      <c r="EJ2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EK2" s="18" t="s">
+      <c r="EK2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EL2" s="18" t="s">
+      <c r="EL2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EM2" s="18" t="s">
+      <c r="EM2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EN2" s="18" t="s">
+      <c r="EN2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EO2" s="18" t="s">
+      <c r="EO2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EP2" s="18" t="s">
+      <c r="EP2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EQ2" s="18" t="s">
+      <c r="EQ2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="ER2" s="18" t="s">
+      <c r="ER2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="ES2" s="18" t="s">
+      <c r="ES2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="ET2" s="18" t="s">
+      <c r="ET2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EU2" s="18" t="s">
+      <c r="EU2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EV2" s="18" t="s">
+      <c r="EV2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EW2" s="18" t="s">
+      <c r="EW2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EX2" s="18" t="s">
+      <c r="EX2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EY2" s="18" t="s">
+      <c r="EY2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="EZ2" s="18" t="s">
+      <c r="EZ2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FA2" s="18" t="s">
+      <c r="FA2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FB2" s="18" t="s">
+      <c r="FB2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FC2" s="18" t="s">
+      <c r="FC2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FD2" s="18" t="s">
+      <c r="FD2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FE2" s="18" t="s">
+      <c r="FE2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FF2" s="18" t="s">
+      <c r="FF2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FG2" s="18" t="s">
+      <c r="FG2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FH2" s="18" t="s">
+      <c r="FH2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FI2" s="18" t="s">
+      <c r="FI2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FJ2" s="18" t="s">
+      <c r="FJ2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FK2" s="18" t="s">
+      <c r="FK2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FL2" s="18" t="s">
+      <c r="FL2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FM2" s="18" t="s">
+      <c r="FM2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FN2" s="18" t="s">
+      <c r="FN2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FO2" s="18" t="s">
+      <c r="FO2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FP2" s="18" t="s">
+      <c r="FP2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FQ2" s="18" t="s">
+      <c r="FQ2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FR2" s="18" t="s">
+      <c r="FR2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FS2" s="18" t="s">
+      <c r="FS2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FT2" s="18" t="s">
+      <c r="FT2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FU2" s="18" t="s">
+      <c r="FU2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FV2" s="18" t="s">
+      <c r="FV2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FW2" s="18" t="s">
+      <c r="FW2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FX2" s="18" t="s">
+      <c r="FX2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FY2" s="18" t="s">
+      <c r="FY2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="FZ2" s="18" t="s">
+      <c r="FZ2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="GA2" s="18" t="s">
+      <c r="GA2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="GB2" s="18" t="s">
+      <c r="GB2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="GC2" s="18" t="s">
+      <c r="GC2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="GD2" s="18" t="s">
+      <c r="GD2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="GE2" s="18" t="s">
+      <c r="GE2" s="32" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:188" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20" t="s">
+      <c r="J3" s="5"/>
+      <c r="K3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="22" t="s">
+      <c r="L3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="20" t="s">
+      <c r="M3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="23" t="s">
+      <c r="N3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="23" t="s">
+      <c r="O3" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="23" t="s">
+      <c r="P3" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="23" t="s">
+      <c r="Q3" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="23" t="s">
+      <c r="R3" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Y3" s="24" t="s">
+      <c r="Y3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AA3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AB3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AC3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AD3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AE3" s="24" t="s">
+      <c r="AE3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AF3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="26" t="s">
+      <c r="AG3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AH3" s="27" t="s">
+      <c r="AH3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AI3" s="27" t="s">
+      <c r="AI3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AJ3" s="27" t="s">
+      <c r="AJ3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AK3" s="28" t="s">
+      <c r="AK3" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AL3" s="28" t="s">
+      <c r="AL3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AM3" s="29" t="s">
+      <c r="AM3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AN3" s="27" t="s">
+      <c r="AN3" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="AO3" s="27" t="s">
+      <c r="AO3" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="AP3" s="27" t="s">
+      <c r="AP3" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="AQ3" s="28" t="s">
+      <c r="AQ3" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="AR3" s="28" t="s">
+      <c r="AR3" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="AS3" s="29" t="s">
+      <c r="AS3" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="AT3" s="30" t="s">
+      <c r="AT3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="AU3" s="30" t="s">
+      <c r="AU3" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="AV3" s="31" t="s">
+      <c r="AV3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="AW3" s="32" t="s">
+      <c r="AW3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AX3" s="33" t="s">
+      <c r="AX3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="AY3" s="33" t="s">
+      <c r="AY3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AZ3" s="32" t="s">
+      <c r="AZ3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BA3" s="33" t="s">
+      <c r="BA3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BB3" s="30" t="s">
+      <c r="BB3" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="BC3" s="30" t="s">
+      <c r="BC3" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="BD3" s="31" t="s">
+      <c r="BD3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="BE3" s="32" t="s">
+      <c r="BE3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="BF3" s="33" t="s">
+      <c r="BF3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BG3" s="33" t="s">
+      <c r="BG3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BH3" s="32" t="s">
+      <c r="BH3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BI3" s="33" t="s">
+      <c r="BI3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BJ3" s="34" t="s">
+      <c r="BJ3" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="BK3" s="34" t="s">
+      <c r="BK3" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="BL3" s="34" t="s">
+      <c r="BL3" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="BM3" s="34" t="s">
+      <c r="BM3" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="BN3" s="34" t="s">
+      <c r="BN3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="BO3" s="34" t="s">
+      <c r="BO3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="BP3" s="34" t="s">
+      <c r="BP3" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="BQ3" s="34" t="s">
+      <c r="BQ3" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="BR3" s="34" t="s">
+      <c r="BR3" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="BS3" s="34" t="s">
+      <c r="BS3" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="BT3" s="34" t="s">
+      <c r="BT3" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="BU3" s="34" t="s">
+      <c r="BU3" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="BV3" s="34" t="s">
+      <c r="BV3" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="BW3" s="34" t="s">
+      <c r="BW3" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="BX3" s="34" t="s">
+      <c r="BX3" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="BY3" s="34" t="s">
+      <c r="BY3" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="BZ3" s="34" t="s">
+      <c r="BZ3" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="CA3" s="34" t="s">
+      <c r="CA3" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="CB3" s="34" t="s">
+      <c r="CB3" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="CC3" s="34" t="s">
+      <c r="CC3" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="CD3" s="34" t="s">
+      <c r="CD3" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="CE3" s="34" t="s">
+      <c r="CE3" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="CF3" s="34" t="s">
+      <c r="CF3" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="CG3" s="34" t="s">
+      <c r="CG3" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="CH3" s="35" t="s">
+      <c r="CH3" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="CI3" s="35" t="s">
+      <c r="CI3" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="CJ3" s="35" t="s">
+      <c r="CJ3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="CK3" s="35" t="s">
+      <c r="CK3" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="CL3" s="35" t="s">
+      <c r="CL3" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="CM3" s="35" t="s">
+      <c r="CM3" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="CN3" s="35" t="s">
+      <c r="CN3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="CO3" s="35" t="s">
+      <c r="CO3" s="41" t="s">
         <v>83</v>
       </c>
-      <c r="CP3" s="35" t="s">
+      <c r="CP3" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="CQ3" s="35" t="s">
+      <c r="CQ3" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="CR3" s="35" t="s">
+      <c r="CR3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="CS3" s="35" t="s">
+      <c r="CS3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="CT3" s="35" t="s">
+      <c r="CT3" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="CU3" s="35" t="s">
+      <c r="CU3" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="CV3" s="35" t="s">
+      <c r="CV3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="CW3" s="35" t="s">
+      <c r="CW3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="CX3" s="35" t="s">
+      <c r="CX3" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="CY3" s="35" t="s">
+      <c r="CY3" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="CZ3" s="35" t="s">
+      <c r="CZ3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="DA3" s="35" t="s">
+      <c r="DA3" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="DB3" s="35" t="s">
+      <c r="DB3" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="DC3" s="35" t="s">
+      <c r="DC3" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="DD3" s="35" t="s">
+      <c r="DD3" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="DE3" s="35" t="s">
+      <c r="DE3" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="DF3" s="35" t="s">
+      <c r="DF3" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="DG3" s="35" t="s">
+      <c r="DG3" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="DH3" s="35" t="s">
+      <c r="DH3" s="41" t="s">
         <v>87</v>
       </c>
-      <c r="DI3" s="35" t="s">
+      <c r="DI3" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="DJ3" s="35" t="s">
+      <c r="DJ3" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="DK3" s="35" t="s">
+      <c r="DK3" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="DL3" s="35" t="s">
+      <c r="DL3" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="DM3" s="35" t="s">
+      <c r="DM3" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="DN3" s="35" t="s">
+      <c r="DN3" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="DO3" s="35" t="s">
+      <c r="DO3" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="DP3" s="35" t="s">
+      <c r="DP3" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="DQ3" s="35" t="s">
+      <c r="DQ3" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="DR3" s="35" t="s">
+      <c r="DR3" s="41" t="s">
         <v>89</v>
       </c>
-      <c r="DS3" s="35" t="s">
+      <c r="DS3" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="DT3" s="35" t="s">
+      <c r="DT3" s="41" t="s">
         <v>91</v>
       </c>
-      <c r="DU3" s="35" t="s">
+      <c r="DU3" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="DV3" s="32" t="s">
+      <c r="DV3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="DW3" s="32" t="s">
+      <c r="DW3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="DX3" s="32" t="s">
+      <c r="DX3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="DY3" s="32" t="s">
+      <c r="DY3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="DZ3" s="32" t="s">
+      <c r="DZ3" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="EA3" s="32" t="s">
+      <c r="EA3" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="EB3" s="32" t="s">
+      <c r="EB3" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="EC3" s="32" t="s">
+      <c r="EC3" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="ED3" s="36" t="s">
+      <c r="ED3" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="EE3" s="36" t="s">
+      <c r="EE3" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="EF3" s="36" t="s">
+      <c r="EF3" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="EG3" s="36" t="s">
+      <c r="EG3" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="EH3" s="36" t="s">
+      <c r="EH3" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="EI3" s="36" t="s">
+      <c r="EI3" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="EJ3" s="36" t="s">
+      <c r="EJ3" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="EK3" s="36" t="s">
+      <c r="EK3" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="EL3" s="36" t="s">
+      <c r="EL3" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="EM3" s="36" t="s">
+      <c r="EM3" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="EN3" s="36" t="s">
+      <c r="EN3" s="42" t="s">
         <v>107</v>
       </c>
-      <c r="EO3" s="36" t="s">
+      <c r="EO3" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="EP3" s="36" t="s">
+      <c r="EP3" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="EQ3" s="36" t="s">
+      <c r="EQ3" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="ER3" s="36" t="s">
+      <c r="ER3" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="ES3" s="36" t="s">
+      <c r="ES3" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="ET3" s="36" t="s">
+      <c r="ET3" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="EU3" s="36" t="s">
+      <c r="EU3" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="EV3" s="36" t="s">
+      <c r="EV3" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="EW3" s="36" t="s">
+      <c r="EW3" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="EX3" s="36" t="s">
+      <c r="EX3" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="EY3" s="36" t="s">
+      <c r="EY3" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="EZ3" s="36" t="s">
+      <c r="EZ3" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="FA3" s="36" t="s">
+      <c r="FA3" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="FB3" s="36" t="s">
+      <c r="FB3" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="FC3" s="36" t="s">
+      <c r="FC3" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="FD3" s="36" t="s">
+      <c r="FD3" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="FE3" s="36" t="s">
+      <c r="FE3" s="42" t="s">
         <v>124</v>
       </c>
-      <c r="FF3" s="36" t="s">
+      <c r="FF3" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="FG3" s="36" t="s">
+      <c r="FG3" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="FH3" s="36" t="s">
+      <c r="FH3" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="FI3" s="36" t="s">
+      <c r="FI3" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="FJ3" s="36" t="s">
+      <c r="FJ3" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="FK3" s="36" t="s">
+      <c r="FK3" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="FL3" s="36" t="s">
+      <c r="FL3" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="FM3" s="36" t="s">
+      <c r="FM3" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="FN3" s="36" t="s">
+      <c r="FN3" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="FO3" s="36" t="s">
+      <c r="FO3" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="FP3" s="36" t="s">
+      <c r="FP3" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="FQ3" s="36" t="s">
+      <c r="FQ3" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="FR3" s="36" t="s">
+      <c r="FR3" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="FS3" s="36" t="s">
+      <c r="FS3" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="FT3" s="36" t="s">
+      <c r="FT3" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="FU3" s="36" t="s">
+      <c r="FU3" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="FV3" s="36" t="s">
+      <c r="FV3" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="FW3" s="36" t="s">
+      <c r="FW3" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="FX3" s="36" t="s">
+      <c r="FX3" s="42" t="s">
         <v>143</v>
       </c>
-      <c r="FY3" s="36" t="s">
+      <c r="FY3" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="FZ3" s="36" t="s">
+      <c r="FZ3" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="GA3" s="36" t="s">
+      <c r="GA3" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="GB3" s="36" t="s">
+      <c r="GB3" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="GC3" s="36" t="s">
+      <c r="GC3" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="GD3" s="36" t="s">
+      <c r="GD3" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="GE3" s="36" t="s">
+      <c r="GE3" s="42" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:188" s="43" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:188" s="10" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="L4" s="41" t="s">
+      <c r="L4" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="R4" s="38" t="s">
+      <c r="R4" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="S4" s="38" t="s">
+      <c r="S4" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="T4" s="38" t="s">
+      <c r="T4" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="U4" s="38" t="s">
+      <c r="U4" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="V4" s="38" t="s">
+      <c r="V4" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="W4" s="39" t="s">
+      <c r="W4" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="X4" s="39" t="s">
+      <c r="X4" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="Y4" s="38" t="s">
+      <c r="Y4" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="Z4" s="39" t="s">
+      <c r="Z4" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AA4" s="38" t="s">
+      <c r="AA4" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" s="38" t="s">
+      <c r="AB4" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="AC4" s="39" t="s">
+      <c r="AC4" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="AD4" s="39" t="s">
+      <c r="AD4" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="AE4" s="38" t="s">
+      <c r="AE4" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="AF4" s="39" t="s">
+      <c r="AF4" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="AG4" s="38" t="s">
+      <c r="AG4" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="AH4" s="38" t="s">
+      <c r="AH4" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="AI4" s="38" t="s">
+      <c r="AI4" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="AJ4" s="38" t="s">
+      <c r="AJ4" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="AK4" s="38" t="s">
+      <c r="AK4" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AL4" s="38" t="s">
+      <c r="AL4" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AM4" s="40" t="s">
+      <c r="AM4" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="AN4" s="38" t="s">
+      <c r="AN4" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="AO4" s="38" t="s">
+      <c r="AO4" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="AP4" s="38" t="s">
+      <c r="AP4" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="AQ4" s="38" t="s">
+      <c r="AQ4" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="AR4" s="38" t="s">
+      <c r="AR4" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AS4" s="42" t="s">
+      <c r="AS4" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="AT4" s="38" t="s">
+      <c r="AT4" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="AU4" s="38" t="s">
+      <c r="AU4" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="AV4" s="39" t="s">
+      <c r="AV4" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="AW4" s="38" t="s">
+      <c r="AW4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="AX4" s="39" t="s">
+      <c r="AX4" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="AY4" s="39" t="s">
+      <c r="AY4" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="AZ4" s="38" t="s">
+      <c r="AZ4" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="BA4" s="39" t="s">
+      <c r="BA4" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="BB4" s="38" t="s">
+      <c r="BB4" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BC4" s="38" t="s">
+      <c r="BC4" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="BD4" s="39" t="s">
+      <c r="BD4" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="BE4" s="38" t="s">
+      <c r="BE4" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="BF4" s="39" t="s">
+      <c r="BF4" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="BG4" s="39" t="s">
+      <c r="BG4" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="BH4" s="38" t="s">
+      <c r="BH4" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="BI4" s="39" t="s">
+      <c r="BI4" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="BJ4" s="38" t="s">
+      <c r="BJ4" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="BK4" s="38" t="s">
+      <c r="BK4" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="BL4" s="38" t="s">
+      <c r="BL4" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="BM4" s="38" t="s">
+      <c r="BM4" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="BN4" s="38" t="s">
+      <c r="BN4" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="BO4" s="38" t="s">
+      <c r="BO4" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="BP4" s="38" t="s">
+      <c r="BP4" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="BQ4" s="38" t="s">
+      <c r="BQ4" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="BR4" s="38" t="s">
+      <c r="BR4" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="BS4" s="38" t="s">
+      <c r="BS4" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="BT4" s="38" t="s">
+      <c r="BT4" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="BU4" s="38" t="s">
+      <c r="BU4" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="BV4" s="38" t="s">
+      <c r="BV4" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="BW4" s="38" t="s">
+      <c r="BW4" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="BX4" s="38" t="s">
+      <c r="BX4" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="BY4" s="38" t="s">
+      <c r="BY4" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="BZ4" s="38" t="s">
+      <c r="BZ4" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="CA4" s="38" t="s">
+      <c r="CA4" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="CB4" s="38" t="s">
+      <c r="CB4" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="CC4" s="38" t="s">
+      <c r="CC4" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="CD4" s="38" t="s">
+      <c r="CD4" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="CE4" s="38" t="s">
+      <c r="CE4" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="CF4" s="38" t="s">
+      <c r="CF4" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="CG4" s="38" t="s">
+      <c r="CG4" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="CH4" s="38" t="s">
+      <c r="CH4" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="CI4" s="38" t="s">
+      <c r="CI4" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="CJ4" s="38" t="s">
+      <c r="CJ4" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="CK4" s="38" t="s">
+      <c r="CK4" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="CL4" s="38" t="s">
+      <c r="CL4" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="CM4" s="38" t="s">
+      <c r="CM4" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="CN4" s="38" t="s">
+      <c r="CN4" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="CO4" s="38" t="s">
+      <c r="CO4" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="CP4" s="38" t="s">
+      <c r="CP4" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="CQ4" s="38" t="s">
+      <c r="CQ4" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="CR4" s="38" t="s">
+      <c r="CR4" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="CS4" s="38" t="s">
+      <c r="CS4" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="CT4" s="38" t="s">
+      <c r="CT4" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="CU4" s="38" t="s">
+      <c r="CU4" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="CV4" s="38" t="s">
+      <c r="CV4" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="CW4" s="38" t="s">
+      <c r="CW4" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="CX4" s="38" t="s">
+      <c r="CX4" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="CY4" s="38" t="s">
+      <c r="CY4" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="CZ4" s="38" t="s">
+      <c r="CZ4" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="DA4" s="38" t="s">
+      <c r="DA4" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="DB4" s="38" t="s">
+      <c r="DB4" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="DC4" s="38" t="s">
+      <c r="DC4" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="DD4" s="38" t="s">
+      <c r="DD4" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="DE4" s="38" t="s">
+      <c r="DE4" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="DF4" s="38" t="s">
+      <c r="DF4" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="DG4" s="38" t="s">
+      <c r="DG4" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="DH4" s="38" t="s">
+      <c r="DH4" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="DI4" s="38" t="s">
+      <c r="DI4" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="DJ4" s="38" t="s">
+      <c r="DJ4" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="DK4" s="38" t="s">
+      <c r="DK4" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="DL4" s="38" t="s">
+      <c r="DL4" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="DM4" s="38" t="s">
+      <c r="DM4" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="DN4" s="38" t="s">
+      <c r="DN4" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="DO4" s="38" t="s">
+      <c r="DO4" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="DP4" s="38" t="s">
+      <c r="DP4" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="DQ4" s="38" t="s">
+      <c r="DQ4" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="DR4" s="38" t="s">
+      <c r="DR4" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="DS4" s="38" t="s">
+      <c r="DS4" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="DT4" s="38" t="s">
+      <c r="DT4" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="DU4" s="38" t="s">
+      <c r="DU4" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="DV4" s="38" t="s">
+      <c r="DV4" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="DW4" s="38" t="s">
+      <c r="DW4" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="DX4" s="38" t="s">
+      <c r="DX4" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="DY4" s="38" t="s">
+      <c r="DY4" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="DZ4" s="38" t="s">
+      <c r="DZ4" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="EA4" s="38" t="s">
+      <c r="EA4" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="EB4" s="38" t="s">
+      <c r="EB4" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="EC4" s="38" t="s">
+      <c r="EC4" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="ED4" s="38" t="s">
+      <c r="ED4" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="EE4" s="38" t="s">
+      <c r="EE4" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="EF4" s="38" t="s">
+      <c r="EF4" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="EG4" s="38" t="s">
+      <c r="EG4" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="EH4" s="38" t="s">
+      <c r="EH4" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="EI4" s="38" t="s">
+      <c r="EI4" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="EJ4" s="38" t="s">
+      <c r="EJ4" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="EK4" s="38" t="s">
+      <c r="EK4" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="EL4" s="38" t="s">
+      <c r="EL4" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="EM4" s="40" t="s">
+      <c r="EM4" s="43" t="s">
         <v>292</v>
       </c>
-      <c r="EN4" s="38" t="s">
+      <c r="EN4" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="EO4" s="38" t="s">
+      <c r="EO4" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="EP4" s="38" t="s">
+      <c r="EP4" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="EQ4" s="38" t="s">
+      <c r="EQ4" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="ER4" s="38" t="s">
+      <c r="ER4" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="ES4" s="38" t="s">
+      <c r="ES4" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="ET4" s="38" t="s">
+      <c r="ET4" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="EU4" s="38" t="s">
+      <c r="EU4" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="EV4" s="38" t="s">
+      <c r="EV4" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="EW4" s="38" t="s">
+      <c r="EW4" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="EX4" s="38" t="s">
+      <c r="EX4" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="EY4" s="38" t="s">
+      <c r="EY4" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="EZ4" s="38" t="s">
+      <c r="EZ4" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="FA4" s="38" t="s">
+      <c r="FA4" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="FB4" s="38" t="s">
+      <c r="FB4" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="FC4" s="38" t="s">
+      <c r="FC4" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="FD4" s="38" t="s">
+      <c r="FD4" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="FE4" s="38" t="s">
+      <c r="FE4" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="FF4" s="38" t="s">
+      <c r="FF4" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="FG4" s="38" t="s">
+      <c r="FG4" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="FH4" s="38" t="s">
+      <c r="FH4" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="FI4" s="38" t="s">
+      <c r="FI4" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="FJ4" s="38" t="s">
+      <c r="FJ4" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="FK4" s="38" t="s">
+      <c r="FK4" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="FL4" s="38" t="s">
+      <c r="FL4" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="FM4" s="38" t="s">
+      <c r="FM4" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="FN4" s="38" t="s">
+      <c r="FN4" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="FO4" s="38" t="s">
+      <c r="FO4" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="FP4" s="38" t="s">
+      <c r="FP4" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="FQ4" s="38" t="s">
+      <c r="FQ4" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="FR4" s="38" t="s">
+      <c r="FR4" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="FS4" s="38" t="s">
+      <c r="FS4" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="FT4" s="38" t="s">
+      <c r="FT4" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="FU4" s="38" t="s">
+      <c r="FU4" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="FV4" s="38" t="s">
+      <c r="FV4" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="FW4" s="38" t="s">
+      <c r="FW4" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="FX4" s="38" t="s">
+      <c r="FX4" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="FY4" s="38" t="s">
+      <c r="FY4" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="FZ4" s="38" t="s">
+      <c r="FZ4" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="GA4" s="38" t="s">
+      <c r="GA4" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="GB4" s="38" t="s">
+      <c r="GB4" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="GC4" s="38" t="s">
+      <c r="GC4" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="GD4" s="38" t="s">
+      <c r="GD4" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="GE4" s="38" t="s">
+      <c r="GE4" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="GF4" s="2"/>
+      <c r="GF4" s="1"/>
     </row>
     <row r="5" spans="1:188" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="20" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="22" t="s">
         <v>340</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="47" t="s">
         <v>342</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="K5" s="47" t="s">
+      <c r="K5" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="48" t="s">
         <v>347</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="N5" s="47" t="s">
+      <c r="N5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="47" t="s">
+      <c r="O5" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="P5" s="47" t="s">
+      <c r="P5" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="Q5" s="47" t="s">
+      <c r="Q5" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="R5" s="47" t="s">
+      <c r="R5" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="S5" s="47" t="s">
+      <c r="S5" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="T5" s="47" t="s">
+      <c r="T5" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="U5" s="47" t="s">
+      <c r="U5" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="V5" s="47" t="s">
+      <c r="V5" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="W5" s="50" t="s">
+      <c r="W5" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="X5" s="50" t="s">
+      <c r="X5" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="Y5" s="46" t="s">
+      <c r="Y5" s="22" t="s">
         <v>357</v>
       </c>
-      <c r="Z5" s="50" t="s">
+      <c r="Z5" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="AA5" s="47" t="s">
+      <c r="AA5" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="AB5" s="47" t="s">
+      <c r="AB5" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="AC5" s="50" t="s">
+      <c r="AC5" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="AD5" s="50" t="s">
+      <c r="AD5" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="AE5" s="46" t="s">
+      <c r="AE5" s="22" t="s">
         <v>363</v>
       </c>
-      <c r="AF5" s="50" t="s">
+      <c r="AF5" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="AG5" s="47" t="s">
+      <c r="AG5" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="AH5" s="47" t="s">
+      <c r="AH5" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="AI5" s="46" t="s">
+      <c r="AI5" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="AJ5" s="46" t="s">
+      <c r="AJ5" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="AK5" s="47" t="s">
+      <c r="AK5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AL5" s="47" t="s">
+      <c r="AL5" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="AM5" s="47" t="s">
+      <c r="AM5" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="AN5" s="47" t="s">
+      <c r="AN5" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="AO5" s="46" t="s">
+      <c r="AO5" s="22" t="s">
         <v>371</v>
       </c>
-      <c r="AP5" s="46" t="s">
+      <c r="AP5" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="AQ5" s="47" t="s">
+      <c r="AQ5" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="AR5" s="47" t="s">
+      <c r="AR5" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="AS5" s="47" t="s">
+      <c r="AS5" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="AT5" s="47" t="s">
+      <c r="AT5" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="AU5" s="47" t="s">
+      <c r="AU5" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="AV5" s="50" t="s">
+      <c r="AV5" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="AW5" s="47" t="s">
+      <c r="AW5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="AX5" s="50" t="s">
+      <c r="AX5" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="AY5" s="50" t="s">
+      <c r="AY5" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="AZ5" s="47" t="s">
+      <c r="AZ5" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="BA5" s="50" t="s">
+      <c r="BA5" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="BB5" s="47" t="s">
+      <c r="BB5" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="BC5" s="47" t="s">
+      <c r="BC5" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="BD5" s="50" t="s">
+      <c r="BD5" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="BE5" s="47" t="s">
+      <c r="BE5" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="BF5" s="50" t="s">
+      <c r="BF5" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="BG5" s="50" t="s">
+      <c r="BG5" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="BH5" s="47" t="s">
+      <c r="BH5" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="BI5" s="50" t="s">
+      <c r="BI5" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="BJ5" s="47" t="s">
+      <c r="BJ5" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="BK5" s="47" t="s">
+      <c r="BK5" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="BL5" s="47" t="s">
+      <c r="BL5" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="BM5" s="47" t="s">
+      <c r="BM5" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="BN5" s="47" t="s">
+      <c r="BN5" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="BO5" s="47" t="s">
+      <c r="BO5" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="BP5" s="47" t="s">
+      <c r="BP5" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="BQ5" s="47" t="s">
+      <c r="BQ5" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="BR5" s="47" t="s">
+      <c r="BR5" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="BS5" s="47" t="s">
+      <c r="BS5" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="BT5" s="47" t="s">
+      <c r="BT5" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="BU5" s="47" t="s">
+      <c r="BU5" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="BV5" s="47" t="s">
+      <c r="BV5" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="BW5" s="47" t="s">
+      <c r="BW5" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="BX5" s="47" t="s">
+      <c r="BX5" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="BY5" s="47" t="s">
+      <c r="BY5" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="BZ5" s="47" t="s">
+      <c r="BZ5" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="CA5" s="47" t="s">
+      <c r="CA5" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="CB5" s="47" t="s">
+      <c r="CB5" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="CC5" s="47" t="s">
+      <c r="CC5" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="CD5" s="47" t="s">
+      <c r="CD5" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="CE5" s="47" t="s">
+      <c r="CE5" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="CF5" s="47" t="s">
+      <c r="CF5" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="CG5" s="47" t="s">
+      <c r="CG5" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="CH5" s="47" t="s">
+      <c r="CH5" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="CI5" s="47" t="s">
+      <c r="CI5" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="CJ5" s="47" t="s">
+      <c r="CJ5" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="CK5" s="47" t="s">
+      <c r="CK5" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="CL5" s="47" t="s">
+      <c r="CL5" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="CM5" s="47" t="s">
+      <c r="CM5" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="CN5" s="47" t="s">
+      <c r="CN5" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="CO5" s="47" t="s">
+      <c r="CO5" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="CP5" s="47" t="s">
+      <c r="CP5" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="CQ5" s="47" t="s">
+      <c r="CQ5" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="CR5" s="47" t="s">
+      <c r="CR5" s="11" t="s">
         <v>416</v>
       </c>
-      <c r="CS5" s="47" t="s">
+      <c r="CS5" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="CT5" s="47" t="s">
+      <c r="CT5" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="CU5" s="47" t="s">
+      <c r="CU5" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="CV5" s="47" t="s">
+      <c r="CV5" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="CW5" s="47" t="s">
+      <c r="CW5" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="CX5" s="47" t="s">
+      <c r="CX5" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="CY5" s="47" t="s">
+      <c r="CY5" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="CZ5" s="47" t="s">
+      <c r="CZ5" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="DA5" s="47" t="s">
+      <c r="DA5" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="DB5" s="47" t="s">
+      <c r="DB5" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="DC5" s="47" t="s">
+      <c r="DC5" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="DD5" s="47" t="s">
+      <c r="DD5" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="DE5" s="47" t="s">
+      <c r="DE5" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="DF5" s="47" t="s">
+      <c r="DF5" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="DG5" s="47" t="s">
+      <c r="DG5" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="DH5" s="47" t="s">
+      <c r="DH5" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="DI5" s="47" t="s">
+      <c r="DI5" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="DJ5" s="47" t="s">
+      <c r="DJ5" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="DK5" s="47" t="s">
+      <c r="DK5" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="DL5" s="47" t="s">
+      <c r="DL5" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="DM5" s="47" t="s">
+      <c r="DM5" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="DN5" s="47" t="s">
+      <c r="DN5" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="DO5" s="47" t="s">
+      <c r="DO5" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="DP5" s="47" t="s">
+      <c r="DP5" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="DQ5" s="47" t="s">
+      <c r="DQ5" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="DR5" s="47" t="s">
+      <c r="DR5" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="DS5" s="47" t="s">
+      <c r="DS5" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="DT5" s="47" t="s">
+      <c r="DT5" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="DU5" s="47" t="s">
+      <c r="DU5" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="DV5" s="47" t="s">
+      <c r="DV5" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="DW5" s="47" t="s">
+      <c r="DW5" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="DX5" s="47" t="s">
+      <c r="DX5" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="DY5" s="47" t="s">
+      <c r="DY5" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="DZ5" s="47" t="s">
+      <c r="DZ5" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="EA5" s="47" t="s">
+      <c r="EA5" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="EB5" s="47" t="s">
+      <c r="EB5" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="EC5" s="47" t="s">
+      <c r="EC5" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="ED5" s="47" t="s">
+      <c r="ED5" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="EE5" s="47" t="s">
+      <c r="EE5" s="11" t="s">
         <v>455</v>
       </c>
-      <c r="EF5" s="47" t="s">
+      <c r="EF5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="EG5" s="47" t="s">
+      <c r="EG5" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="EH5" s="47" t="s">
+      <c r="EH5" s="11" t="s">
         <v>457</v>
       </c>
-      <c r="EI5" s="47" t="s">
+      <c r="EI5" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="EJ5" s="47" t="s">
+      <c r="EJ5" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="EK5" s="47" t="s">
+      <c r="EK5" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="EL5" s="47" t="s">
+      <c r="EL5" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="EM5" s="47" t="s">
+      <c r="EM5" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="EN5" s="47" t="s">
+      <c r="EN5" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="EO5" s="47" t="s">
+      <c r="EO5" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="EP5" s="47" t="s">
+      <c r="EP5" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="EQ5" s="47" t="s">
+      <c r="EQ5" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="ER5" s="47" t="s">
+      <c r="ER5" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="ES5" s="47" t="s">
+      <c r="ES5" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="ET5" s="47" t="s">
+      <c r="ET5" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="EU5" s="47" t="s">
+      <c r="EU5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="EV5" s="47" t="s">
+      <c r="EV5" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="EW5" s="47" t="s">
+      <c r="EW5" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="EX5" s="47" t="s">
+      <c r="EX5" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="EY5" s="47" t="s">
+      <c r="EY5" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="EZ5" s="47" t="s">
+      <c r="EZ5" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="FA5" s="47" t="s">
+      <c r="FA5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="FB5" s="47" t="s">
+      <c r="FB5" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="FC5" s="47" t="s">
+      <c r="FC5" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="FD5" s="47" t="s">
+      <c r="FD5" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="FE5" s="47" t="s">
+      <c r="FE5" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="FF5" s="47" t="s">
+      <c r="FF5" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="FG5" s="47" t="s">
+      <c r="FG5" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="FH5" s="47" t="s">
+      <c r="FH5" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="FI5" s="47" t="s">
+      <c r="FI5" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="FJ5" s="47" t="s">
+      <c r="FJ5" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="FK5" s="47" t="s">
+      <c r="FK5" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="FL5" s="47" t="s">
+      <c r="FL5" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="FM5" s="47" t="s">
+      <c r="FM5" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="FN5" s="47" t="s">
+      <c r="FN5" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="FO5" s="47" t="s">
+      <c r="FO5" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="FP5" s="47" t="s">
+      <c r="FP5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="FQ5" s="47" t="s">
+      <c r="FQ5" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="FR5" s="47" t="s">
+      <c r="FR5" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="FS5" s="47" t="s">
+      <c r="FS5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="FT5" s="47" t="s">
+      <c r="FT5" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="FU5" s="47" t="s">
+      <c r="FU5" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="FV5" s="47" t="s">
+      <c r="FV5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="FW5" s="47" t="s">
+      <c r="FW5" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="FX5" s="47" t="s">
+      <c r="FX5" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="FY5" s="47" t="s">
+      <c r="FY5" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="FZ5" s="47" t="s">
+      <c r="FZ5" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="GA5" s="47" t="s">
+      <c r="GA5" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="GB5" s="47" t="s">
+      <c r="GB5" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="GC5" s="47" t="s">
+      <c r="GC5" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="GD5" s="47" t="s">
+      <c r="GD5" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="GE5" s="47" t="s">
+      <c r="GE5" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="GF5" s="43"/>
+      <c r="GF5" s="10"/>
     </row>
     <row r="6" spans="1:188" x14ac:dyDescent="0.25">
-      <c r="BM6" s="51"/>
+      <c r="BM6" s="49"/>
       <c r="BN6" s="2"/>
     </row>
     <row r="7" spans="1:188" x14ac:dyDescent="0.25">
@@ -30417,7 +30396,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -30459,7 +30438,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="12" t="s">
         <v>489</v>
       </c>
     </row>
@@ -30553,30 +30532,30 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" style="15" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="43.42578125" style="15" customWidth="1"/>
     <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:6" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>1380</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="14" t="s">
         <v>1381</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="13" t="s">
         <v>1382</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="14" t="s">
         <v>1383</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="13" t="s">
         <v>1384</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="13" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -30584,13 +30563,13 @@
       <c r="A2" t="s">
         <v>500</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="15" t="s">
         <v>1386</v>
       </c>
       <c r="C2" t="s">
         <v>986</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="15" t="s">
         <v>1185</v>
       </c>
       <c r="E2" t="s">
@@ -30604,13 +30583,13 @@
       <c r="A3" t="s">
         <v>501</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="15" t="s">
         <v>1387</v>
       </c>
       <c r="C3" t="s">
         <v>987</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="15" t="s">
         <v>1186</v>
       </c>
       <c r="E3" t="s">
@@ -30624,13 +30603,13 @@
       <c r="A4" t="s">
         <v>502</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="15" t="s">
         <v>1388</v>
       </c>
       <c r="C4" t="s">
         <v>988</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="15" t="s">
         <v>1187</v>
       </c>
       <c r="E4" t="s">
@@ -30644,13 +30623,13 @@
       <c r="A5" t="s">
         <v>503</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="15" t="s">
         <v>1389</v>
       </c>
       <c r="C5" t="s">
         <v>989</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="15" t="s">
         <v>1188</v>
       </c>
       <c r="E5" t="s">
@@ -30664,13 +30643,13 @@
       <c r="A6" t="s">
         <v>504</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="15" t="s">
         <v>1390</v>
       </c>
       <c r="C6" t="s">
         <v>990</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="15" t="s">
         <v>1189</v>
       </c>
       <c r="E6" t="s">
@@ -30684,13 +30663,13 @@
       <c r="A7" t="s">
         <v>505</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="15" t="s">
         <v>1391</v>
       </c>
       <c r="C7" t="s">
         <v>991</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="15" t="s">
         <v>1190</v>
       </c>
       <c r="E7" t="s">
@@ -30704,13 +30683,13 @@
       <c r="A8" t="s">
         <v>506</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="15" t="s">
         <v>1392</v>
       </c>
       <c r="C8" t="s">
         <v>992</v>
       </c>
-      <c r="D8" s="55" t="s">
+      <c r="D8" s="15" t="s">
         <v>1191</v>
       </c>
       <c r="E8" t="s">
@@ -30724,13 +30703,13 @@
       <c r="A9" t="s">
         <v>507</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="15" t="s">
         <v>1393</v>
       </c>
       <c r="C9" t="s">
         <v>993</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="15" t="s">
         <v>1192</v>
       </c>
       <c r="E9" t="s">
@@ -30744,13 +30723,13 @@
       <c r="A10" t="s">
         <v>508</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="15" t="s">
         <v>1394</v>
       </c>
       <c r="C10" t="s">
         <v>994</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="15" t="s">
         <v>1193</v>
       </c>
       <c r="E10" t="s">
@@ -30764,13 +30743,13 @@
       <c r="A11" t="s">
         <v>509</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="15" t="s">
         <v>1395</v>
       </c>
       <c r="C11" t="s">
         <v>995</v>
       </c>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="15" t="s">
         <v>1194</v>
       </c>
       <c r="E11" t="s">
@@ -30784,13 +30763,13 @@
       <c r="A12" t="s">
         <v>510</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="15" t="s">
         <v>1396</v>
       </c>
       <c r="C12" t="s">
         <v>996</v>
       </c>
-      <c r="D12" s="55" t="s">
+      <c r="D12" s="15" t="s">
         <v>1195</v>
       </c>
       <c r="E12" t="s">
@@ -30804,13 +30783,13 @@
       <c r="A13" t="s">
         <v>511</v>
       </c>
-      <c r="B13" s="55" t="s">
+      <c r="B13" s="15" t="s">
         <v>1397</v>
       </c>
       <c r="C13" t="s">
         <v>997</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="15" t="s">
         <v>1196</v>
       </c>
       <c r="E13" t="s">
@@ -30824,13 +30803,13 @@
       <c r="A14" t="s">
         <v>512</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="15" t="s">
         <v>1398</v>
       </c>
       <c r="C14" t="s">
         <v>998</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="15" t="s">
         <v>1197</v>
       </c>
       <c r="E14" t="s">
@@ -30844,13 +30823,13 @@
       <c r="A15" t="s">
         <v>513</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="15" t="s">
         <v>1399</v>
       </c>
       <c r="C15" t="s">
         <v>999</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D15" s="15" t="s">
         <v>1198</v>
       </c>
       <c r="E15" t="s">
@@ -30864,13 +30843,13 @@
       <c r="A16" t="s">
         <v>514</v>
       </c>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="15" t="s">
         <v>1400</v>
       </c>
       <c r="C16" t="s">
         <v>1000</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="15" t="s">
         <v>1199</v>
       </c>
       <c r="E16" t="s">
@@ -30884,13 +30863,13 @@
       <c r="A17" t="s">
         <v>515</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="15" t="s">
         <v>1401</v>
       </c>
       <c r="C17" t="s">
         <v>1001</v>
       </c>
-      <c r="D17" s="55" t="s">
+      <c r="D17" s="15" t="s">
         <v>1200</v>
       </c>
       <c r="E17" t="s">
@@ -30904,13 +30883,13 @@
       <c r="A18" t="s">
         <v>516</v>
       </c>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="15" t="s">
         <v>1402</v>
       </c>
       <c r="C18" t="s">
         <v>1002</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="15" t="s">
         <v>1201</v>
       </c>
       <c r="E18" t="s">
@@ -30924,13 +30903,13 @@
       <c r="A19" t="s">
         <v>517</v>
       </c>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="15" t="s">
         <v>1403</v>
       </c>
       <c r="C19" t="s">
         <v>1003</v>
       </c>
-      <c r="D19" s="55" t="s">
+      <c r="D19" s="15" t="s">
         <v>1202</v>
       </c>
       <c r="E19" t="s">
@@ -30944,13 +30923,13 @@
       <c r="A20" t="s">
         <v>518</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="15" t="s">
         <v>1404</v>
       </c>
       <c r="C20" t="s">
         <v>1004</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="15" t="s">
         <v>1203</v>
       </c>
       <c r="E20" t="s">
@@ -30964,13 +30943,13 @@
       <c r="A21" t="s">
         <v>519</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="15" t="s">
         <v>1405</v>
       </c>
       <c r="C21" t="s">
         <v>1005</v>
       </c>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="15" t="s">
         <v>1204</v>
       </c>
       <c r="E21" t="s">
@@ -30984,13 +30963,13 @@
       <c r="A22" t="s">
         <v>520</v>
       </c>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="15" t="s">
         <v>1189</v>
       </c>
       <c r="C22" t="s">
         <v>1006</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="15" t="s">
         <v>1205</v>
       </c>
       <c r="E22" t="s">
@@ -31004,13 +30983,13 @@
       <c r="A23" t="s">
         <v>521</v>
       </c>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="15" t="s">
         <v>1406</v>
       </c>
       <c r="C23" t="s">
         <v>1007</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D23" s="15" t="s">
         <v>1206</v>
       </c>
       <c r="E23" t="s">
@@ -31024,13 +31003,13 @@
       <c r="A24" t="s">
         <v>522</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="15" t="s">
         <v>1407</v>
       </c>
       <c r="C24" t="s">
         <v>1008</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="15" t="s">
         <v>1207</v>
       </c>
       <c r="E24" t="s">
@@ -31044,13 +31023,13 @@
       <c r="A25" t="s">
         <v>523</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="15" t="s">
         <v>1192</v>
       </c>
       <c r="C25" t="s">
         <v>1009</v>
       </c>
-      <c r="D25" s="55" t="s">
+      <c r="D25" s="15" t="s">
         <v>1208</v>
       </c>
       <c r="E25" t="s">
@@ -31064,13 +31043,13 @@
       <c r="A26" t="s">
         <v>524</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="15" t="s">
         <v>1408</v>
       </c>
       <c r="C26" t="s">
         <v>1010</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="15" t="s">
         <v>1010</v>
       </c>
       <c r="E26" t="s">
@@ -31084,13 +31063,13 @@
       <c r="A27" t="s">
         <v>525</v>
       </c>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="15" t="s">
         <v>1409</v>
       </c>
       <c r="C27" t="s">
         <v>1011</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="D27" s="15" t="s">
         <v>1209</v>
       </c>
       <c r="E27" t="s">
@@ -31104,13 +31083,13 @@
       <c r="A28" t="s">
         <v>526</v>
       </c>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="15" t="s">
         <v>1410</v>
       </c>
       <c r="C28" t="s">
         <v>1012</v>
       </c>
-      <c r="D28" s="55" t="s">
+      <c r="D28" s="15" t="s">
         <v>1210</v>
       </c>
       <c r="E28" t="s">
@@ -31124,13 +31103,13 @@
       <c r="A29" t="s">
         <v>527</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="15" t="s">
         <v>1411</v>
       </c>
       <c r="C29" t="s">
         <v>1013</v>
       </c>
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="15" t="s">
         <v>1211</v>
       </c>
       <c r="E29" t="s">
@@ -31144,13 +31123,13 @@
       <c r="A30" t="s">
         <v>528</v>
       </c>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="15" t="s">
         <v>1412</v>
       </c>
       <c r="C30" t="s">
         <v>1014</v>
       </c>
-      <c r="D30" s="55" t="s">
+      <c r="D30" s="15" t="s">
         <v>1212</v>
       </c>
       <c r="E30" t="s">
@@ -31164,13 +31143,13 @@
       <c r="A31" t="s">
         <v>529</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="15" t="s">
         <v>1413</v>
       </c>
       <c r="C31" t="s">
         <v>1015</v>
       </c>
-      <c r="D31" s="55" t="s">
+      <c r="D31" s="15" t="s">
         <v>1213</v>
       </c>
       <c r="E31" t="s">
@@ -31184,13 +31163,13 @@
       <c r="A32" t="s">
         <v>530</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="15" t="s">
         <v>1414</v>
       </c>
       <c r="C32" t="s">
         <v>1016</v>
       </c>
-      <c r="D32" s="55" t="s">
+      <c r="D32" s="15" t="s">
         <v>1214</v>
       </c>
       <c r="E32" t="s">
@@ -31204,13 +31183,13 @@
       <c r="A33" t="s">
         <v>531</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="15" t="s">
         <v>1415</v>
       </c>
       <c r="C33" t="s">
         <v>1017</v>
       </c>
-      <c r="D33" s="55" t="s">
+      <c r="D33" s="15" t="s">
         <v>1215</v>
       </c>
       <c r="E33" t="s">
@@ -31224,13 +31203,13 @@
       <c r="A34" t="s">
         <v>532</v>
       </c>
-      <c r="B34" s="55" t="s">
+      <c r="B34" s="15" t="s">
         <v>1416</v>
       </c>
       <c r="C34" t="s">
         <v>1018</v>
       </c>
-      <c r="D34" s="55" t="s">
+      <c r="D34" s="15" t="s">
         <v>1216</v>
       </c>
       <c r="E34" t="s">
@@ -31244,13 +31223,13 @@
       <c r="A35" t="s">
         <v>533</v>
       </c>
-      <c r="B35" s="55" t="s">
+      <c r="B35" s="15" t="s">
         <v>1193</v>
       </c>
       <c r="C35" t="s">
         <v>1019</v>
       </c>
-      <c r="D35" s="55" t="s">
+      <c r="D35" s="15" t="s">
         <v>1217</v>
       </c>
       <c r="E35" t="s">
@@ -31264,13 +31243,13 @@
       <c r="A36" t="s">
         <v>534</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="15" t="s">
         <v>1417</v>
       </c>
       <c r="C36" t="s">
         <v>1020</v>
       </c>
-      <c r="D36" s="55" t="s">
+      <c r="D36" s="15" t="s">
         <v>1218</v>
       </c>
       <c r="E36" t="s">
@@ -31284,13 +31263,13 @@
       <c r="A37" t="s">
         <v>535</v>
       </c>
-      <c r="B37" s="55" t="s">
+      <c r="B37" s="15" t="s">
         <v>1418</v>
       </c>
       <c r="C37" t="s">
         <v>1021</v>
       </c>
-      <c r="D37" s="55" t="s">
+      <c r="D37" s="15" t="s">
         <v>1219</v>
       </c>
       <c r="E37" t="s">
@@ -31304,13 +31283,13 @@
       <c r="A38" t="s">
         <v>536</v>
       </c>
-      <c r="B38" s="55" t="s">
+      <c r="B38" s="15" t="s">
         <v>1419</v>
       </c>
       <c r="C38" t="s">
         <v>1022</v>
       </c>
-      <c r="D38" s="55" t="s">
+      <c r="D38" s="15" t="s">
         <v>1220</v>
       </c>
       <c r="E38" t="s">
@@ -31324,13 +31303,13 @@
       <c r="A39" t="s">
         <v>537</v>
       </c>
-      <c r="B39" s="55" t="s">
+      <c r="B39" s="15" t="s">
         <v>1420</v>
       </c>
       <c r="C39" t="s">
         <v>1023</v>
       </c>
-      <c r="D39" s="55" t="s">
+      <c r="D39" s="15" t="s">
         <v>1221</v>
       </c>
       <c r="E39" t="s">
@@ -31344,13 +31323,13 @@
       <c r="A40" t="s">
         <v>538</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="15" t="s">
         <v>1421</v>
       </c>
       <c r="C40" t="s">
         <v>1024</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D40" s="15" t="s">
         <v>1222</v>
       </c>
       <c r="E40" t="s">
@@ -31364,13 +31343,13 @@
       <c r="A41" t="s">
         <v>539</v>
       </c>
-      <c r="B41" s="55" t="s">
+      <c r="B41" s="15" t="s">
         <v>1422</v>
       </c>
       <c r="C41" t="s">
         <v>1025</v>
       </c>
-      <c r="D41" s="55" t="s">
+      <c r="D41" s="15" t="s">
         <v>1223</v>
       </c>
       <c r="E41" t="s">
@@ -31384,13 +31363,13 @@
       <c r="A42" t="s">
         <v>540</v>
       </c>
-      <c r="B42" s="55" t="s">
+      <c r="B42" s="15" t="s">
         <v>1423</v>
       </c>
       <c r="C42" t="s">
         <v>1026</v>
       </c>
-      <c r="D42" s="55" t="s">
+      <c r="D42" s="15" t="s">
         <v>1224</v>
       </c>
       <c r="E42" t="s">
@@ -31404,13 +31383,13 @@
       <c r="A43" t="s">
         <v>541</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="15" t="s">
         <v>1424</v>
       </c>
       <c r="C43" t="s">
         <v>1027</v>
       </c>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="15" t="s">
         <v>1225</v>
       </c>
       <c r="E43" t="s">
@@ -31424,13 +31403,13 @@
       <c r="A44" t="s">
         <v>542</v>
       </c>
-      <c r="B44" s="55" t="s">
+      <c r="B44" s="15" t="s">
         <v>1194</v>
       </c>
       <c r="C44" t="s">
         <v>1028</v>
       </c>
-      <c r="D44" s="55" t="s">
+      <c r="D44" s="15" t="s">
         <v>1226</v>
       </c>
       <c r="E44" t="s">
@@ -31444,13 +31423,13 @@
       <c r="A45" t="s">
         <v>543</v>
       </c>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="15" t="s">
         <v>1425</v>
       </c>
       <c r="C45" t="s">
         <v>1029</v>
       </c>
-      <c r="D45" s="55" t="s">
+      <c r="D45" s="15" t="s">
         <v>1227</v>
       </c>
       <c r="E45" t="s">
@@ -31464,13 +31443,13 @@
       <c r="A46" t="s">
         <v>544</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="15" t="s">
         <v>1426</v>
       </c>
       <c r="C46" t="s">
         <v>1030</v>
       </c>
-      <c r="D46" s="55" t="s">
+      <c r="D46" s="15" t="s">
         <v>1228</v>
       </c>
       <c r="E46" t="s">
@@ -31484,13 +31463,13 @@
       <c r="A47" t="s">
         <v>545</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="15" t="s">
         <v>1427</v>
       </c>
       <c r="C47" t="s">
         <v>1031</v>
       </c>
-      <c r="D47" s="55" t="s">
+      <c r="D47" s="15" t="s">
         <v>1229</v>
       </c>
       <c r="E47" t="s">
@@ -31504,13 +31483,13 @@
       <c r="A48" t="s">
         <v>546</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="15" t="s">
         <v>1428</v>
       </c>
       <c r="C48" t="s">
         <v>1032</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="15" t="s">
         <v>1230</v>
       </c>
       <c r="E48" t="s">
@@ -31524,13 +31503,13 @@
       <c r="A49" t="s">
         <v>547</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="B49" s="15" t="s">
         <v>1429</v>
       </c>
       <c r="C49" t="s">
         <v>1033</v>
       </c>
-      <c r="D49" s="55" t="s">
+      <c r="D49" s="15" t="s">
         <v>1231</v>
       </c>
       <c r="E49" t="s">
@@ -31544,13 +31523,13 @@
       <c r="A50" t="s">
         <v>548</v>
       </c>
-      <c r="B50" s="55" t="s">
+      <c r="B50" s="15" t="s">
         <v>1430</v>
       </c>
       <c r="C50" t="s">
         <v>1034</v>
       </c>
-      <c r="D50" s="55" t="s">
+      <c r="D50" s="15" t="s">
         <v>1232</v>
       </c>
       <c r="E50" t="s">
@@ -31564,13 +31543,13 @@
       <c r="A51" t="s">
         <v>549</v>
       </c>
-      <c r="B51" s="55" t="s">
+      <c r="B51" s="15" t="s">
         <v>1431</v>
       </c>
       <c r="C51" t="s">
         <v>1035</v>
       </c>
-      <c r="D51" s="55" t="s">
+      <c r="D51" s="15" t="s">
         <v>1233</v>
       </c>
       <c r="E51" t="s">
@@ -31584,13 +31563,13 @@
       <c r="A52" t="s">
         <v>550</v>
       </c>
-      <c r="B52" s="55" t="s">
+      <c r="B52" s="15" t="s">
         <v>1432</v>
       </c>
       <c r="C52" t="s">
         <v>1036</v>
       </c>
-      <c r="D52" s="55" t="s">
+      <c r="D52" s="15" t="s">
         <v>1234</v>
       </c>
       <c r="E52" t="s">
@@ -31604,13 +31583,13 @@
       <c r="A53" t="s">
         <v>551</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="15" t="s">
         <v>1433</v>
       </c>
       <c r="C53" t="s">
         <v>1037</v>
       </c>
-      <c r="D53" s="55" t="s">
+      <c r="D53" s="15" t="s">
         <v>1235</v>
       </c>
       <c r="E53" t="s">
@@ -31624,13 +31603,13 @@
       <c r="A54" t="s">
         <v>552</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="15" t="s">
         <v>1434</v>
       </c>
       <c r="C54" t="s">
         <v>1038</v>
       </c>
-      <c r="D54" s="55" t="s">
+      <c r="D54" s="15" t="s">
         <v>1236</v>
       </c>
       <c r="E54" t="s">
@@ -31644,13 +31623,13 @@
       <c r="A55" t="s">
         <v>553</v>
       </c>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="15" t="s">
         <v>1435</v>
       </c>
       <c r="C55" t="s">
         <v>1039</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="15" t="s">
         <v>1237</v>
       </c>
       <c r="E55" t="s">
@@ -31664,13 +31643,13 @@
       <c r="A56" t="s">
         <v>554</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B56" s="15" t="s">
         <v>1436</v>
       </c>
       <c r="C56" t="s">
         <v>1040</v>
       </c>
-      <c r="D56" s="55" t="s">
+      <c r="D56" s="15" t="s">
         <v>1238</v>
       </c>
       <c r="E56" t="s">
@@ -31684,13 +31663,13 @@
       <c r="A57" t="s">
         <v>555</v>
       </c>
-      <c r="B57" s="55" t="s">
+      <c r="B57" s="15" t="s">
         <v>1437</v>
       </c>
       <c r="C57" t="s">
         <v>1041</v>
       </c>
-      <c r="D57" s="55" t="s">
+      <c r="D57" s="15" t="s">
         <v>1239</v>
       </c>
       <c r="E57" t="s">
@@ -31704,13 +31683,13 @@
       <c r="A58" t="s">
         <v>556</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="15" t="s">
         <v>1438</v>
       </c>
       <c r="C58" t="s">
         <v>1042</v>
       </c>
-      <c r="D58" s="55" t="s">
+      <c r="D58" s="15" t="s">
         <v>1240</v>
       </c>
       <c r="E58" t="s">
@@ -31724,13 +31703,13 @@
       <c r="A59" t="s">
         <v>557</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="15" t="s">
         <v>1439</v>
       </c>
       <c r="C59" t="s">
         <v>1043</v>
       </c>
-      <c r="D59" s="55" t="s">
+      <c r="D59" s="15" t="s">
         <v>1241</v>
       </c>
       <c r="E59" t="s">
@@ -31744,13 +31723,13 @@
       <c r="A60" t="s">
         <v>558</v>
       </c>
-      <c r="B60" s="55" t="s">
+      <c r="B60" s="15" t="s">
         <v>1440</v>
       </c>
       <c r="C60" t="s">
         <v>1044</v>
       </c>
-      <c r="D60" s="55" t="s">
+      <c r="D60" s="15" t="s">
         <v>1242</v>
       </c>
       <c r="E60" t="s">
@@ -31764,13 +31743,13 @@
       <c r="A61" t="s">
         <v>559</v>
       </c>
-      <c r="B61" s="55" t="s">
+      <c r="B61" s="15" t="s">
         <v>1441</v>
       </c>
       <c r="C61" t="s">
         <v>1045</v>
       </c>
-      <c r="D61" s="55" t="s">
+      <c r="D61" s="15" t="s">
         <v>1243</v>
       </c>
       <c r="E61" t="s">
@@ -31784,13 +31763,13 @@
       <c r="A62" t="s">
         <v>560</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="15" t="s">
         <v>1442</v>
       </c>
       <c r="C62" t="s">
         <v>1046</v>
       </c>
-      <c r="D62" s="55" t="s">
+      <c r="D62" s="15" t="s">
         <v>1244</v>
       </c>
       <c r="E62" t="s">
@@ -31804,13 +31783,13 @@
       <c r="A63" t="s">
         <v>561</v>
       </c>
-      <c r="B63" s="55" t="s">
+      <c r="B63" s="15" t="s">
         <v>1443</v>
       </c>
       <c r="C63" t="s">
         <v>1047</v>
       </c>
-      <c r="D63" s="55" t="s">
+      <c r="D63" s="15" t="s">
         <v>1245</v>
       </c>
       <c r="E63" t="s">
@@ -31824,13 +31803,13 @@
       <c r="A64" t="s">
         <v>562</v>
       </c>
-      <c r="B64" s="55" t="s">
+      <c r="B64" s="15" t="s">
         <v>1444</v>
       </c>
       <c r="C64" t="s">
         <v>1048</v>
       </c>
-      <c r="D64" s="55" t="s">
+      <c r="D64" s="15" t="s">
         <v>1246</v>
       </c>
       <c r="E64" t="s">
@@ -31844,13 +31823,13 @@
       <c r="A65" t="s">
         <v>563</v>
       </c>
-      <c r="B65" s="55" t="s">
+      <c r="B65" s="15" t="s">
         <v>1204</v>
       </c>
       <c r="C65" t="s">
         <v>1049</v>
       </c>
-      <c r="D65" s="55" t="s">
+      <c r="D65" s="15" t="s">
         <v>1247</v>
       </c>
       <c r="E65" t="s">
@@ -31864,13 +31843,13 @@
       <c r="A66" t="s">
         <v>564</v>
       </c>
-      <c r="B66" s="55" t="s">
+      <c r="B66" s="15" t="s">
         <v>1445</v>
       </c>
       <c r="C66" t="s">
         <v>1050</v>
       </c>
-      <c r="D66" s="55" t="s">
+      <c r="D66" s="15" t="s">
         <v>1248</v>
       </c>
       <c r="E66" t="s">
@@ -31884,13 +31863,13 @@
       <c r="A67" t="s">
         <v>565</v>
       </c>
-      <c r="B67" s="55" t="s">
+      <c r="B67" s="15" t="s">
         <v>1446</v>
       </c>
       <c r="C67" t="s">
         <v>1051</v>
       </c>
-      <c r="D67" s="55" t="s">
+      <c r="D67" s="15" t="s">
         <v>1249</v>
       </c>
       <c r="E67" t="s">
@@ -31904,13 +31883,13 @@
       <c r="A68" t="s">
         <v>566</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="15" t="s">
         <v>1447</v>
       </c>
       <c r="C68" t="s">
         <v>1052</v>
       </c>
-      <c r="D68" s="55" t="s">
+      <c r="D68" s="15" t="s">
         <v>1250</v>
       </c>
       <c r="E68" t="s">
@@ -31924,13 +31903,13 @@
       <c r="A69" t="s">
         <v>567</v>
       </c>
-      <c r="B69" s="55" t="s">
+      <c r="B69" s="15" t="s">
         <v>1448</v>
       </c>
       <c r="C69" t="s">
         <v>1053</v>
       </c>
-      <c r="D69" s="55" t="s">
+      <c r="D69" s="15" t="s">
         <v>1251</v>
       </c>
       <c r="E69" t="s">
@@ -31944,13 +31923,13 @@
       <c r="A70" t="s">
         <v>568</v>
       </c>
-      <c r="B70" s="55" t="s">
+      <c r="B70" s="15" t="s">
         <v>1449</v>
       </c>
       <c r="C70" t="s">
         <v>1054</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="15" t="s">
         <v>1252</v>
       </c>
       <c r="E70" t="s">
@@ -31964,13 +31943,13 @@
       <c r="A71" t="s">
         <v>569</v>
       </c>
-      <c r="B71" s="55" t="s">
+      <c r="B71" s="15" t="s">
         <v>1450</v>
       </c>
       <c r="C71" t="s">
         <v>1055</v>
       </c>
-      <c r="D71" s="55" t="s">
+      <c r="D71" s="15" t="s">
         <v>1253</v>
       </c>
       <c r="E71" t="s">
@@ -31984,13 +31963,13 @@
       <c r="A72" t="s">
         <v>570</v>
       </c>
-      <c r="B72" s="55" t="s">
+      <c r="B72" s="15" t="s">
         <v>1451</v>
       </c>
       <c r="C72" t="s">
         <v>1056</v>
       </c>
-      <c r="D72" s="55" t="s">
+      <c r="D72" s="15" t="s">
         <v>1254</v>
       </c>
       <c r="E72" t="s">
@@ -32004,13 +31983,13 @@
       <c r="A73" t="s">
         <v>571</v>
       </c>
-      <c r="B73" s="55" t="s">
+      <c r="B73" s="15" t="s">
         <v>1452</v>
       </c>
       <c r="C73" t="s">
         <v>1057</v>
       </c>
-      <c r="D73" s="55" t="s">
+      <c r="D73" s="15" t="s">
         <v>1255</v>
       </c>
       <c r="E73" t="s">
@@ -32024,13 +32003,13 @@
       <c r="A74" t="s">
         <v>572</v>
       </c>
-      <c r="B74" s="55" t="s">
+      <c r="B74" s="15" t="s">
         <v>1453</v>
       </c>
       <c r="C74" t="s">
         <v>1058</v>
       </c>
-      <c r="D74" s="55" t="s">
+      <c r="D74" s="15" t="s">
         <v>1256</v>
       </c>
       <c r="E74" t="s">
@@ -32044,13 +32023,13 @@
       <c r="A75" t="s">
         <v>573</v>
       </c>
-      <c r="B75" s="55" t="s">
+      <c r="B75" s="15" t="s">
         <v>1454</v>
       </c>
       <c r="C75" t="s">
         <v>1059</v>
       </c>
-      <c r="D75" s="55" t="s">
+      <c r="D75" s="15" t="s">
         <v>1257</v>
       </c>
       <c r="E75" t="s">
@@ -32064,13 +32043,13 @@
       <c r="A76" t="s">
         <v>574</v>
       </c>
-      <c r="B76" s="55" t="s">
+      <c r="B76" s="15" t="s">
         <v>1455</v>
       </c>
       <c r="C76" t="s">
         <v>1060</v>
       </c>
-      <c r="D76" s="55" t="s">
+      <c r="D76" s="15" t="s">
         <v>1258</v>
       </c>
       <c r="E76" t="s">
@@ -32084,13 +32063,13 @@
       <c r="A77" t="s">
         <v>575</v>
       </c>
-      <c r="B77" s="55" t="s">
+      <c r="B77" s="15" t="s">
         <v>1456</v>
       </c>
       <c r="C77" t="s">
         <v>1061</v>
       </c>
-      <c r="D77" s="55" t="s">
+      <c r="D77" s="15" t="s">
         <v>1259</v>
       </c>
       <c r="E77" t="s">
@@ -32104,13 +32083,13 @@
       <c r="A78" t="s">
         <v>576</v>
       </c>
-      <c r="B78" s="55" t="s">
+      <c r="B78" s="15" t="s">
         <v>1457</v>
       </c>
       <c r="C78" t="s">
         <v>1062</v>
       </c>
-      <c r="D78" s="55" t="s">
+      <c r="D78" s="15" t="s">
         <v>1260</v>
       </c>
       <c r="E78" t="s">
@@ -32124,13 +32103,13 @@
       <c r="A79" t="s">
         <v>577</v>
       </c>
-      <c r="B79" s="55" t="s">
+      <c r="B79" s="15" t="s">
         <v>1458</v>
       </c>
       <c r="C79" t="s">
         <v>1063</v>
       </c>
-      <c r="D79" s="55" t="s">
+      <c r="D79" s="15" t="s">
         <v>1261</v>
       </c>
       <c r="E79" t="s">
@@ -32144,13 +32123,13 @@
       <c r="A80" t="s">
         <v>578</v>
       </c>
-      <c r="B80" s="55" t="s">
+      <c r="B80" s="15" t="s">
         <v>1459</v>
       </c>
       <c r="C80" t="s">
         <v>1064</v>
       </c>
-      <c r="D80" s="55" t="s">
+      <c r="D80" s="15" t="s">
         <v>1262</v>
       </c>
       <c r="E80" t="s">
@@ -32164,13 +32143,13 @@
       <c r="A81" t="s">
         <v>579</v>
       </c>
-      <c r="B81" s="55" t="s">
+      <c r="B81" s="15" t="s">
         <v>1460</v>
       </c>
       <c r="C81" t="s">
         <v>1065</v>
       </c>
-      <c r="D81" s="55" t="s">
+      <c r="D81" s="15" t="s">
         <v>1263</v>
       </c>
       <c r="E81" t="s">
@@ -32184,13 +32163,13 @@
       <c r="A82" t="s">
         <v>580</v>
       </c>
-      <c r="B82" s="55" t="s">
+      <c r="B82" s="15" t="s">
         <v>1461</v>
       </c>
       <c r="C82" t="s">
         <v>1066</v>
       </c>
-      <c r="D82" s="55" t="s">
+      <c r="D82" s="15" t="s">
         <v>1264</v>
       </c>
       <c r="E82" t="s">
@@ -32204,13 +32183,13 @@
       <c r="A83" t="s">
         <v>581</v>
       </c>
-      <c r="B83" s="55" t="s">
+      <c r="B83" s="15" t="s">
         <v>1462</v>
       </c>
       <c r="C83" t="s">
         <v>1067</v>
       </c>
-      <c r="D83" s="55" t="s">
+      <c r="D83" s="15" t="s">
         <v>1265</v>
       </c>
       <c r="E83" t="s">
@@ -32224,13 +32203,13 @@
       <c r="A84" t="s">
         <v>582</v>
       </c>
-      <c r="B84" s="55" t="s">
+      <c r="B84" s="15" t="s">
         <v>1463</v>
       </c>
       <c r="C84" t="s">
         <v>1068</v>
       </c>
-      <c r="D84" s="55" t="s">
+      <c r="D84" s="15" t="s">
         <v>1266</v>
       </c>
       <c r="E84" t="s">
@@ -32244,13 +32223,13 @@
       <c r="A85" t="s">
         <v>583</v>
       </c>
-      <c r="B85" s="55" t="s">
+      <c r="B85" s="15" t="s">
         <v>1464</v>
       </c>
       <c r="C85" t="s">
         <v>1069</v>
       </c>
-      <c r="D85" s="55" t="s">
+      <c r="D85" s="15" t="s">
         <v>1267</v>
       </c>
       <c r="E85" t="s">
@@ -32264,13 +32243,13 @@
       <c r="A86" t="s">
         <v>584</v>
       </c>
-      <c r="B86" s="55" t="s">
+      <c r="B86" s="15" t="s">
         <v>1209</v>
       </c>
       <c r="C86" t="s">
         <v>1070</v>
       </c>
-      <c r="D86" s="55" t="s">
+      <c r="D86" s="15" t="s">
         <v>1268</v>
       </c>
       <c r="E86" t="s">
@@ -32284,13 +32263,13 @@
       <c r="A87" t="s">
         <v>585</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="15" t="s">
         <v>1465</v>
       </c>
       <c r="C87" t="s">
         <v>1071</v>
       </c>
-      <c r="D87" s="55" t="s">
+      <c r="D87" s="15" t="s">
         <v>1269</v>
       </c>
       <c r="E87" t="s">
@@ -32304,13 +32283,13 @@
       <c r="A88" t="s">
         <v>586</v>
       </c>
-      <c r="B88" s="55" t="s">
+      <c r="B88" s="15" t="s">
         <v>1466</v>
       </c>
       <c r="C88" t="s">
         <v>1072</v>
       </c>
-      <c r="D88" s="55" t="s">
+      <c r="D88" s="15" t="s">
         <v>1270</v>
       </c>
       <c r="E88" t="s">
@@ -32324,13 +32303,13 @@
       <c r="A89" t="s">
         <v>587</v>
       </c>
-      <c r="B89" s="55" t="s">
+      <c r="B89" s="15" t="s">
         <v>1467</v>
       </c>
       <c r="C89" t="s">
         <v>1073</v>
       </c>
-      <c r="D89" s="55" t="s">
+      <c r="D89" s="15" t="s">
         <v>1271</v>
       </c>
       <c r="E89" t="s">
@@ -32344,13 +32323,13 @@
       <c r="A90" t="s">
         <v>588</v>
       </c>
-      <c r="B90" s="55" t="s">
+      <c r="B90" s="15" t="s">
         <v>1468</v>
       </c>
       <c r="C90" t="s">
         <v>1074</v>
       </c>
-      <c r="D90" s="55" t="s">
+      <c r="D90" s="15" t="s">
         <v>1074</v>
       </c>
       <c r="E90" t="s">
@@ -32364,13 +32343,13 @@
       <c r="A91" t="s">
         <v>589</v>
       </c>
-      <c r="B91" s="55" t="s">
+      <c r="B91" s="15" t="s">
         <v>1211</v>
       </c>
       <c r="C91" t="s">
         <v>1075</v>
       </c>
-      <c r="D91" s="55" t="s">
+      <c r="D91" s="15" t="s">
         <v>1272</v>
       </c>
       <c r="E91" t="s">
@@ -32384,13 +32363,13 @@
       <c r="A92" t="s">
         <v>590</v>
       </c>
-      <c r="B92" s="55" t="s">
+      <c r="B92" s="15" t="s">
         <v>1469</v>
       </c>
       <c r="C92" t="s">
         <v>1076</v>
       </c>
-      <c r="D92" s="55" t="s">
+      <c r="D92" s="15" t="s">
         <v>1273</v>
       </c>
       <c r="E92" t="s">
@@ -32404,13 +32383,13 @@
       <c r="A93" t="s">
         <v>591</v>
       </c>
-      <c r="B93" s="55" t="s">
+      <c r="B93" s="15" t="s">
         <v>1470</v>
       </c>
       <c r="C93" t="s">
         <v>1077</v>
       </c>
-      <c r="D93" s="55" t="s">
+      <c r="D93" s="15" t="s">
         <v>1274</v>
       </c>
       <c r="E93" t="s">
@@ -32424,13 +32403,13 @@
       <c r="A94" t="s">
         <v>592</v>
       </c>
-      <c r="B94" s="55" t="s">
+      <c r="B94" s="15" t="s">
         <v>1471</v>
       </c>
       <c r="C94" t="s">
         <v>1078</v>
       </c>
-      <c r="D94" s="55" t="s">
+      <c r="D94" s="15" t="s">
         <v>1275</v>
       </c>
       <c r="E94" t="s">
@@ -32444,13 +32423,13 @@
       <c r="A95" t="s">
         <v>593</v>
       </c>
-      <c r="B95" s="55" t="s">
+      <c r="B95" s="15" t="s">
         <v>1472</v>
       </c>
       <c r="C95" t="s">
         <v>1079</v>
       </c>
-      <c r="D95" s="55" t="s">
+      <c r="D95" s="15" t="s">
         <v>1276</v>
       </c>
       <c r="E95" t="s">
@@ -32464,13 +32443,13 @@
       <c r="A96" t="s">
         <v>594</v>
       </c>
-      <c r="B96" s="55" t="s">
+      <c r="B96" s="15" t="s">
         <v>1473</v>
       </c>
       <c r="C96" t="s">
         <v>1080</v>
       </c>
-      <c r="D96" s="55" t="s">
+      <c r="D96" s="15" t="s">
         <v>1080</v>
       </c>
       <c r="E96" t="s">
@@ -32484,13 +32463,13 @@
       <c r="A97" t="s">
         <v>595</v>
       </c>
-      <c r="B97" s="55" t="s">
+      <c r="B97" s="15" t="s">
         <v>1474</v>
       </c>
       <c r="C97" t="s">
         <v>1081</v>
       </c>
-      <c r="D97" s="55" t="s">
+      <c r="D97" s="15" t="s">
         <v>1277</v>
       </c>
       <c r="E97" t="s">
@@ -32504,13 +32483,13 @@
       <c r="A98" t="s">
         <v>596</v>
       </c>
-      <c r="B98" s="55" t="s">
+      <c r="B98" s="15" t="s">
         <v>1475</v>
       </c>
       <c r="C98" t="s">
         <v>1082</v>
       </c>
-      <c r="D98" s="55" t="s">
+      <c r="D98" s="15" t="s">
         <v>1278</v>
       </c>
       <c r="E98" t="s">
@@ -32524,13 +32503,13 @@
       <c r="A99" t="s">
         <v>597</v>
       </c>
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="15" t="s">
         <v>1476</v>
       </c>
       <c r="C99" t="s">
         <v>1083</v>
       </c>
-      <c r="D99" s="55" t="s">
+      <c r="D99" s="15" t="s">
         <v>1279</v>
       </c>
       <c r="E99" t="s">
@@ -32544,13 +32523,13 @@
       <c r="A100" t="s">
         <v>598</v>
       </c>
-      <c r="B100" s="55" t="s">
+      <c r="B100" s="15" t="s">
         <v>1477</v>
       </c>
       <c r="C100" t="s">
         <v>1084</v>
       </c>
-      <c r="D100" s="55" t="s">
+      <c r="D100" s="15" t="s">
         <v>1280</v>
       </c>
       <c r="E100" t="s">
@@ -32564,13 +32543,13 @@
       <c r="A101" t="s">
         <v>599</v>
       </c>
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="15" t="s">
         <v>1478</v>
       </c>
       <c r="C101" t="s">
         <v>1085</v>
       </c>
-      <c r="D101" s="55" t="s">
+      <c r="D101" s="15" t="s">
         <v>1281</v>
       </c>
       <c r="E101" t="s">
@@ -32584,13 +32563,13 @@
       <c r="A102" t="s">
         <v>600</v>
       </c>
-      <c r="B102" s="55" t="s">
+      <c r="B102" s="15" t="s">
         <v>1479</v>
       </c>
       <c r="C102" t="s">
         <v>1086</v>
       </c>
-      <c r="D102" s="55" t="s">
+      <c r="D102" s="15" t="s">
         <v>1282</v>
       </c>
       <c r="E102" t="s">
@@ -32604,13 +32583,13 @@
       <c r="A103" t="s">
         <v>601</v>
       </c>
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="15" t="s">
         <v>1480</v>
       </c>
       <c r="C103" t="s">
         <v>1087</v>
       </c>
-      <c r="D103" s="55" t="s">
+      <c r="D103" s="15" t="s">
         <v>1283</v>
       </c>
       <c r="E103" t="s">
@@ -32624,13 +32603,13 @@
       <c r="A104" t="s">
         <v>602</v>
       </c>
-      <c r="B104" s="55" t="s">
+      <c r="B104" s="15" t="s">
         <v>1481</v>
       </c>
       <c r="C104" t="s">
         <v>1088</v>
       </c>
-      <c r="D104" s="55" t="s">
+      <c r="D104" s="15" t="s">
         <v>1284</v>
       </c>
       <c r="E104" t="s">
@@ -32644,13 +32623,13 @@
       <c r="A105" t="s">
         <v>603</v>
       </c>
-      <c r="B105" s="55" t="s">
+      <c r="B105" s="15" t="s">
         <v>1482</v>
       </c>
       <c r="C105" t="s">
         <v>1089</v>
       </c>
-      <c r="D105" s="55" t="s">
+      <c r="D105" s="15" t="s">
         <v>1285</v>
       </c>
       <c r="E105" t="s">
@@ -32664,13 +32643,13 @@
       <c r="A106" t="s">
         <v>604</v>
       </c>
-      <c r="B106" s="55" t="s">
+      <c r="B106" s="15" t="s">
         <v>1483</v>
       </c>
       <c r="C106" t="s">
         <v>1090</v>
       </c>
-      <c r="D106" s="55" t="s">
+      <c r="D106" s="15" t="s">
         <v>1286</v>
       </c>
       <c r="E106" t="s">
@@ -32684,13 +32663,13 @@
       <c r="A107" t="s">
         <v>605</v>
       </c>
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="15" t="s">
         <v>1484</v>
       </c>
       <c r="C107" t="s">
         <v>1091</v>
       </c>
-      <c r="D107" s="55" t="s">
+      <c r="D107" s="15" t="s">
         <v>1287</v>
       </c>
       <c r="E107" t="s">
@@ -32704,13 +32683,13 @@
       <c r="A108" t="s">
         <v>606</v>
       </c>
-      <c r="B108" s="55" t="s">
+      <c r="B108" s="15" t="s">
         <v>1485</v>
       </c>
       <c r="C108" t="s">
         <v>1092</v>
       </c>
-      <c r="D108" s="55" t="s">
+      <c r="D108" s="15" t="s">
         <v>1288</v>
       </c>
       <c r="E108" t="s">
@@ -32724,13 +32703,13 @@
       <c r="A109" t="s">
         <v>607</v>
       </c>
-      <c r="B109" s="55" t="s">
+      <c r="B109" s="15" t="s">
         <v>1486</v>
       </c>
       <c r="C109" t="s">
         <v>1093</v>
       </c>
-      <c r="D109" s="55" t="s">
+      <c r="D109" s="15" t="s">
         <v>1289</v>
       </c>
       <c r="E109" t="s">
@@ -32744,13 +32723,13 @@
       <c r="A110" t="s">
         <v>608</v>
       </c>
-      <c r="B110" s="55" t="s">
+      <c r="B110" s="15" t="s">
         <v>1487</v>
       </c>
       <c r="C110" t="s">
         <v>1094</v>
       </c>
-      <c r="D110" s="55" t="s">
+      <c r="D110" s="15" t="s">
         <v>1290</v>
       </c>
       <c r="E110" t="s">
@@ -32764,13 +32743,13 @@
       <c r="A111" t="s">
         <v>609</v>
       </c>
-      <c r="B111" s="55" t="s">
+      <c r="B111" s="15" t="s">
         <v>1488</v>
       </c>
       <c r="C111" t="s">
         <v>1095</v>
       </c>
-      <c r="D111" s="55" t="s">
+      <c r="D111" s="15" t="s">
         <v>1291</v>
       </c>
       <c r="E111" t="s">
@@ -32784,13 +32763,13 @@
       <c r="A112" t="s">
         <v>610</v>
       </c>
-      <c r="B112" s="55" t="s">
+      <c r="B112" s="15" t="s">
         <v>1489</v>
       </c>
       <c r="C112" t="s">
         <v>1096</v>
       </c>
-      <c r="D112" s="55" t="s">
+      <c r="D112" s="15" t="s">
         <v>1292</v>
       </c>
       <c r="E112" t="s">
@@ -32804,13 +32783,13 @@
       <c r="A113" t="s">
         <v>611</v>
       </c>
-      <c r="B113" s="55" t="s">
+      <c r="B113" s="15" t="s">
         <v>1490</v>
       </c>
       <c r="C113" t="s">
         <v>1097</v>
       </c>
-      <c r="D113" s="55" t="s">
+      <c r="D113" s="15" t="s">
         <v>1293</v>
       </c>
       <c r="E113" t="s">
@@ -32824,13 +32803,13 @@
       <c r="A114" t="s">
         <v>612</v>
       </c>
-      <c r="B114" s="55" t="s">
+      <c r="B114" s="15" t="s">
         <v>1491</v>
       </c>
       <c r="C114" t="s">
         <v>1098</v>
       </c>
-      <c r="D114" s="55" t="s">
+      <c r="D114" s="15" t="s">
         <v>1294</v>
       </c>
       <c r="E114" t="s">
@@ -32844,13 +32823,13 @@
       <c r="A115" t="s">
         <v>613</v>
       </c>
-      <c r="B115" s="55" t="s">
+      <c r="B115" s="15" t="s">
         <v>1492</v>
       </c>
       <c r="C115" t="s">
         <v>1099</v>
       </c>
-      <c r="D115" s="55" t="s">
+      <c r="D115" s="15" t="s">
         <v>1295</v>
       </c>
       <c r="E115" t="s">
@@ -32864,13 +32843,13 @@
       <c r="A116" t="s">
         <v>614</v>
       </c>
-      <c r="B116" s="55" t="s">
+      <c r="B116" s="15" t="s">
         <v>1493</v>
       </c>
       <c r="C116" t="s">
         <v>1100</v>
       </c>
-      <c r="D116" s="55" t="s">
+      <c r="D116" s="15" t="s">
         <v>1296</v>
       </c>
       <c r="E116" t="s">
@@ -32884,13 +32863,13 @@
       <c r="A117" t="s">
         <v>615</v>
       </c>
-      <c r="B117" s="55" t="s">
+      <c r="B117" s="15" t="s">
         <v>1494</v>
       </c>
       <c r="C117" t="s">
         <v>1101</v>
       </c>
-      <c r="D117" s="55" t="s">
+      <c r="D117" s="15" t="s">
         <v>1297</v>
       </c>
       <c r="E117" t="s">
@@ -32904,13 +32883,13 @@
       <c r="A118" t="s">
         <v>616</v>
       </c>
-      <c r="B118" s="55" t="s">
+      <c r="B118" s="15" t="s">
         <v>1495</v>
       </c>
       <c r="C118" t="s">
         <v>1102</v>
       </c>
-      <c r="D118" s="55" t="s">
+      <c r="D118" s="15" t="s">
         <v>1298</v>
       </c>
       <c r="E118" t="s">
@@ -32924,13 +32903,13 @@
       <c r="A119" t="s">
         <v>617</v>
       </c>
-      <c r="B119" s="55" t="s">
+      <c r="B119" s="15" t="s">
         <v>1496</v>
       </c>
       <c r="C119" t="s">
         <v>1103</v>
       </c>
-      <c r="D119" s="55" t="s">
+      <c r="D119" s="15" t="s">
         <v>1299</v>
       </c>
       <c r="E119" t="s">
@@ -32944,13 +32923,13 @@
       <c r="A120" t="s">
         <v>618</v>
       </c>
-      <c r="B120" s="55" t="s">
+      <c r="B120" s="15" t="s">
         <v>1497</v>
       </c>
       <c r="C120" t="s">
         <v>1104</v>
       </c>
-      <c r="D120" s="55" t="s">
+      <c r="D120" s="15" t="s">
         <v>1300</v>
       </c>
       <c r="E120" t="s">
@@ -32964,13 +32943,13 @@
       <c r="A121" t="s">
         <v>619</v>
       </c>
-      <c r="B121" s="55" t="s">
+      <c r="B121" s="15" t="s">
         <v>1498</v>
       </c>
       <c r="C121" t="s">
         <v>1105</v>
       </c>
-      <c r="D121" s="55" t="s">
+      <c r="D121" s="15" t="s">
         <v>1301</v>
       </c>
       <c r="E121" t="s">
@@ -32984,13 +32963,13 @@
       <c r="A122" t="s">
         <v>620</v>
       </c>
-      <c r="B122" s="55" t="s">
+      <c r="B122" s="15" t="s">
         <v>1499</v>
       </c>
       <c r="C122" t="s">
         <v>1106</v>
       </c>
-      <c r="D122" s="55" t="s">
+      <c r="D122" s="15" t="s">
         <v>1302</v>
       </c>
       <c r="E122" t="s">
@@ -33004,13 +32983,13 @@
       <c r="A123" t="s">
         <v>621</v>
       </c>
-      <c r="B123" s="55" t="s">
+      <c r="B123" s="15" t="s">
         <v>1500</v>
       </c>
       <c r="C123" t="s">
         <v>1107</v>
       </c>
-      <c r="D123" s="55" t="s">
+      <c r="D123" s="15" t="s">
         <v>1303</v>
       </c>
       <c r="E123" t="s">
@@ -33024,13 +33003,13 @@
       <c r="A124" t="s">
         <v>622</v>
       </c>
-      <c r="B124" s="55" t="s">
+      <c r="B124" s="15" t="s">
         <v>1501</v>
       </c>
       <c r="C124" t="s">
         <v>1108</v>
       </c>
-      <c r="D124" s="55" t="s">
+      <c r="D124" s="15" t="s">
         <v>1304</v>
       </c>
       <c r="E124" t="s">
@@ -33044,13 +33023,13 @@
       <c r="A125" t="s">
         <v>623</v>
       </c>
-      <c r="B125" s="55" t="s">
+      <c r="B125" s="15" t="s">
         <v>1502</v>
       </c>
       <c r="C125" t="s">
         <v>1109</v>
       </c>
-      <c r="D125" s="55" t="s">
+      <c r="D125" s="15" t="s">
         <v>1305</v>
       </c>
       <c r="E125" t="s">
@@ -33064,13 +33043,13 @@
       <c r="A126" t="s">
         <v>624</v>
       </c>
-      <c r="B126" s="55" t="s">
+      <c r="B126" s="15" t="s">
         <v>1503</v>
       </c>
       <c r="C126" t="s">
         <v>1110</v>
       </c>
-      <c r="D126" s="55" t="s">
+      <c r="D126" s="15" t="s">
         <v>1306</v>
       </c>
       <c r="E126" t="s">
@@ -33084,13 +33063,13 @@
       <c r="A127" t="s">
         <v>625</v>
       </c>
-      <c r="B127" s="55" t="s">
+      <c r="B127" s="15" t="s">
         <v>1504</v>
       </c>
       <c r="C127" t="s">
         <v>1111</v>
       </c>
-      <c r="D127" s="55" t="s">
+      <c r="D127" s="15" t="s">
         <v>1307</v>
       </c>
       <c r="E127" t="s">
@@ -33104,13 +33083,13 @@
       <c r="A128" t="s">
         <v>626</v>
       </c>
-      <c r="B128" s="55" t="s">
+      <c r="B128" s="15" t="s">
         <v>1505</v>
       </c>
       <c r="C128" t="s">
         <v>1112</v>
       </c>
-      <c r="D128" s="55" t="s">
+      <c r="D128" s="15" t="s">
         <v>1308</v>
       </c>
       <c r="E128" t="s">
@@ -33124,13 +33103,13 @@
       <c r="A129" t="s">
         <v>627</v>
       </c>
-      <c r="B129" s="55" t="s">
+      <c r="B129" s="15" t="s">
         <v>1506</v>
       </c>
       <c r="C129" t="s">
         <v>1113</v>
       </c>
-      <c r="D129" s="55" t="s">
+      <c r="D129" s="15" t="s">
         <v>1309</v>
       </c>
       <c r="E129" t="s">
@@ -33144,13 +33123,13 @@
       <c r="A130" t="s">
         <v>628</v>
       </c>
-      <c r="B130" s="55" t="s">
+      <c r="B130" s="15" t="s">
         <v>1507</v>
       </c>
       <c r="C130" t="s">
         <v>1114</v>
       </c>
-      <c r="D130" s="55" t="s">
+      <c r="D130" s="15" t="s">
         <v>1310</v>
       </c>
       <c r="E130" t="s">
@@ -33164,13 +33143,13 @@
       <c r="A131" t="s">
         <v>629</v>
       </c>
-      <c r="B131" s="55" t="s">
+      <c r="B131" s="15" t="s">
         <v>1508</v>
       </c>
       <c r="C131" t="s">
         <v>1115</v>
       </c>
-      <c r="D131" s="55" t="s">
+      <c r="D131" s="15" t="s">
         <v>1311</v>
       </c>
       <c r="E131" t="s">
@@ -33184,13 +33163,13 @@
       <c r="A132" t="s">
         <v>630</v>
       </c>
-      <c r="B132" s="55" t="s">
+      <c r="B132" s="15" t="s">
         <v>1509</v>
       </c>
       <c r="C132" t="s">
         <v>1116</v>
       </c>
-      <c r="D132" s="55" t="s">
+      <c r="D132" s="15" t="s">
         <v>1312</v>
       </c>
       <c r="E132" t="s">
@@ -33204,13 +33183,13 @@
       <c r="A133" t="s">
         <v>631</v>
       </c>
-      <c r="B133" s="55" t="s">
+      <c r="B133" s="15" t="s">
         <v>1510</v>
       </c>
       <c r="C133" t="s">
         <v>1117</v>
       </c>
-      <c r="D133" s="55" t="s">
+      <c r="D133" s="15" t="s">
         <v>1313</v>
       </c>
       <c r="E133" t="s">
@@ -33224,13 +33203,13 @@
       <c r="A134" t="s">
         <v>632</v>
       </c>
-      <c r="B134" s="55" t="s">
+      <c r="B134" s="15" t="s">
         <v>1511</v>
       </c>
       <c r="C134" t="s">
         <v>1118</v>
       </c>
-      <c r="D134" s="55" t="s">
+      <c r="D134" s="15" t="s">
         <v>1314</v>
       </c>
       <c r="E134" t="s">
@@ -33244,13 +33223,13 @@
       <c r="A135" t="s">
         <v>633</v>
       </c>
-      <c r="B135" s="55" t="s">
+      <c r="B135" s="15" t="s">
         <v>1512</v>
       </c>
       <c r="C135" t="s">
         <v>1119</v>
       </c>
-      <c r="D135" s="55" t="s">
+      <c r="D135" s="15" t="s">
         <v>1315</v>
       </c>
       <c r="E135" t="s">
@@ -33264,13 +33243,13 @@
       <c r="A136" t="s">
         <v>634</v>
       </c>
-      <c r="B136" s="55" t="s">
+      <c r="B136" s="15" t="s">
         <v>1513</v>
       </c>
       <c r="C136" t="s">
         <v>1120</v>
       </c>
-      <c r="D136" s="55" t="s">
+      <c r="D136" s="15" t="s">
         <v>1316</v>
       </c>
       <c r="E136" t="s">
@@ -33284,13 +33263,13 @@
       <c r="A137" t="s">
         <v>635</v>
       </c>
-      <c r="B137" s="55" t="s">
+      <c r="B137" s="15" t="s">
         <v>1514</v>
       </c>
       <c r="C137" t="s">
         <v>1121</v>
       </c>
-      <c r="D137" s="55" t="s">
+      <c r="D137" s="15" t="s">
         <v>1317</v>
       </c>
       <c r="E137" t="s">
@@ -33304,13 +33283,13 @@
       <c r="A138" t="s">
         <v>636</v>
       </c>
-      <c r="B138" s="55" t="s">
+      <c r="B138" s="15" t="s">
         <v>1515</v>
       </c>
       <c r="C138" t="s">
         <v>1122</v>
       </c>
-      <c r="D138" s="55" t="s">
+      <c r="D138" s="15" t="s">
         <v>1318</v>
       </c>
       <c r="E138" t="s">
@@ -33324,13 +33303,13 @@
       <c r="A139" t="s">
         <v>637</v>
       </c>
-      <c r="B139" s="55" t="s">
+      <c r="B139" s="15" t="s">
         <v>1516</v>
       </c>
       <c r="C139" t="s">
         <v>1123</v>
       </c>
-      <c r="D139" s="55" t="s">
+      <c r="D139" s="15" t="s">
         <v>1319</v>
       </c>
       <c r="E139" t="s">
@@ -33344,13 +33323,13 @@
       <c r="A140" t="s">
         <v>638</v>
       </c>
-      <c r="B140" s="55" t="s">
+      <c r="B140" s="15" t="s">
         <v>1517</v>
       </c>
       <c r="C140" t="s">
         <v>1124</v>
       </c>
-      <c r="D140" s="55" t="s">
+      <c r="D140" s="15" t="s">
         <v>1320</v>
       </c>
       <c r="E140" t="s">
@@ -33364,13 +33343,13 @@
       <c r="A141" t="s">
         <v>639</v>
       </c>
-      <c r="B141" s="55" t="s">
+      <c r="B141" s="15" t="s">
         <v>1518</v>
       </c>
       <c r="C141" t="s">
         <v>1125</v>
       </c>
-      <c r="D141" s="55" t="s">
+      <c r="D141" s="15" t="s">
         <v>1321</v>
       </c>
       <c r="E141" t="s">
@@ -33384,13 +33363,13 @@
       <c r="A142" t="s">
         <v>640</v>
       </c>
-      <c r="B142" s="55" t="s">
+      <c r="B142" s="15" t="s">
         <v>1519</v>
       </c>
       <c r="C142" t="s">
         <v>1126</v>
       </c>
-      <c r="D142" s="55" t="s">
+      <c r="D142" s="15" t="s">
         <v>1322</v>
       </c>
       <c r="E142" t="s">
@@ -33404,13 +33383,13 @@
       <c r="A143" t="s">
         <v>641</v>
       </c>
-      <c r="B143" s="55" t="s">
+      <c r="B143" s="15" t="s">
         <v>1520</v>
       </c>
       <c r="C143" t="s">
         <v>1127</v>
       </c>
-      <c r="D143" s="55" t="s">
+      <c r="D143" s="15" t="s">
         <v>1323</v>
       </c>
       <c r="E143" t="s">
@@ -33424,13 +33403,13 @@
       <c r="A144" t="s">
         <v>642</v>
       </c>
-      <c r="B144" s="55" t="s">
+      <c r="B144" s="15" t="s">
         <v>1521</v>
       </c>
       <c r="C144" t="s">
         <v>1128</v>
       </c>
-      <c r="D144" s="55" t="s">
+      <c r="D144" s="15" t="s">
         <v>1324</v>
       </c>
       <c r="E144" t="s">
@@ -33444,13 +33423,13 @@
       <c r="A145" t="s">
         <v>643</v>
       </c>
-      <c r="B145" s="55" t="s">
+      <c r="B145" s="15" t="s">
         <v>1522</v>
       </c>
       <c r="C145" t="s">
         <v>1129</v>
       </c>
-      <c r="D145" s="55" t="s">
+      <c r="D145" s="15" t="s">
         <v>1325</v>
       </c>
       <c r="E145" t="s">
@@ -33464,13 +33443,13 @@
       <c r="A146" t="s">
         <v>644</v>
       </c>
-      <c r="B146" s="55" t="s">
+      <c r="B146" s="15" t="s">
         <v>1523</v>
       </c>
       <c r="C146" t="s">
         <v>1130</v>
       </c>
-      <c r="D146" s="55" t="s">
+      <c r="D146" s="15" t="s">
         <v>1326</v>
       </c>
       <c r="E146" t="s">
@@ -33484,13 +33463,13 @@
       <c r="A147" t="s">
         <v>645</v>
       </c>
-      <c r="B147" s="55" t="s">
+      <c r="B147" s="15" t="s">
         <v>1524</v>
       </c>
       <c r="C147" t="s">
         <v>1131</v>
       </c>
-      <c r="D147" s="55" t="s">
+      <c r="D147" s="15" t="s">
         <v>1327</v>
       </c>
       <c r="E147" t="s">
@@ -33504,13 +33483,13 @@
       <c r="A148" t="s">
         <v>646</v>
       </c>
-      <c r="B148" s="55" t="s">
+      <c r="B148" s="15" t="s">
         <v>1525</v>
       </c>
       <c r="C148" t="s">
         <v>1132</v>
       </c>
-      <c r="D148" s="55" t="s">
+      <c r="D148" s="15" t="s">
         <v>1328</v>
       </c>
       <c r="E148" t="s">
@@ -33524,13 +33503,13 @@
       <c r="A149" t="s">
         <v>647</v>
       </c>
-      <c r="B149" s="55" t="s">
+      <c r="B149" s="15" t="s">
         <v>1526</v>
       </c>
       <c r="C149" t="s">
         <v>1133</v>
       </c>
-      <c r="D149" s="55" t="s">
+      <c r="D149" s="15" t="s">
         <v>1329</v>
       </c>
       <c r="E149" t="s">
@@ -33544,13 +33523,13 @@
       <c r="A150" t="s">
         <v>648</v>
       </c>
-      <c r="B150" s="55" t="s">
+      <c r="B150" s="15" t="s">
         <v>1527</v>
       </c>
       <c r="C150" t="s">
         <v>1134</v>
       </c>
-      <c r="D150" s="55" t="s">
+      <c r="D150" s="15" t="s">
         <v>1330</v>
       </c>
       <c r="E150" t="s">
@@ -33564,13 +33543,13 @@
       <c r="A151" t="s">
         <v>649</v>
       </c>
-      <c r="B151" s="55" t="s">
+      <c r="B151" s="15" t="s">
         <v>1528</v>
       </c>
       <c r="C151" t="s">
         <v>1135</v>
       </c>
-      <c r="D151" s="55" t="s">
+      <c r="D151" s="15" t="s">
         <v>1331</v>
       </c>
       <c r="E151" t="s">
@@ -33584,13 +33563,13 @@
       <c r="A152" t="s">
         <v>650</v>
       </c>
-      <c r="B152" s="55" t="s">
+      <c r="B152" s="15" t="s">
         <v>1529</v>
       </c>
       <c r="C152" t="s">
         <v>1136</v>
       </c>
-      <c r="D152" s="55" t="s">
+      <c r="D152" s="15" t="s">
         <v>1332</v>
       </c>
       <c r="E152" t="s">
@@ -33604,13 +33583,13 @@
       <c r="A153" t="s">
         <v>651</v>
       </c>
-      <c r="B153" s="55" t="s">
+      <c r="B153" s="15" t="s">
         <v>1530</v>
       </c>
       <c r="C153" t="s">
         <v>1137</v>
       </c>
-      <c r="D153" s="55" t="s">
+      <c r="D153" s="15" t="s">
         <v>1333</v>
       </c>
       <c r="E153" t="s">
@@ -33624,13 +33603,13 @@
       <c r="A154" t="s">
         <v>652</v>
       </c>
-      <c r="B154" s="55" t="s">
+      <c r="B154" s="15" t="s">
         <v>1531</v>
       </c>
       <c r="C154" t="s">
         <v>1138</v>
       </c>
-      <c r="D154" s="55" t="s">
+      <c r="D154" s="15" t="s">
         <v>1334</v>
       </c>
       <c r="E154" t="s">
@@ -33644,13 +33623,13 @@
       <c r="A155" t="s">
         <v>653</v>
       </c>
-      <c r="B155" s="55" t="s">
+      <c r="B155" s="15" t="s">
         <v>1532</v>
       </c>
       <c r="C155" t="s">
         <v>1139</v>
       </c>
-      <c r="D155" s="55" t="s">
+      <c r="D155" s="15" t="s">
         <v>1335</v>
       </c>
       <c r="E155" t="s">
@@ -33664,13 +33643,13 @@
       <c r="A156" t="s">
         <v>654</v>
       </c>
-      <c r="B156" s="55" t="s">
+      <c r="B156" s="15" t="s">
         <v>1533</v>
       </c>
       <c r="C156" t="s">
         <v>1140</v>
       </c>
-      <c r="D156" s="55" t="s">
+      <c r="D156" s="15" t="s">
         <v>1336</v>
       </c>
       <c r="E156" t="s">
@@ -33684,13 +33663,13 @@
       <c r="A157" t="s">
         <v>655</v>
       </c>
-      <c r="B157" s="55" t="s">
+      <c r="B157" s="15" t="s">
         <v>1534</v>
       </c>
       <c r="C157" t="s">
         <v>1141</v>
       </c>
-      <c r="D157" s="55" t="s">
+      <c r="D157" s="15" t="s">
         <v>1337</v>
       </c>
       <c r="E157" t="s">
@@ -33704,13 +33683,13 @@
       <c r="A158" t="s">
         <v>656</v>
       </c>
-      <c r="B158" s="55" t="s">
+      <c r="B158" s="15" t="s">
         <v>1535</v>
       </c>
       <c r="C158" t="s">
         <v>1142</v>
       </c>
-      <c r="D158" s="55" t="s">
+      <c r="D158" s="15" t="s">
         <v>1338</v>
       </c>
       <c r="E158" t="s">
@@ -33724,13 +33703,13 @@
       <c r="A159" t="s">
         <v>657</v>
       </c>
-      <c r="B159" s="55" t="s">
+      <c r="B159" s="15" t="s">
         <v>1536</v>
       </c>
       <c r="C159" t="s">
         <v>1143</v>
       </c>
-      <c r="D159" s="55" t="s">
+      <c r="D159" s="15" t="s">
         <v>1339</v>
       </c>
       <c r="E159" t="s">
@@ -33744,13 +33723,13 @@
       <c r="A160" t="s">
         <v>658</v>
       </c>
-      <c r="B160" s="55" t="s">
+      <c r="B160" s="15" t="s">
         <v>1537</v>
       </c>
       <c r="C160" t="s">
         <v>1144</v>
       </c>
-      <c r="D160" s="55" t="s">
+      <c r="D160" s="15" t="s">
         <v>1340</v>
       </c>
       <c r="E160" t="s">
@@ -33764,13 +33743,13 @@
       <c r="A161" t="s">
         <v>659</v>
       </c>
-      <c r="B161" s="55" t="s">
+      <c r="B161" s="15" t="s">
         <v>1538</v>
       </c>
       <c r="C161" t="s">
         <v>1145</v>
       </c>
-      <c r="D161" s="55" t="s">
+      <c r="D161" s="15" t="s">
         <v>1341</v>
       </c>
       <c r="E161" t="s">
@@ -33784,13 +33763,13 @@
       <c r="A162" t="s">
         <v>660</v>
       </c>
-      <c r="B162" s="55" t="s">
+      <c r="B162" s="15" t="s">
         <v>1231</v>
       </c>
       <c r="C162" t="s">
         <v>1146</v>
       </c>
-      <c r="D162" s="55" t="s">
+      <c r="D162" s="15" t="s">
         <v>1342</v>
       </c>
       <c r="E162" t="s">
@@ -33804,13 +33783,13 @@
       <c r="A163" t="s">
         <v>661</v>
       </c>
-      <c r="B163" s="55" t="s">
+      <c r="B163" s="15" t="s">
         <v>1539</v>
       </c>
       <c r="C163" t="s">
         <v>1147</v>
       </c>
-      <c r="D163" s="55" t="s">
+      <c r="D163" s="15" t="s">
         <v>1343</v>
       </c>
       <c r="E163" t="s">
@@ -33824,13 +33803,13 @@
       <c r="A164" t="s">
         <v>662</v>
       </c>
-      <c r="B164" s="55" t="s">
+      <c r="B164" s="15" t="s">
         <v>1540</v>
       </c>
       <c r="C164" t="s">
         <v>1148</v>
       </c>
-      <c r="D164" s="55" t="s">
+      <c r="D164" s="15" t="s">
         <v>1344</v>
       </c>
       <c r="E164" t="s">
@@ -33844,13 +33823,13 @@
       <c r="A165" t="s">
         <v>663</v>
       </c>
-      <c r="B165" s="55" t="s">
+      <c r="B165" s="15" t="s">
         <v>1541</v>
       </c>
       <c r="C165" t="s">
         <v>1149</v>
       </c>
-      <c r="D165" s="55" t="s">
+      <c r="D165" s="15" t="s">
         <v>1345</v>
       </c>
       <c r="E165" t="s">
@@ -33864,13 +33843,13 @@
       <c r="A166" t="s">
         <v>664</v>
       </c>
-      <c r="B166" s="55" t="s">
+      <c r="B166" s="15" t="s">
         <v>1542</v>
       </c>
       <c r="C166" t="s">
         <v>1150</v>
       </c>
-      <c r="D166" s="55" t="s">
+      <c r="D166" s="15" t="s">
         <v>1346</v>
       </c>
       <c r="E166" t="s">
@@ -33884,13 +33863,13 @@
       <c r="A167" t="s">
         <v>665</v>
       </c>
-      <c r="B167" s="55" t="s">
+      <c r="B167" s="15" t="s">
         <v>1543</v>
       </c>
       <c r="C167" t="s">
         <v>1151</v>
       </c>
-      <c r="D167" s="55" t="s">
+      <c r="D167" s="15" t="s">
         <v>1347</v>
       </c>
       <c r="E167" t="s">
@@ -33904,13 +33883,13 @@
       <c r="A168" t="s">
         <v>666</v>
       </c>
-      <c r="B168" s="55" t="s">
+      <c r="B168" s="15" t="s">
         <v>1234</v>
       </c>
       <c r="C168" t="s">
         <v>1152</v>
       </c>
-      <c r="D168" s="55" t="s">
+      <c r="D168" s="15" t="s">
         <v>1348</v>
       </c>
       <c r="E168" t="s">
@@ -33924,13 +33903,13 @@
       <c r="A169" t="s">
         <v>667</v>
       </c>
-      <c r="B169" s="55" t="s">
+      <c r="B169" s="15" t="s">
         <v>1544</v>
       </c>
       <c r="C169" t="s">
         <v>1153</v>
       </c>
-      <c r="D169" s="55" t="s">
+      <c r="D169" s="15" t="s">
         <v>1349</v>
       </c>
       <c r="E169" t="s">
@@ -33944,13 +33923,13 @@
       <c r="A170" t="s">
         <v>668</v>
       </c>
-      <c r="B170" s="55" t="s">
+      <c r="B170" s="15" t="s">
         <v>1545</v>
       </c>
       <c r="C170" t="s">
         <v>1154</v>
       </c>
-      <c r="D170" s="55" t="s">
+      <c r="D170" s="15" t="s">
         <v>1350</v>
       </c>
       <c r="E170" t="s">
@@ -33964,13 +33943,13 @@
       <c r="A171" t="s">
         <v>669</v>
       </c>
-      <c r="B171" s="55" t="s">
+      <c r="B171" s="15" t="s">
         <v>1546</v>
       </c>
       <c r="C171" t="s">
         <v>1155</v>
       </c>
-      <c r="D171" s="55" t="s">
+      <c r="D171" s="15" t="s">
         <v>1351</v>
       </c>
       <c r="E171" t="s">
@@ -33984,13 +33963,13 @@
       <c r="A172" t="s">
         <v>670</v>
       </c>
-      <c r="B172" s="55" t="s">
+      <c r="B172" s="15" t="s">
         <v>1547</v>
       </c>
       <c r="C172" t="s">
         <v>1156</v>
       </c>
-      <c r="D172" s="55" t="s">
+      <c r="D172" s="15" t="s">
         <v>1352</v>
       </c>
       <c r="E172" t="s">
@@ -34004,13 +33983,13 @@
       <c r="A173" t="s">
         <v>671</v>
       </c>
-      <c r="B173" s="55" t="s">
+      <c r="B173" s="15" t="s">
         <v>1548</v>
       </c>
       <c r="C173" t="s">
         <v>1157</v>
       </c>
-      <c r="D173" s="55" t="s">
+      <c r="D173" s="15" t="s">
         <v>1353</v>
       </c>
       <c r="E173" t="s">
@@ -34024,13 +34003,13 @@
       <c r="A174" t="s">
         <v>672</v>
       </c>
-      <c r="B174" s="55" t="s">
+      <c r="B174" s="15" t="s">
         <v>1243</v>
       </c>
       <c r="C174" t="s">
         <v>1158</v>
       </c>
-      <c r="D174" s="55" t="s">
+      <c r="D174" s="15" t="s">
         <v>1354</v>
       </c>
       <c r="E174" t="s">
@@ -34044,13 +34023,13 @@
       <c r="A175" t="s">
         <v>673</v>
       </c>
-      <c r="B175" s="55" t="s">
+      <c r="B175" s="15" t="s">
         <v>1549</v>
       </c>
       <c r="C175" t="s">
         <v>1159</v>
       </c>
-      <c r="D175" s="55" t="s">
+      <c r="D175" s="15" t="s">
         <v>1355</v>
       </c>
       <c r="E175" t="s">
@@ -34064,13 +34043,13 @@
       <c r="A176" t="s">
         <v>674</v>
       </c>
-      <c r="B176" s="55" t="s">
+      <c r="B176" s="15" t="s">
         <v>1550</v>
       </c>
       <c r="C176" t="s">
         <v>1160</v>
       </c>
-      <c r="D176" s="55" t="s">
+      <c r="D176" s="15" t="s">
         <v>1356</v>
       </c>
       <c r="E176" t="s">
@@ -34084,13 +34063,13 @@
       <c r="A177" t="s">
         <v>675</v>
       </c>
-      <c r="B177" s="55" t="s">
+      <c r="B177" s="15" t="s">
         <v>1551</v>
       </c>
       <c r="C177" t="s">
         <v>1161</v>
       </c>
-      <c r="D177" s="55" t="s">
+      <c r="D177" s="15" t="s">
         <v>1357</v>
       </c>
       <c r="E177" t="s">
@@ -34104,13 +34083,13 @@
       <c r="A178" t="s">
         <v>676</v>
       </c>
-      <c r="B178" s="55" t="s">
+      <c r="B178" s="15" t="s">
         <v>1552</v>
       </c>
       <c r="C178" t="s">
         <v>1162</v>
       </c>
-      <c r="D178" s="55" t="s">
+      <c r="D178" s="15" t="s">
         <v>1358</v>
       </c>
       <c r="E178" t="s">
@@ -34124,13 +34103,13 @@
       <c r="A179" t="s">
         <v>677</v>
       </c>
-      <c r="B179" s="55" t="s">
+      <c r="B179" s="15" t="s">
         <v>1553</v>
       </c>
       <c r="C179" t="s">
         <v>1163</v>
       </c>
-      <c r="D179" s="55" t="s">
+      <c r="D179" s="15" t="s">
         <v>1359</v>
       </c>
       <c r="E179" t="s">
@@ -34144,13 +34123,13 @@
       <c r="A180" t="s">
         <v>678</v>
       </c>
-      <c r="B180" s="55" t="s">
+      <c r="B180" s="15" t="s">
         <v>1554</v>
       </c>
       <c r="C180" t="s">
         <v>1164</v>
       </c>
-      <c r="D180" s="55" t="s">
+      <c r="D180" s="15" t="s">
         <v>1360</v>
       </c>
       <c r="E180" t="s">
@@ -34164,13 +34143,13 @@
       <c r="A181" t="s">
         <v>679</v>
       </c>
-      <c r="B181" s="55" t="s">
+      <c r="B181" s="15" t="s">
         <v>1555</v>
       </c>
       <c r="C181" t="s">
         <v>1165</v>
       </c>
-      <c r="D181" s="55" t="s">
+      <c r="D181" s="15" t="s">
         <v>1165</v>
       </c>
       <c r="E181" t="s">
@@ -34184,13 +34163,13 @@
       <c r="A182" t="s">
         <v>680</v>
       </c>
-      <c r="B182" s="55" t="s">
+      <c r="B182" s="15" t="s">
         <v>1556</v>
       </c>
       <c r="C182" t="s">
         <v>1166</v>
       </c>
-      <c r="D182" s="55" t="s">
+      <c r="D182" s="15" t="s">
         <v>1361</v>
       </c>
       <c r="E182" t="s">
@@ -34204,13 +34183,13 @@
       <c r="A183" t="s">
         <v>681</v>
       </c>
-      <c r="B183" s="55" t="s">
+      <c r="B183" s="15" t="s">
         <v>1557</v>
       </c>
       <c r="C183" t="s">
         <v>1167</v>
       </c>
-      <c r="D183" s="55" t="s">
+      <c r="D183" s="15" t="s">
         <v>1362</v>
       </c>
       <c r="E183" t="s">
@@ -34224,13 +34203,13 @@
       <c r="A184" t="s">
         <v>682</v>
       </c>
-      <c r="B184" s="55" t="s">
+      <c r="B184" s="15" t="s">
         <v>1558</v>
       </c>
       <c r="C184" t="s">
         <v>1168</v>
       </c>
-      <c r="D184" s="55" t="s">
+      <c r="D184" s="15" t="s">
         <v>1363</v>
       </c>
       <c r="E184" t="s">
@@ -34244,13 +34223,13 @@
       <c r="A185" t="s">
         <v>683</v>
       </c>
-      <c r="B185" s="55" t="s">
+      <c r="B185" s="15" t="s">
         <v>1559</v>
       </c>
       <c r="C185" t="s">
         <v>1169</v>
       </c>
-      <c r="D185" s="55" t="s">
+      <c r="D185" s="15" t="s">
         <v>1364</v>
       </c>
       <c r="E185" t="s">
@@ -34264,13 +34243,13 @@
       <c r="A186" t="s">
         <v>684</v>
       </c>
-      <c r="B186" s="55" t="s">
+      <c r="B186" s="15" t="s">
         <v>1560</v>
       </c>
       <c r="C186" t="s">
         <v>1170</v>
       </c>
-      <c r="D186" s="55" t="s">
+      <c r="D186" s="15" t="s">
         <v>1365</v>
       </c>
       <c r="E186" t="s">
@@ -34284,13 +34263,13 @@
       <c r="A187" t="s">
         <v>685</v>
       </c>
-      <c r="B187" s="55" t="s">
+      <c r="B187" s="15" t="s">
         <v>1561</v>
       </c>
       <c r="C187" t="s">
         <v>1171</v>
       </c>
-      <c r="D187" s="55" t="s">
+      <c r="D187" s="15" t="s">
         <v>1366</v>
       </c>
       <c r="E187" t="s">
@@ -34304,13 +34283,13 @@
       <c r="A188" t="s">
         <v>686</v>
       </c>
-      <c r="B188" s="55" t="s">
+      <c r="B188" s="15" t="s">
         <v>1562</v>
       </c>
       <c r="C188" t="s">
         <v>1172</v>
       </c>
-      <c r="D188" s="55" t="s">
+      <c r="D188" s="15" t="s">
         <v>1367</v>
       </c>
       <c r="E188" t="s">
@@ -34324,13 +34303,13 @@
       <c r="A189" t="s">
         <v>687</v>
       </c>
-      <c r="B189" s="55" t="s">
+      <c r="B189" s="15" t="s">
         <v>1563</v>
       </c>
       <c r="C189" t="s">
         <v>1173</v>
       </c>
-      <c r="D189" s="55" t="s">
+      <c r="D189" s="15" t="s">
         <v>1368</v>
       </c>
       <c r="E189" t="s">
@@ -34344,13 +34323,13 @@
       <c r="A190" t="s">
         <v>688</v>
       </c>
-      <c r="B190" s="55" t="s">
+      <c r="B190" s="15" t="s">
         <v>1564</v>
       </c>
       <c r="C190" t="s">
         <v>1174</v>
       </c>
-      <c r="D190" s="55" t="s">
+      <c r="D190" s="15" t="s">
         <v>1369</v>
       </c>
       <c r="E190" t="s">
@@ -34364,13 +34343,13 @@
       <c r="A191" t="s">
         <v>689</v>
       </c>
-      <c r="B191" s="55" t="s">
+      <c r="B191" s="15" t="s">
         <v>1565</v>
       </c>
       <c r="C191" t="s">
         <v>1175</v>
       </c>
-      <c r="D191" s="55" t="s">
+      <c r="D191" s="15" t="s">
         <v>1370</v>
       </c>
       <c r="E191" t="s">
@@ -34384,13 +34363,13 @@
       <c r="A192" t="s">
         <v>690</v>
       </c>
-      <c r="B192" s="55" t="s">
+      <c r="B192" s="15" t="s">
         <v>1566</v>
       </c>
       <c r="C192" t="s">
         <v>1176</v>
       </c>
-      <c r="D192" s="55" t="s">
+      <c r="D192" s="15" t="s">
         <v>1371</v>
       </c>
       <c r="E192" t="s">
@@ -34404,13 +34383,13 @@
       <c r="A193" t="s">
         <v>691</v>
       </c>
-      <c r="B193" s="55" t="s">
+      <c r="B193" s="15" t="s">
         <v>1567</v>
       </c>
       <c r="C193" t="s">
         <v>1177</v>
       </c>
-      <c r="D193" s="55" t="s">
+      <c r="D193" s="15" t="s">
         <v>1372</v>
       </c>
       <c r="E193" t="s">
@@ -34424,13 +34403,13 @@
       <c r="A194" t="s">
         <v>692</v>
       </c>
-      <c r="B194" s="55" t="s">
+      <c r="B194" s="15" t="s">
         <v>1568</v>
       </c>
       <c r="C194" t="s">
         <v>1178</v>
       </c>
-      <c r="D194" s="55" t="s">
+      <c r="D194" s="15" t="s">
         <v>1373</v>
       </c>
       <c r="E194" t="s">
@@ -34444,13 +34423,13 @@
       <c r="A195" t="s">
         <v>693</v>
       </c>
-      <c r="B195" s="55" t="s">
+      <c r="B195" s="15" t="s">
         <v>1569</v>
       </c>
       <c r="C195" t="s">
         <v>1179</v>
       </c>
-      <c r="D195" s="55" t="s">
+      <c r="D195" s="15" t="s">
         <v>1374</v>
       </c>
       <c r="E195" t="s">
@@ -34464,13 +34443,13 @@
       <c r="A196" t="s">
         <v>694</v>
       </c>
-      <c r="B196" s="55" t="s">
+      <c r="B196" s="15" t="s">
         <v>1570</v>
       </c>
       <c r="C196" t="s">
         <v>1180</v>
       </c>
-      <c r="D196" s="55" t="s">
+      <c r="D196" s="15" t="s">
         <v>1375</v>
       </c>
       <c r="E196" t="s">
@@ -34484,13 +34463,13 @@
       <c r="A197" t="s">
         <v>695</v>
       </c>
-      <c r="B197" s="55" t="s">
+      <c r="B197" s="15" t="s">
         <v>1571</v>
       </c>
       <c r="C197" t="s">
         <v>1181</v>
       </c>
-      <c r="D197" s="55" t="s">
+      <c r="D197" s="15" t="s">
         <v>1376</v>
       </c>
       <c r="E197" t="s">
@@ -34504,13 +34483,13 @@
       <c r="A198" t="s">
         <v>696</v>
       </c>
-      <c r="B198" s="55" t="s">
+      <c r="B198" s="15" t="s">
         <v>1572</v>
       </c>
       <c r="C198" t="s">
         <v>1182</v>
       </c>
-      <c r="D198" s="55" t="s">
+      <c r="D198" s="15" t="s">
         <v>1377</v>
       </c>
       <c r="E198" t="s">
@@ -34524,13 +34503,13 @@
       <c r="A199" t="s">
         <v>697</v>
       </c>
-      <c r="B199" s="55" t="s">
+      <c r="B199" s="15" t="s">
         <v>1573</v>
       </c>
       <c r="C199" t="s">
         <v>1183</v>
       </c>
-      <c r="D199" s="55" t="s">
+      <c r="D199" s="15" t="s">
         <v>1378</v>
       </c>
       <c r="E199" t="s">
@@ -34544,13 +34523,13 @@
       <c r="A200" t="s">
         <v>698</v>
       </c>
-      <c r="B200" s="55" t="s">
+      <c r="B200" s="15" t="s">
         <v>1574</v>
       </c>
       <c r="C200" t="s">
         <v>1184</v>
       </c>
-      <c r="D200" s="55" t="s">
+      <c r="D200" s="15" t="s">
         <v>1379</v>
       </c>
       <c r="E200" t="s">
@@ -34564,7 +34543,7 @@
       <c r="A201" t="s">
         <v>699</v>
       </c>
-      <c r="B201" s="55" t="s">
+      <c r="B201" s="15" t="s">
         <v>1575</v>
       </c>
       <c r="E201" t="s">
@@ -34578,7 +34557,7 @@
       <c r="A202" t="s">
         <v>700</v>
       </c>
-      <c r="B202" s="55" t="s">
+      <c r="B202" s="15" t="s">
         <v>1576</v>
       </c>
       <c r="E202" t="s">
@@ -34592,7 +34571,7 @@
       <c r="A203" t="s">
         <v>701</v>
       </c>
-      <c r="B203" s="55" t="s">
+      <c r="B203" s="15" t="s">
         <v>1577</v>
       </c>
       <c r="E203" t="s">
@@ -34606,7 +34585,7 @@
       <c r="A204" t="s">
         <v>702</v>
       </c>
-      <c r="B204" s="55" t="s">
+      <c r="B204" s="15" t="s">
         <v>1253</v>
       </c>
       <c r="E204" t="s">
@@ -34620,7 +34599,7 @@
       <c r="A205" t="s">
         <v>703</v>
       </c>
-      <c r="B205" s="55" t="s">
+      <c r="B205" s="15" t="s">
         <v>1578</v>
       </c>
       <c r="E205" t="s">
@@ -34634,7 +34613,7 @@
       <c r="A206" t="s">
         <v>704</v>
       </c>
-      <c r="B206" s="55" t="s">
+      <c r="B206" s="15" t="s">
         <v>1579</v>
       </c>
       <c r="E206" t="s">
@@ -34648,7 +34627,7 @@
       <c r="A207" t="s">
         <v>705</v>
       </c>
-      <c r="B207" s="55" t="s">
+      <c r="B207" s="15" t="s">
         <v>1580</v>
       </c>
       <c r="E207" t="s">
@@ -34662,7 +34641,7 @@
       <c r="A208" t="s">
         <v>706</v>
       </c>
-      <c r="B208" s="55" t="s">
+      <c r="B208" s="15" t="s">
         <v>1581</v>
       </c>
       <c r="E208" t="s">
@@ -34676,7 +34655,7 @@
       <c r="A209" t="s">
         <v>707</v>
       </c>
-      <c r="B209" s="55" t="s">
+      <c r="B209" s="15" t="s">
         <v>1582</v>
       </c>
       <c r="E209" t="s">
@@ -34690,7 +34669,7 @@
       <c r="A210" t="s">
         <v>708</v>
       </c>
-      <c r="B210" s="55" t="s">
+      <c r="B210" s="15" t="s">
         <v>1583</v>
       </c>
       <c r="E210" t="s">
@@ -34704,7 +34683,7 @@
       <c r="A211" t="s">
         <v>709</v>
       </c>
-      <c r="B211" s="55" t="s">
+      <c r="B211" s="15" t="s">
         <v>1584</v>
       </c>
       <c r="E211" t="s">
@@ -34718,7 +34697,7 @@
       <c r="A212" t="s">
         <v>710</v>
       </c>
-      <c r="B212" s="55" t="s">
+      <c r="B212" s="15" t="s">
         <v>1585</v>
       </c>
       <c r="E212" t="s">
@@ -34732,7 +34711,7 @@
       <c r="A213" t="s">
         <v>711</v>
       </c>
-      <c r="B213" s="55" t="s">
+      <c r="B213" s="15" t="s">
         <v>1586</v>
       </c>
       <c r="E213" t="s">
@@ -34746,7 +34725,7 @@
       <c r="A214" t="s">
         <v>712</v>
       </c>
-      <c r="B214" s="55" t="s">
+      <c r="B214" s="15" t="s">
         <v>1263</v>
       </c>
       <c r="E214" t="s">
@@ -34760,7 +34739,7 @@
       <c r="A215" t="s">
         <v>713</v>
       </c>
-      <c r="B215" s="55" t="s">
+      <c r="B215" s="15" t="s">
         <v>1587</v>
       </c>
       <c r="E215" t="s">
@@ -34774,7 +34753,7 @@
       <c r="A216" t="s">
         <v>714</v>
       </c>
-      <c r="B216" s="55" t="s">
+      <c r="B216" s="15" t="s">
         <v>1588</v>
       </c>
       <c r="E216" t="s">
@@ -34788,7 +34767,7 @@
       <c r="A217" t="s">
         <v>715</v>
       </c>
-      <c r="B217" s="55" t="s">
+      <c r="B217" s="15" t="s">
         <v>1589</v>
       </c>
       <c r="E217" t="s">
@@ -34802,7 +34781,7 @@
       <c r="A218" t="s">
         <v>716</v>
       </c>
-      <c r="B218" s="55" t="s">
+      <c r="B218" s="15" t="s">
         <v>1590</v>
       </c>
       <c r="E218" t="s">
@@ -34816,7 +34795,7 @@
       <c r="A219" t="s">
         <v>717</v>
       </c>
-      <c r="B219" s="55" t="s">
+      <c r="B219" s="15" t="s">
         <v>1591</v>
       </c>
       <c r="E219" t="s">
@@ -34830,7 +34809,7 @@
       <c r="A220" t="s">
         <v>718</v>
       </c>
-      <c r="B220" s="55" t="s">
+      <c r="B220" s="15" t="s">
         <v>1592</v>
       </c>
       <c r="E220" t="s">
@@ -34844,7 +34823,7 @@
       <c r="A221" t="s">
         <v>719</v>
       </c>
-      <c r="B221" s="55" t="s">
+      <c r="B221" s="15" t="s">
         <v>1593</v>
       </c>
       <c r="E221" t="s">
@@ -34858,7 +34837,7 @@
       <c r="A222" t="s">
         <v>720</v>
       </c>
-      <c r="B222" s="55" t="s">
+      <c r="B222" s="15" t="s">
         <v>1594</v>
       </c>
       <c r="E222" t="s">
@@ -34872,7 +34851,7 @@
       <c r="A223" t="s">
         <v>721</v>
       </c>
-      <c r="B223" s="55" t="s">
+      <c r="B223" s="15" t="s">
         <v>1595</v>
       </c>
       <c r="E223" t="s">
@@ -34886,7 +34865,7 @@
       <c r="A224" t="s">
         <v>722</v>
       </c>
-      <c r="B224" s="55" t="s">
+      <c r="B224" s="15" t="s">
         <v>1596</v>
       </c>
       <c r="E224" t="s">
@@ -34900,7 +34879,7 @@
       <c r="A225" t="s">
         <v>723</v>
       </c>
-      <c r="B225" s="55" t="s">
+      <c r="B225" s="15" t="s">
         <v>1597</v>
       </c>
       <c r="E225" t="s">
@@ -34914,7 +34893,7 @@
       <c r="A226" t="s">
         <v>724</v>
       </c>
-      <c r="B226" s="55" t="s">
+      <c r="B226" s="15" t="s">
         <v>1598</v>
       </c>
       <c r="E226" t="s">
@@ -34928,7 +34907,7 @@
       <c r="A227" t="s">
         <v>725</v>
       </c>
-      <c r="B227" s="55" t="s">
+      <c r="B227" s="15" t="s">
         <v>1599</v>
       </c>
       <c r="E227" t="s">
@@ -34942,7 +34921,7 @@
       <c r="A228" t="s">
         <v>726</v>
       </c>
-      <c r="B228" s="55" t="s">
+      <c r="B228" s="15" t="s">
         <v>1600</v>
       </c>
       <c r="E228" t="s">
@@ -34956,7 +34935,7 @@
       <c r="A229" t="s">
         <v>727</v>
       </c>
-      <c r="B229" s="55" t="s">
+      <c r="B229" s="15" t="s">
         <v>1601</v>
       </c>
       <c r="E229" t="s">
@@ -34970,7 +34949,7 @@
       <c r="A230" t="s">
         <v>728</v>
       </c>
-      <c r="B230" s="55" t="s">
+      <c r="B230" s="15" t="s">
         <v>1602</v>
       </c>
       <c r="E230" t="s">
@@ -34984,7 +34963,7 @@
       <c r="A231" t="s">
         <v>729</v>
       </c>
-      <c r="B231" s="55" t="s">
+      <c r="B231" s="15" t="s">
         <v>1603</v>
       </c>
       <c r="E231" t="s">
@@ -34998,7 +34977,7 @@
       <c r="A232" t="s">
         <v>730</v>
       </c>
-      <c r="B232" s="55" t="s">
+      <c r="B232" s="15" t="s">
         <v>1604</v>
       </c>
       <c r="E232" t="s">
@@ -35012,7 +34991,7 @@
       <c r="A233" t="s">
         <v>731</v>
       </c>
-      <c r="B233" s="55" t="s">
+      <c r="B233" s="15" t="s">
         <v>1605</v>
       </c>
       <c r="E233" t="s">
@@ -35026,7 +35005,7 @@
       <c r="A234" t="s">
         <v>732</v>
       </c>
-      <c r="B234" s="55" t="s">
+      <c r="B234" s="15" t="s">
         <v>1265</v>
       </c>
       <c r="E234" t="s">
@@ -35040,7 +35019,7 @@
       <c r="A235" t="s">
         <v>733</v>
       </c>
-      <c r="B235" s="55" t="s">
+      <c r="B235" s="15" t="s">
         <v>1606</v>
       </c>
       <c r="E235" t="s">
@@ -35054,7 +35033,7 @@
       <c r="A236" t="s">
         <v>734</v>
       </c>
-      <c r="B236" s="55" t="s">
+      <c r="B236" s="15" t="s">
         <v>1607</v>
       </c>
       <c r="E236" t="s">
@@ -35068,7 +35047,7 @@
       <c r="A237" t="s">
         <v>735</v>
       </c>
-      <c r="B237" s="55" t="s">
+      <c r="B237" s="15" t="s">
         <v>1608</v>
       </c>
       <c r="E237" t="s">
@@ -35082,7 +35061,7 @@
       <c r="A238" t="s">
         <v>736</v>
       </c>
-      <c r="B238" s="55" t="s">
+      <c r="B238" s="15" t="s">
         <v>1609</v>
       </c>
       <c r="E238" t="s">
@@ -35096,7 +35075,7 @@
       <c r="A239" t="s">
         <v>737</v>
       </c>
-      <c r="B239" s="55" t="s">
+      <c r="B239" s="15" t="s">
         <v>1610</v>
       </c>
       <c r="E239" t="s">
@@ -35110,7 +35089,7 @@
       <c r="A240" t="s">
         <v>738</v>
       </c>
-      <c r="B240" s="55" t="s">
+      <c r="B240" s="15" t="s">
         <v>1611</v>
       </c>
       <c r="E240" t="s">
@@ -35124,7 +35103,7 @@
       <c r="A241" t="s">
         <v>739</v>
       </c>
-      <c r="B241" s="55" t="s">
+      <c r="B241" s="15" t="s">
         <v>1612</v>
       </c>
       <c r="E241" t="s">
@@ -35138,7 +35117,7 @@
       <c r="A242" t="s">
         <v>740</v>
       </c>
-      <c r="B242" s="55" t="s">
+      <c r="B242" s="15" t="s">
         <v>1613</v>
       </c>
       <c r="E242" t="s">
@@ -35152,7 +35131,7 @@
       <c r="A243" t="s">
         <v>741</v>
       </c>
-      <c r="B243" s="55" t="s">
+      <c r="B243" s="15" t="s">
         <v>1614</v>
       </c>
       <c r="E243" t="s">
@@ -35166,7 +35145,7 @@
       <c r="A244" t="s">
         <v>742</v>
       </c>
-      <c r="B244" s="55" t="s">
+      <c r="B244" s="15" t="s">
         <v>1615</v>
       </c>
       <c r="E244" t="s">
@@ -35180,7 +35159,7 @@
       <c r="A245" t="s">
         <v>743</v>
       </c>
-      <c r="B245" s="55" t="s">
+      <c r="B245" s="15" t="s">
         <v>1616</v>
       </c>
       <c r="E245" t="s">
@@ -35194,7 +35173,7 @@
       <c r="A246" t="s">
         <v>744</v>
       </c>
-      <c r="B246" s="55" t="s">
+      <c r="B246" s="15" t="s">
         <v>1268</v>
       </c>
       <c r="E246" t="s">
@@ -35208,7 +35187,7 @@
       <c r="A247" t="s">
         <v>745</v>
       </c>
-      <c r="B247" s="55" t="s">
+      <c r="B247" s="15" t="s">
         <v>1271</v>
       </c>
       <c r="E247" t="e">
@@ -35224,7 +35203,7 @@
       <c r="A248" t="s">
         <v>746</v>
       </c>
-      <c r="B248" s="55" t="s">
+      <c r="B248" s="15" t="s">
         <v>1617</v>
       </c>
       <c r="E248" t="s">
@@ -35238,7 +35217,7 @@
       <c r="A249" t="s">
         <v>747</v>
       </c>
-      <c r="B249" s="55" t="s">
+      <c r="B249" s="15" t="s">
         <v>1618</v>
       </c>
       <c r="E249" t="s">
@@ -35252,7 +35231,7 @@
       <c r="A250" t="s">
         <v>748</v>
       </c>
-      <c r="B250" s="55" t="s">
+      <c r="B250" s="15" t="s">
         <v>1619</v>
       </c>
       <c r="E250" t="s">
@@ -35266,7 +35245,7 @@
       <c r="A251" t="s">
         <v>749</v>
       </c>
-      <c r="B251" s="55" t="s">
+      <c r="B251" s="15" t="s">
         <v>1620</v>
       </c>
       <c r="E251" t="s">
@@ -35280,7 +35259,7 @@
       <c r="A252" t="s">
         <v>750</v>
       </c>
-      <c r="B252" s="55" t="s">
+      <c r="B252" s="15" t="s">
         <v>1621</v>
       </c>
       <c r="E252" t="s">
@@ -35294,7 +35273,7 @@
       <c r="A253" t="s">
         <v>751</v>
       </c>
-      <c r="B253" s="55" t="s">
+      <c r="B253" s="15" t="s">
         <v>1622</v>
       </c>
       <c r="E253" t="s">
@@ -35308,7 +35287,7 @@
       <c r="A254" t="s">
         <v>752</v>
       </c>
-      <c r="B254" s="55" t="s">
+      <c r="B254" s="15" t="s">
         <v>1623</v>
       </c>
       <c r="E254" t="s">
@@ -35322,7 +35301,7 @@
       <c r="A255" t="s">
         <v>753</v>
       </c>
-      <c r="B255" s="55" t="s">
+      <c r="B255" s="15" t="s">
         <v>1624</v>
       </c>
       <c r="E255" t="s">
@@ -35336,7 +35315,7 @@
       <c r="A256" t="s">
         <v>754</v>
       </c>
-      <c r="B256" s="55" t="s">
+      <c r="B256" s="15" t="s">
         <v>1625</v>
       </c>
       <c r="E256" t="s">
@@ -35350,7 +35329,7 @@
       <c r="A257" t="s">
         <v>755</v>
       </c>
-      <c r="B257" s="55" t="s">
+      <c r="B257" s="15" t="s">
         <v>1626</v>
       </c>
       <c r="E257" t="s">
@@ -35364,7 +35343,7 @@
       <c r="A258" t="s">
         <v>756</v>
       </c>
-      <c r="B258" s="55" t="s">
+      <c r="B258" s="15" t="s">
         <v>1627</v>
       </c>
       <c r="E258" t="s">
@@ -35378,7 +35357,7 @@
       <c r="A259" t="s">
         <v>757</v>
       </c>
-      <c r="B259" s="55" t="s">
+      <c r="B259" s="15" t="s">
         <v>1628</v>
       </c>
       <c r="E259" t="s">
@@ -35392,7 +35371,7 @@
       <c r="A260" t="s">
         <v>758</v>
       </c>
-      <c r="B260" s="55" t="s">
+      <c r="B260" s="15" t="s">
         <v>1629</v>
       </c>
       <c r="E260" t="s">
@@ -35406,7 +35385,7 @@
       <c r="A261" t="s">
         <v>759</v>
       </c>
-      <c r="B261" s="55" t="s">
+      <c r="B261" s="15" t="s">
         <v>1630</v>
       </c>
       <c r="E261" t="s">
@@ -35420,7 +35399,7 @@
       <c r="A262" t="s">
         <v>760</v>
       </c>
-      <c r="B262" s="55" t="s">
+      <c r="B262" s="15" t="s">
         <v>1631</v>
       </c>
       <c r="E262" t="s">
@@ -35434,7 +35413,7 @@
       <c r="A263" t="s">
         <v>761</v>
       </c>
-      <c r="B263" s="55" t="s">
+      <c r="B263" s="15" t="s">
         <v>1632</v>
       </c>
       <c r="E263" t="s">
@@ -35448,7 +35427,7 @@
       <c r="A264" t="s">
         <v>762</v>
       </c>
-      <c r="B264" s="55" t="s">
+      <c r="B264" s="15" t="s">
         <v>1633</v>
       </c>
       <c r="E264" t="s">
@@ -35462,7 +35441,7 @@
       <c r="A265" t="s">
         <v>763</v>
       </c>
-      <c r="B265" s="55" t="s">
+      <c r="B265" s="15" t="s">
         <v>1634</v>
       </c>
       <c r="E265" t="s">
@@ -35476,7 +35455,7 @@
       <c r="A266" t="s">
         <v>764</v>
       </c>
-      <c r="B266" s="55" t="s">
+      <c r="B266" s="15" t="s">
         <v>1635</v>
       </c>
       <c r="E266" t="s">
@@ -35490,7 +35469,7 @@
       <c r="A267" t="s">
         <v>765</v>
       </c>
-      <c r="B267" s="55" t="s">
+      <c r="B267" s="15" t="s">
         <v>1636</v>
       </c>
       <c r="E267" t="s">
@@ -35504,7 +35483,7 @@
       <c r="A268" t="s">
         <v>766</v>
       </c>
-      <c r="B268" s="55" t="s">
+      <c r="B268" s="15" t="s">
         <v>1280</v>
       </c>
       <c r="E268" t="s">
@@ -35518,7 +35497,7 @@
       <c r="A269" t="s">
         <v>767</v>
       </c>
-      <c r="B269" s="55" t="s">
+      <c r="B269" s="15" t="s">
         <v>1289</v>
       </c>
       <c r="E269" t="s">
@@ -35532,7 +35511,7 @@
       <c r="A270" t="s">
         <v>768</v>
       </c>
-      <c r="B270" s="55" t="s">
+      <c r="B270" s="15" t="s">
         <v>1637</v>
       </c>
       <c r="E270" t="s">
@@ -35546,7 +35525,7 @@
       <c r="A271" t="s">
         <v>769</v>
       </c>
-      <c r="B271" s="55" t="s">
+      <c r="B271" s="15" t="s">
         <v>1638</v>
       </c>
       <c r="E271" t="s">
@@ -35560,7 +35539,7 @@
       <c r="A272" t="s">
         <v>770</v>
       </c>
-      <c r="B272" s="55" t="s">
+      <c r="B272" s="15" t="s">
         <v>1639</v>
       </c>
       <c r="E272" t="s">
@@ -35574,7 +35553,7 @@
       <c r="A273" t="s">
         <v>771</v>
       </c>
-      <c r="B273" s="55" t="s">
+      <c r="B273" s="15" t="s">
         <v>1640</v>
       </c>
       <c r="E273" t="s">
@@ -35588,7 +35567,7 @@
       <c r="A274" t="s">
         <v>772</v>
       </c>
-      <c r="B274" s="55" t="s">
+      <c r="B274" s="15" t="s">
         <v>1641</v>
       </c>
     </row>
@@ -35596,7 +35575,7 @@
       <c r="A275" t="s">
         <v>773</v>
       </c>
-      <c r="B275" s="55" t="s">
+      <c r="B275" s="15" t="s">
         <v>1642</v>
       </c>
     </row>
@@ -35604,7 +35583,7 @@
       <c r="A276" t="s">
         <v>774</v>
       </c>
-      <c r="B276" s="55" t="s">
+      <c r="B276" s="15" t="s">
         <v>1643</v>
       </c>
     </row>
@@ -35612,7 +35591,7 @@
       <c r="A277" t="s">
         <v>775</v>
       </c>
-      <c r="B277" s="55" t="s">
+      <c r="B277" s="15" t="s">
         <v>1644</v>
       </c>
     </row>
@@ -35620,7 +35599,7 @@
       <c r="A278" t="s">
         <v>776</v>
       </c>
-      <c r="B278" s="55" t="s">
+      <c r="B278" s="15" t="s">
         <v>1645</v>
       </c>
     </row>
@@ -35628,7 +35607,7 @@
       <c r="A279" t="s">
         <v>777</v>
       </c>
-      <c r="B279" s="55" t="s">
+      <c r="B279" s="15" t="s">
         <v>1646</v>
       </c>
     </row>
@@ -35636,7 +35615,7 @@
       <c r="A280" t="s">
         <v>778</v>
       </c>
-      <c r="B280" s="55" t="s">
+      <c r="B280" s="15" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -35644,7 +35623,7 @@
       <c r="A281" t="s">
         <v>779</v>
       </c>
-      <c r="B281" s="55" t="s">
+      <c r="B281" s="15" t="s">
         <v>1648</v>
       </c>
     </row>
@@ -35652,7 +35631,7 @@
       <c r="A282" t="s">
         <v>780</v>
       </c>
-      <c r="B282" s="55" t="s">
+      <c r="B282" s="15" t="s">
         <v>1649</v>
       </c>
     </row>
@@ -35660,7 +35639,7 @@
       <c r="A283" t="s">
         <v>781</v>
       </c>
-      <c r="B283" s="55" t="s">
+      <c r="B283" s="15" t="s">
         <v>1650</v>
       </c>
     </row>
@@ -35668,7 +35647,7 @@
       <c r="A284" t="s">
         <v>782</v>
       </c>
-      <c r="B284" s="55" t="s">
+      <c r="B284" s="15" t="s">
         <v>1651</v>
       </c>
     </row>
@@ -35676,7 +35655,7 @@
       <c r="A285" t="s">
         <v>783</v>
       </c>
-      <c r="B285" s="55" t="s">
+      <c r="B285" s="15" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -35684,7 +35663,7 @@
       <c r="A286" t="s">
         <v>784</v>
       </c>
-      <c r="B286" s="55" t="s">
+      <c r="B286" s="15" t="s">
         <v>1653</v>
       </c>
     </row>
@@ -35692,7 +35671,7 @@
       <c r="A287" t="s">
         <v>785</v>
       </c>
-      <c r="B287" s="55" t="s">
+      <c r="B287" s="15" t="s">
         <v>1654</v>
       </c>
     </row>
@@ -35700,7 +35679,7 @@
       <c r="A288" t="s">
         <v>786</v>
       </c>
-      <c r="B288" s="55" t="s">
+      <c r="B288" s="15" t="s">
         <v>1655</v>
       </c>
     </row>
@@ -35708,7 +35687,7 @@
       <c r="A289" t="s">
         <v>787</v>
       </c>
-      <c r="B289" s="55" t="s">
+      <c r="B289" s="15" t="s">
         <v>1656</v>
       </c>
     </row>
@@ -35716,7 +35695,7 @@
       <c r="A290" t="s">
         <v>788</v>
       </c>
-      <c r="B290" s="55" t="s">
+      <c r="B290" s="15" t="s">
         <v>1291</v>
       </c>
     </row>
@@ -35724,7 +35703,7 @@
       <c r="A291" t="s">
         <v>789</v>
       </c>
-      <c r="B291" s="55" t="s">
+      <c r="B291" s="15" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -35732,7 +35711,7 @@
       <c r="A292" t="s">
         <v>790</v>
       </c>
-      <c r="B292" s="55" t="s">
+      <c r="B292" s="15" t="s">
         <v>1658</v>
       </c>
     </row>
@@ -35740,7 +35719,7 @@
       <c r="A293" t="s">
         <v>791</v>
       </c>
-      <c r="B293" s="55" t="s">
+      <c r="B293" s="15" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -35748,7 +35727,7 @@
       <c r="A294" t="s">
         <v>792</v>
       </c>
-      <c r="B294" s="55" t="s">
+      <c r="B294" s="15" t="s">
         <v>1660</v>
       </c>
     </row>
@@ -35756,7 +35735,7 @@
       <c r="A295" t="s">
         <v>793</v>
       </c>
-      <c r="B295" s="55" t="s">
+      <c r="B295" s="15" t="s">
         <v>1661</v>
       </c>
     </row>
@@ -35764,7 +35743,7 @@
       <c r="A296" t="s">
         <v>794</v>
       </c>
-      <c r="B296" s="55" t="s">
+      <c r="B296" s="15" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -35772,7 +35751,7 @@
       <c r="A297" t="s">
         <v>795</v>
       </c>
-      <c r="B297" s="55" t="s">
+      <c r="B297" s="15" t="s">
         <v>1663</v>
       </c>
     </row>
@@ -35780,7 +35759,7 @@
       <c r="A298" t="s">
         <v>796</v>
       </c>
-      <c r="B298" s="55" t="s">
+      <c r="B298" s="15" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -35788,7 +35767,7 @@
       <c r="A299" t="s">
         <v>797</v>
       </c>
-      <c r="B299" s="55" t="s">
+      <c r="B299" s="15" t="s">
         <v>1665</v>
       </c>
     </row>
@@ -35796,7 +35775,7 @@
       <c r="A300" t="s">
         <v>798</v>
       </c>
-      <c r="B300" s="55" t="s">
+      <c r="B300" s="15" t="s">
         <v>1666</v>
       </c>
     </row>
@@ -35804,7 +35783,7 @@
       <c r="A301" t="s">
         <v>799</v>
       </c>
-      <c r="B301" s="55" t="s">
+      <c r="B301" s="15" t="s">
         <v>1667</v>
       </c>
     </row>
@@ -35812,7 +35791,7 @@
       <c r="A302" t="s">
         <v>800</v>
       </c>
-      <c r="B302" s="55" t="s">
+      <c r="B302" s="15" t="s">
         <v>1668</v>
       </c>
     </row>
@@ -35820,7 +35799,7 @@
       <c r="A303" t="s">
         <v>801</v>
       </c>
-      <c r="B303" s="55" t="s">
+      <c r="B303" s="15" t="s">
         <v>1669</v>
       </c>
     </row>
@@ -35828,7 +35807,7 @@
       <c r="A304" t="s">
         <v>802</v>
       </c>
-      <c r="B304" s="55" t="s">
+      <c r="B304" s="15" t="s">
         <v>1670</v>
       </c>
     </row>
@@ -35836,7 +35815,7 @@
       <c r="A305" t="s">
         <v>803</v>
       </c>
-      <c r="B305" s="55" t="s">
+      <c r="B305" s="15" t="s">
         <v>1671</v>
       </c>
     </row>
@@ -35844,7 +35823,7 @@
       <c r="A306" t="s">
         <v>804</v>
       </c>
-      <c r="B306" s="55" t="s">
+      <c r="B306" s="15" t="s">
         <v>1672</v>
       </c>
     </row>
@@ -35852,7 +35831,7 @@
       <c r="A307" t="s">
         <v>805</v>
       </c>
-      <c r="B307" s="55" t="s">
+      <c r="B307" s="15" t="s">
         <v>1673</v>
       </c>
     </row>
@@ -35860,7 +35839,7 @@
       <c r="A308" t="s">
         <v>806</v>
       </c>
-      <c r="B308" s="55" t="s">
+      <c r="B308" s="15" t="s">
         <v>1674</v>
       </c>
     </row>
@@ -35868,7 +35847,7 @@
       <c r="A309" t="s">
         <v>807</v>
       </c>
-      <c r="B309" s="55" t="s">
+      <c r="B309" s="15" t="s">
         <v>1675</v>
       </c>
     </row>
@@ -35876,7 +35855,7 @@
       <c r="A310" t="s">
         <v>808</v>
       </c>
-      <c r="B310" s="55" t="s">
+      <c r="B310" s="15" t="s">
         <v>1676</v>
       </c>
     </row>
@@ -35884,7 +35863,7 @@
       <c r="A311" t="s">
         <v>809</v>
       </c>
-      <c r="B311" s="55" t="s">
+      <c r="B311" s="15" t="s">
         <v>1677</v>
       </c>
     </row>
@@ -35892,7 +35871,7 @@
       <c r="A312" t="s">
         <v>810</v>
       </c>
-      <c r="B312" s="55" t="s">
+      <c r="B312" s="15" t="s">
         <v>1678</v>
       </c>
     </row>
@@ -35900,7 +35879,7 @@
       <c r="A313" t="s">
         <v>811</v>
       </c>
-      <c r="B313" s="55" t="s">
+      <c r="B313" s="15" t="s">
         <v>1679</v>
       </c>
     </row>
@@ -35908,7 +35887,7 @@
       <c r="A314" t="s">
         <v>812</v>
       </c>
-      <c r="B314" s="55" t="s">
+      <c r="B314" s="15" t="s">
         <v>1680</v>
       </c>
     </row>
@@ -35916,7 +35895,7 @@
       <c r="A315" t="s">
         <v>813</v>
       </c>
-      <c r="B315" s="55" t="s">
+      <c r="B315" s="15" t="s">
         <v>1681</v>
       </c>
     </row>
@@ -35924,7 +35903,7 @@
       <c r="A316" t="s">
         <v>814</v>
       </c>
-      <c r="B316" s="55" t="s">
+      <c r="B316" s="15" t="s">
         <v>1682</v>
       </c>
     </row>
@@ -35932,7 +35911,7 @@
       <c r="A317" t="s">
         <v>815</v>
       </c>
-      <c r="B317" s="55" t="s">
+      <c r="B317" s="15" t="s">
         <v>1683</v>
       </c>
     </row>
@@ -35940,7 +35919,7 @@
       <c r="A318" t="s">
         <v>816</v>
       </c>
-      <c r="B318" s="55" t="s">
+      <c r="B318" s="15" t="s">
         <v>1684</v>
       </c>
     </row>
@@ -35948,7 +35927,7 @@
       <c r="A319" t="s">
         <v>817</v>
       </c>
-      <c r="B319" s="55" t="s">
+      <c r="B319" s="15" t="s">
         <v>1685</v>
       </c>
     </row>
@@ -35956,7 +35935,7 @@
       <c r="A320" t="s">
         <v>818</v>
       </c>
-      <c r="B320" s="55" t="s">
+      <c r="B320" s="15" t="s">
         <v>1686</v>
       </c>
     </row>
@@ -35964,7 +35943,7 @@
       <c r="A321" t="s">
         <v>819</v>
       </c>
-      <c r="B321" s="55" t="s">
+      <c r="B321" s="15" t="s">
         <v>1687</v>
       </c>
     </row>
@@ -35972,7 +35951,7 @@
       <c r="A322" t="s">
         <v>820</v>
       </c>
-      <c r="B322" s="55" t="s">
+      <c r="B322" s="15" t="s">
         <v>1688</v>
       </c>
     </row>
@@ -35980,7 +35959,7 @@
       <c r="A323" t="s">
         <v>821</v>
       </c>
-      <c r="B323" s="55" t="s">
+      <c r="B323" s="15" t="s">
         <v>1689</v>
       </c>
     </row>
@@ -35988,7 +35967,7 @@
       <c r="A324" t="s">
         <v>822</v>
       </c>
-      <c r="B324" s="55" t="s">
+      <c r="B324" s="15" t="s">
         <v>1690</v>
       </c>
     </row>
@@ -35996,7 +35975,7 @@
       <c r="A325" t="s">
         <v>823</v>
       </c>
-      <c r="B325" s="55" t="s">
+      <c r="B325" s="15" t="s">
         <v>1691</v>
       </c>
     </row>
@@ -36004,7 +35983,7 @@
       <c r="A326" t="s">
         <v>824</v>
       </c>
-      <c r="B326" s="55" t="s">
+      <c r="B326" s="15" t="s">
         <v>1692</v>
       </c>
     </row>
@@ -36012,7 +35991,7 @@
       <c r="A327" t="s">
         <v>825</v>
       </c>
-      <c r="B327" s="55" t="s">
+      <c r="B327" s="15" t="s">
         <v>1693</v>
       </c>
     </row>
@@ -36020,7 +35999,7 @@
       <c r="A328" t="s">
         <v>826</v>
       </c>
-      <c r="B328" s="55" t="s">
+      <c r="B328" s="15" t="s">
         <v>1694</v>
       </c>
     </row>
@@ -36028,7 +36007,7 @@
       <c r="A329" t="s">
         <v>827</v>
       </c>
-      <c r="B329" s="55" t="s">
+      <c r="B329" s="15" t="s">
         <v>1695</v>
       </c>
     </row>
@@ -36036,7 +36015,7 @@
       <c r="A330" t="s">
         <v>828</v>
       </c>
-      <c r="B330" s="55" t="s">
+      <c r="B330" s="15" t="s">
         <v>1696</v>
       </c>
     </row>
@@ -36044,7 +36023,7 @@
       <c r="A331" t="s">
         <v>829</v>
       </c>
-      <c r="B331" s="55" t="s">
+      <c r="B331" s="15" t="s">
         <v>1309</v>
       </c>
     </row>
@@ -36052,7 +36031,7 @@
       <c r="A332" t="s">
         <v>830</v>
       </c>
-      <c r="B332" s="55" t="s">
+      <c r="B332" s="15" t="s">
         <v>1697</v>
       </c>
     </row>
@@ -36060,7 +36039,7 @@
       <c r="A333" t="s">
         <v>831</v>
       </c>
-      <c r="B333" s="55" t="s">
+      <c r="B333" s="15" t="s">
         <v>1698</v>
       </c>
     </row>
@@ -36068,7 +36047,7 @@
       <c r="A334" t="s">
         <v>832</v>
       </c>
-      <c r="B334" s="55" t="s">
+      <c r="B334" s="15" t="s">
         <v>1699</v>
       </c>
     </row>
@@ -36076,7 +36055,7 @@
       <c r="A335" t="s">
         <v>833</v>
       </c>
-      <c r="B335" s="55" t="s">
+      <c r="B335" s="15" t="s">
         <v>1700</v>
       </c>
     </row>
@@ -36084,7 +36063,7 @@
       <c r="A336" t="s">
         <v>834</v>
       </c>
-      <c r="B336" s="55" t="s">
+      <c r="B336" s="15" t="s">
         <v>1701</v>
       </c>
     </row>
@@ -36092,7 +36071,7 @@
       <c r="A337" t="s">
         <v>835</v>
       </c>
-      <c r="B337" s="55" t="s">
+      <c r="B337" s="15" t="s">
         <v>1702</v>
       </c>
     </row>
@@ -36100,7 +36079,7 @@
       <c r="A338" t="s">
         <v>836</v>
       </c>
-      <c r="B338" s="55" t="s">
+      <c r="B338" s="15" t="s">
         <v>1703</v>
       </c>
     </row>
@@ -36108,7 +36087,7 @@
       <c r="A339" t="s">
         <v>837</v>
       </c>
-      <c r="B339" s="55" t="s">
+      <c r="B339" s="15" t="s">
         <v>1704</v>
       </c>
     </row>
@@ -36116,7 +36095,7 @@
       <c r="A340" t="s">
         <v>838</v>
       </c>
-      <c r="B340" s="55" t="s">
+      <c r="B340" s="15" t="s">
         <v>1705</v>
       </c>
     </row>
@@ -36124,7 +36103,7 @@
       <c r="A341" t="s">
         <v>839</v>
       </c>
-      <c r="B341" s="55" t="s">
+      <c r="B341" s="15" t="s">
         <v>1706</v>
       </c>
     </row>
@@ -36132,7 +36111,7 @@
       <c r="A342" t="s">
         <v>840</v>
       </c>
-      <c r="B342" s="55" t="s">
+      <c r="B342" s="15" t="s">
         <v>1707</v>
       </c>
     </row>
@@ -36140,7 +36119,7 @@
       <c r="A343" t="s">
         <v>841</v>
       </c>
-      <c r="B343" s="55" t="s">
+      <c r="B343" s="15" t="s">
         <v>1708</v>
       </c>
     </row>
@@ -36148,7 +36127,7 @@
       <c r="A344" t="s">
         <v>842</v>
       </c>
-      <c r="B344" s="55" t="s">
+      <c r="B344" s="15" t="s">
         <v>1709</v>
       </c>
     </row>
@@ -36156,7 +36135,7 @@
       <c r="A345" t="s">
         <v>843</v>
       </c>
-      <c r="B345" s="55" t="s">
+      <c r="B345" s="15" t="s">
         <v>1318</v>
       </c>
     </row>
@@ -36164,7 +36143,7 @@
       <c r="A346" t="s">
         <v>844</v>
       </c>
-      <c r="B346" s="55" t="s">
+      <c r="B346" s="15" t="s">
         <v>1710</v>
       </c>
     </row>
@@ -36172,7 +36151,7 @@
       <c r="A347" t="s">
         <v>845</v>
       </c>
-      <c r="B347" s="55" t="s">
+      <c r="B347" s="15" t="s">
         <v>1711</v>
       </c>
     </row>
@@ -36180,7 +36159,7 @@
       <c r="A348" t="s">
         <v>846</v>
       </c>
-      <c r="B348" s="55" t="s">
+      <c r="B348" s="15" t="s">
         <v>1712</v>
       </c>
     </row>
@@ -36188,7 +36167,7 @@
       <c r="A349" t="s">
         <v>847</v>
       </c>
-      <c r="B349" s="55" t="s">
+      <c r="B349" s="15" t="s">
         <v>1713</v>
       </c>
     </row>
@@ -36196,7 +36175,7 @@
       <c r="A350" t="s">
         <v>848</v>
       </c>
-      <c r="B350" s="55" t="s">
+      <c r="B350" s="15" t="s">
         <v>1714</v>
       </c>
     </row>
@@ -36204,7 +36183,7 @@
       <c r="A351" t="s">
         <v>849</v>
       </c>
-      <c r="B351" s="55" t="s">
+      <c r="B351" s="15" t="s">
         <v>1715</v>
       </c>
     </row>
@@ -36212,7 +36191,7 @@
       <c r="A352" t="s">
         <v>850</v>
       </c>
-      <c r="B352" s="55" t="s">
+      <c r="B352" s="15" t="s">
         <v>1716</v>
       </c>
     </row>
@@ -36220,7 +36199,7 @@
       <c r="A353" t="s">
         <v>851</v>
       </c>
-      <c r="B353" s="55" t="s">
+      <c r="B353" s="15" t="s">
         <v>1717</v>
       </c>
     </row>
@@ -36228,7 +36207,7 @@
       <c r="A354" t="s">
         <v>852</v>
       </c>
-      <c r="B354" s="55" t="s">
+      <c r="B354" s="15" t="s">
         <v>1718</v>
       </c>
     </row>
@@ -36236,7 +36215,7 @@
       <c r="A355" t="s">
         <v>853</v>
       </c>
-      <c r="B355" s="55" t="s">
+      <c r="B355" s="15" t="s">
         <v>1719</v>
       </c>
     </row>
@@ -36244,7 +36223,7 @@
       <c r="A356" t="s">
         <v>854</v>
       </c>
-      <c r="B356" s="55" t="s">
+      <c r="B356" s="15" t="s">
         <v>1720</v>
       </c>
     </row>
@@ -36252,7 +36231,7 @@
       <c r="A357" t="s">
         <v>855</v>
       </c>
-      <c r="B357" s="55" t="s">
+      <c r="B357" s="15" t="s">
         <v>1721</v>
       </c>
     </row>
@@ -36260,7 +36239,7 @@
       <c r="A358" t="s">
         <v>856</v>
       </c>
-      <c r="B358" s="55" t="s">
+      <c r="B358" s="15" t="s">
         <v>1722</v>
       </c>
     </row>
@@ -36268,7 +36247,7 @@
       <c r="A359" t="s">
         <v>857</v>
       </c>
-      <c r="B359" s="55" t="s">
+      <c r="B359" s="15" t="s">
         <v>1723</v>
       </c>
     </row>
@@ -36276,7 +36255,7 @@
       <c r="A360" t="s">
         <v>858</v>
       </c>
-      <c r="B360" s="55" t="s">
+      <c r="B360" s="15" t="s">
         <v>1724</v>
       </c>
     </row>
@@ -36284,7 +36263,7 @@
       <c r="A361" t="s">
         <v>859</v>
       </c>
-      <c r="B361" s="55" t="s">
+      <c r="B361" s="15" t="s">
         <v>1725</v>
       </c>
     </row>
@@ -36292,7 +36271,7 @@
       <c r="A362" t="s">
         <v>860</v>
       </c>
-      <c r="B362" s="55" t="s">
+      <c r="B362" s="15" t="s">
         <v>1726</v>
       </c>
     </row>
@@ -36300,7 +36279,7 @@
       <c r="A363" t="s">
         <v>861</v>
       </c>
-      <c r="B363" s="55" t="s">
+      <c r="B363" s="15" t="s">
         <v>1727</v>
       </c>
     </row>
@@ -36308,7 +36287,7 @@
       <c r="A364" t="s">
         <v>862</v>
       </c>
-      <c r="B364" s="55" t="s">
+      <c r="B364" s="15" t="s">
         <v>1728</v>
       </c>
     </row>
@@ -36316,7 +36295,7 @@
       <c r="A365" t="s">
         <v>863</v>
       </c>
-      <c r="B365" s="55" t="s">
+      <c r="B365" s="15" t="s">
         <v>1729</v>
       </c>
     </row>
@@ -36324,7 +36303,7 @@
       <c r="A366" t="s">
         <v>864</v>
       </c>
-      <c r="B366" s="55" t="s">
+      <c r="B366" s="15" t="s">
         <v>1730</v>
       </c>
     </row>
@@ -36332,7 +36311,7 @@
       <c r="A367" t="s">
         <v>865</v>
       </c>
-      <c r="B367" s="55" t="s">
+      <c r="B367" s="15" t="s">
         <v>1731</v>
       </c>
     </row>
@@ -36340,7 +36319,7 @@
       <c r="A368" t="s">
         <v>866</v>
       </c>
-      <c r="B368" s="55" t="s">
+      <c r="B368" s="15" t="s">
         <v>1732</v>
       </c>
     </row>
@@ -36348,7 +36327,7 @@
       <c r="A369" t="s">
         <v>867</v>
       </c>
-      <c r="B369" s="55" t="s">
+      <c r="B369" s="15" t="s">
         <v>1733</v>
       </c>
     </row>
@@ -36356,7 +36335,7 @@
       <c r="A370" t="s">
         <v>868</v>
       </c>
-      <c r="B370" s="55" t="s">
+      <c r="B370" s="15" t="s">
         <v>1734</v>
       </c>
     </row>
@@ -36364,7 +36343,7 @@
       <c r="A371" t="s">
         <v>869</v>
       </c>
-      <c r="B371" s="55" t="s">
+      <c r="B371" s="15" t="s">
         <v>1735</v>
       </c>
     </row>
@@ -36372,7 +36351,7 @@
       <c r="A372" t="s">
         <v>870</v>
       </c>
-      <c r="B372" s="55" t="s">
+      <c r="B372" s="15" t="s">
         <v>1736</v>
       </c>
     </row>
@@ -36380,7 +36359,7 @@
       <c r="A373" t="s">
         <v>871</v>
       </c>
-      <c r="B373" s="55" t="s">
+      <c r="B373" s="15" t="s">
         <v>1737</v>
       </c>
     </row>
@@ -36388,7 +36367,7 @@
       <c r="A374" t="s">
         <v>872</v>
       </c>
-      <c r="B374" s="55" t="s">
+      <c r="B374" s="15" t="s">
         <v>1738</v>
       </c>
     </row>
@@ -36396,7 +36375,7 @@
       <c r="A375" t="s">
         <v>873</v>
       </c>
-      <c r="B375" s="55" t="s">
+      <c r="B375" s="15" t="s">
         <v>1739</v>
       </c>
     </row>
@@ -36404,7 +36383,7 @@
       <c r="A376" t="s">
         <v>874</v>
       </c>
-      <c r="B376" s="55" t="s">
+      <c r="B376" s="15" t="s">
         <v>1740</v>
       </c>
     </row>
@@ -36412,7 +36391,7 @@
       <c r="A377" t="s">
         <v>875</v>
       </c>
-      <c r="B377" s="55" t="s">
+      <c r="B377" s="15" t="s">
         <v>1741</v>
       </c>
     </row>
@@ -36420,7 +36399,7 @@
       <c r="A378" t="s">
         <v>876</v>
       </c>
-      <c r="B378" s="55" t="s">
+      <c r="B378" s="15" t="s">
         <v>1742</v>
       </c>
     </row>
@@ -36428,7 +36407,7 @@
       <c r="A379" t="s">
         <v>877</v>
       </c>
-      <c r="B379" s="55" t="s">
+      <c r="B379" s="15" t="s">
         <v>1743</v>
       </c>
     </row>
@@ -36436,7 +36415,7 @@
       <c r="A380" t="s">
         <v>878</v>
       </c>
-      <c r="B380" s="55" t="s">
+      <c r="B380" s="15" t="s">
         <v>1744</v>
       </c>
     </row>
@@ -36444,7 +36423,7 @@
       <c r="A381" t="s">
         <v>879</v>
       </c>
-      <c r="B381" s="55" t="s">
+      <c r="B381" s="15" t="s">
         <v>1745</v>
       </c>
     </row>
@@ -36452,7 +36431,7 @@
       <c r="A382" t="s">
         <v>880</v>
       </c>
-      <c r="B382" s="55" t="s">
+      <c r="B382" s="15" t="s">
         <v>1746</v>
       </c>
     </row>
@@ -36460,7 +36439,7 @@
       <c r="A383" t="s">
         <v>881</v>
       </c>
-      <c r="B383" s="55" t="s">
+      <c r="B383" s="15" t="s">
         <v>1747</v>
       </c>
     </row>
@@ -36468,7 +36447,7 @@
       <c r="A384" t="s">
         <v>882</v>
       </c>
-      <c r="B384" s="55" t="s">
+      <c r="B384" s="15" t="s">
         <v>1748</v>
       </c>
     </row>
@@ -36476,7 +36455,7 @@
       <c r="A385" t="s">
         <v>883</v>
       </c>
-      <c r="B385" s="55" t="s">
+      <c r="B385" s="15" t="s">
         <v>1749</v>
       </c>
     </row>
@@ -36484,7 +36463,7 @@
       <c r="A386" t="s">
         <v>884</v>
       </c>
-      <c r="B386" s="55" t="s">
+      <c r="B386" s="15" t="s">
         <v>1750</v>
       </c>
     </row>
@@ -36492,7 +36471,7 @@
       <c r="A387" t="s">
         <v>885</v>
       </c>
-      <c r="B387" s="55" t="s">
+      <c r="B387" s="15" t="s">
         <v>1751</v>
       </c>
     </row>
@@ -36500,7 +36479,7 @@
       <c r="A388" t="s">
         <v>886</v>
       </c>
-      <c r="B388" s="55" t="s">
+      <c r="B388" s="15" t="s">
         <v>1752</v>
       </c>
     </row>
@@ -36508,7 +36487,7 @@
       <c r="A389" t="s">
         <v>887</v>
       </c>
-      <c r="B389" s="55" t="s">
+      <c r="B389" s="15" t="s">
         <v>1753</v>
       </c>
     </row>
@@ -36516,7 +36495,7 @@
       <c r="A390" t="s">
         <v>888</v>
       </c>
-      <c r="B390" s="55" t="s">
+      <c r="B390" s="15" t="s">
         <v>1754</v>
       </c>
     </row>
@@ -36524,7 +36503,7 @@
       <c r="A391" t="s">
         <v>889</v>
       </c>
-      <c r="B391" s="55" t="s">
+      <c r="B391" s="15" t="s">
         <v>1755</v>
       </c>
     </row>
@@ -36532,7 +36511,7 @@
       <c r="A392" t="s">
         <v>890</v>
       </c>
-      <c r="B392" s="55" t="s">
+      <c r="B392" s="15" t="s">
         <v>1756</v>
       </c>
     </row>
@@ -36540,7 +36519,7 @@
       <c r="A393" t="s">
         <v>891</v>
       </c>
-      <c r="B393" s="55" t="s">
+      <c r="B393" s="15" t="s">
         <v>1757</v>
       </c>
     </row>
@@ -36548,7 +36527,7 @@
       <c r="A394" t="s">
         <v>892</v>
       </c>
-      <c r="B394" s="55" t="s">
+      <c r="B394" s="15" t="s">
         <v>1758</v>
       </c>
     </row>
@@ -36556,7 +36535,7 @@
       <c r="A395" t="s">
         <v>893</v>
       </c>
-      <c r="B395" s="55" t="s">
+      <c r="B395" s="15" t="s">
         <v>1759</v>
       </c>
     </row>
@@ -36564,7 +36543,7 @@
       <c r="A396" t="s">
         <v>894</v>
       </c>
-      <c r="B396" s="55" t="s">
+      <c r="B396" s="15" t="s">
         <v>1760</v>
       </c>
     </row>
@@ -36572,7 +36551,7 @@
       <c r="A397" t="s">
         <v>895</v>
       </c>
-      <c r="B397" s="55" t="s">
+      <c r="B397" s="15" t="s">
         <v>1339</v>
       </c>
     </row>
@@ -36580,7 +36559,7 @@
       <c r="A398" t="s">
         <v>896</v>
       </c>
-      <c r="B398" s="55" t="s">
+      <c r="B398" s="15" t="s">
         <v>1761</v>
       </c>
     </row>
@@ -36588,7 +36567,7 @@
       <c r="A399" t="s">
         <v>897</v>
       </c>
-      <c r="B399" s="55" t="s">
+      <c r="B399" s="15" t="s">
         <v>1762</v>
       </c>
     </row>
@@ -36596,7 +36575,7 @@
       <c r="A400" t="s">
         <v>898</v>
       </c>
-      <c r="B400" s="55" t="s">
+      <c r="B400" s="15" t="s">
         <v>1763</v>
       </c>
     </row>
@@ -36604,7 +36583,7 @@
       <c r="A401" t="s">
         <v>899</v>
       </c>
-      <c r="B401" s="55" t="s">
+      <c r="B401" s="15" t="s">
         <v>1764</v>
       </c>
     </row>
@@ -36612,7 +36591,7 @@
       <c r="A402" t="s">
         <v>900</v>
       </c>
-      <c r="B402" s="55" t="s">
+      <c r="B402" s="15" t="s">
         <v>1765</v>
       </c>
     </row>
@@ -36620,7 +36599,7 @@
       <c r="A403" t="s">
         <v>901</v>
       </c>
-      <c r="B403" s="55" t="s">
+      <c r="B403" s="15" t="s">
         <v>1766</v>
       </c>
     </row>
@@ -36628,7 +36607,7 @@
       <c r="A404" t="s">
         <v>902</v>
       </c>
-      <c r="B404" s="55" t="s">
+      <c r="B404" s="15" t="s">
         <v>1767</v>
       </c>
     </row>
@@ -36636,7 +36615,7 @@
       <c r="A405" t="s">
         <v>903</v>
       </c>
-      <c r="B405" s="55" t="s">
+      <c r="B405" s="15" t="s">
         <v>1768</v>
       </c>
     </row>
@@ -36644,7 +36623,7 @@
       <c r="A406" t="s">
         <v>904</v>
       </c>
-      <c r="B406" s="55" t="s">
+      <c r="B406" s="15" t="s">
         <v>1769</v>
       </c>
     </row>
@@ -36652,7 +36631,7 @@
       <c r="A407" t="s">
         <v>905</v>
       </c>
-      <c r="B407" s="55" t="s">
+      <c r="B407" s="15" t="s">
         <v>1770</v>
       </c>
     </row>
@@ -36660,7 +36639,7 @@
       <c r="A408" t="s">
         <v>906</v>
       </c>
-      <c r="B408" s="55" t="s">
+      <c r="B408" s="15" t="s">
         <v>1771</v>
       </c>
     </row>
@@ -36668,7 +36647,7 @@
       <c r="A409" t="s">
         <v>907</v>
       </c>
-      <c r="B409" s="55" t="s">
+      <c r="B409" s="15" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -36676,7 +36655,7 @@
       <c r="A410" t="s">
         <v>908</v>
       </c>
-      <c r="B410" s="55" t="s">
+      <c r="B410" s="15" t="s">
         <v>1772</v>
       </c>
     </row>
@@ -36684,7 +36663,7 @@
       <c r="A411" t="s">
         <v>909</v>
       </c>
-      <c r="B411" s="55" t="s">
+      <c r="B411" s="15" t="s">
         <v>1773</v>
       </c>
     </row>
@@ -36692,7 +36671,7 @@
       <c r="A412" t="s">
         <v>910</v>
       </c>
-      <c r="B412" s="55" t="s">
+      <c r="B412" s="15" t="s">
         <v>1774</v>
       </c>
     </row>
@@ -36700,7 +36679,7 @@
       <c r="A413" t="s">
         <v>911</v>
       </c>
-      <c r="B413" s="55" t="s">
+      <c r="B413" s="15" t="s">
         <v>1775</v>
       </c>
     </row>
@@ -36708,7 +36687,7 @@
       <c r="A414" t="s">
         <v>912</v>
       </c>
-      <c r="B414" s="55" t="s">
+      <c r="B414" s="15" t="s">
         <v>1776</v>
       </c>
     </row>
@@ -36716,7 +36695,7 @@
       <c r="A415" t="s">
         <v>913</v>
       </c>
-      <c r="B415" s="55" t="s">
+      <c r="B415" s="15" t="s">
         <v>1345</v>
       </c>
     </row>
@@ -36724,7 +36703,7 @@
       <c r="A416" t="s">
         <v>914</v>
       </c>
-      <c r="B416" s="55" t="s">
+      <c r="B416" s="15" t="s">
         <v>1777</v>
       </c>
     </row>
@@ -36732,7 +36711,7 @@
       <c r="A417" t="s">
         <v>915</v>
       </c>
-      <c r="B417" s="55" t="s">
+      <c r="B417" s="15" t="s">
         <v>1778</v>
       </c>
     </row>
@@ -36740,7 +36719,7 @@
       <c r="A418" t="s">
         <v>916</v>
       </c>
-      <c r="B418" s="55" t="s">
+      <c r="B418" s="15" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -36748,7 +36727,7 @@
       <c r="A419" t="s">
         <v>917</v>
       </c>
-      <c r="B419" s="55" t="s">
+      <c r="B419" s="15" t="s">
         <v>1779</v>
       </c>
     </row>
@@ -36756,7 +36735,7 @@
       <c r="A420" t="s">
         <v>918</v>
       </c>
-      <c r="B420" s="55" t="s">
+      <c r="B420" s="15" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -36764,7 +36743,7 @@
       <c r="A421" t="s">
         <v>919</v>
       </c>
-      <c r="B421" s="55" t="s">
+      <c r="B421" s="15" t="s">
         <v>1780</v>
       </c>
     </row>
@@ -36772,7 +36751,7 @@
       <c r="A422" t="s">
         <v>920</v>
       </c>
-      <c r="B422" s="55" t="s">
+      <c r="B422" s="15" t="s">
         <v>1781</v>
       </c>
     </row>
@@ -36780,7 +36759,7 @@
       <c r="A423" t="s">
         <v>921</v>
       </c>
-      <c r="B423" s="55" t="s">
+      <c r="B423" s="15" t="s">
         <v>1782</v>
       </c>
     </row>
@@ -36788,7 +36767,7 @@
       <c r="A424" t="s">
         <v>922</v>
       </c>
-      <c r="B424" s="55" t="s">
+      <c r="B424" s="15" t="s">
         <v>1783</v>
       </c>
     </row>
@@ -36796,7 +36775,7 @@
       <c r="A425" t="s">
         <v>923</v>
       </c>
-      <c r="B425" s="55" t="s">
+      <c r="B425" s="15" t="s">
         <v>1784</v>
       </c>
     </row>
@@ -36804,7 +36783,7 @@
       <c r="A426" t="s">
         <v>924</v>
       </c>
-      <c r="B426" s="55" t="s">
+      <c r="B426" s="15" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -36812,7 +36791,7 @@
       <c r="A427" t="s">
         <v>925</v>
       </c>
-      <c r="B427" s="55" t="s">
+      <c r="B427" s="15" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -36820,7 +36799,7 @@
       <c r="A428" t="s">
         <v>926</v>
       </c>
-      <c r="B428" s="55" t="s">
+      <c r="B428" s="15" t="s">
         <v>1785</v>
       </c>
     </row>
@@ -36828,7 +36807,7 @@
       <c r="A429" t="s">
         <v>927</v>
       </c>
-      <c r="B429" s="55" t="s">
+      <c r="B429" s="15" t="s">
         <v>1786</v>
       </c>
     </row>
@@ -36836,7 +36815,7 @@
       <c r="A430" t="s">
         <v>928</v>
       </c>
-      <c r="B430" s="55" t="s">
+      <c r="B430" s="15" t="s">
         <v>1787</v>
       </c>
     </row>
@@ -36844,7 +36823,7 @@
       <c r="A431" t="s">
         <v>929</v>
       </c>
-      <c r="B431" s="55" t="s">
+      <c r="B431" s="15" t="s">
         <v>1788</v>
       </c>
     </row>
@@ -36852,7 +36831,7 @@
       <c r="A432" t="s">
         <v>930</v>
       </c>
-      <c r="B432" s="55" t="s">
+      <c r="B432" s="15" t="s">
         <v>1789</v>
       </c>
     </row>
@@ -36860,7 +36839,7 @@
       <c r="A433" t="s">
         <v>931</v>
       </c>
-      <c r="B433" s="55" t="s">
+      <c r="B433" s="15" t="s">
         <v>1790</v>
       </c>
     </row>
@@ -36868,7 +36847,7 @@
       <c r="A434" t="s">
         <v>932</v>
       </c>
-      <c r="B434" s="55" t="s">
+      <c r="B434" s="15" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -36876,7 +36855,7 @@
       <c r="A435" t="s">
         <v>933</v>
       </c>
-      <c r="B435" s="55" t="s">
+      <c r="B435" s="15" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -36884,7 +36863,7 @@
       <c r="A436" t="s">
         <v>934</v>
       </c>
-      <c r="B436" s="55" t="s">
+      <c r="B436" s="15" t="s">
         <v>1793</v>
       </c>
     </row>
@@ -36892,7 +36871,7 @@
       <c r="A437" t="s">
         <v>935</v>
       </c>
-      <c r="B437" s="55" t="s">
+      <c r="B437" s="15" t="s">
         <v>1794</v>
       </c>
     </row>
@@ -36900,7 +36879,7 @@
       <c r="A438" t="s">
         <v>936</v>
       </c>
-      <c r="B438" s="55" t="s">
+      <c r="B438" s="15" t="s">
         <v>1795</v>
       </c>
     </row>
@@ -36908,7 +36887,7 @@
       <c r="A439" t="s">
         <v>937</v>
       </c>
-      <c r="B439" s="55" t="s">
+      <c r="B439" s="15" t="s">
         <v>1796</v>
       </c>
     </row>
@@ -36916,7 +36895,7 @@
       <c r="A440" t="s">
         <v>938</v>
       </c>
-      <c r="B440" s="55" t="s">
+      <c r="B440" s="15" t="s">
         <v>1797</v>
       </c>
     </row>
@@ -36924,7 +36903,7 @@
       <c r="A441" t="s">
         <v>939</v>
       </c>
-      <c r="B441" s="55" t="s">
+      <c r="B441" s="15" t="s">
         <v>1798</v>
       </c>
     </row>
@@ -36932,7 +36911,7 @@
       <c r="A442" t="s">
         <v>940</v>
       </c>
-      <c r="B442" s="55" t="s">
+      <c r="B442" s="15" t="s">
         <v>1799</v>
       </c>
     </row>
@@ -36940,7 +36919,7 @@
       <c r="A443" t="s">
         <v>941</v>
       </c>
-      <c r="B443" s="55" t="s">
+      <c r="B443" s="15" t="s">
         <v>1800</v>
       </c>
     </row>
@@ -36948,7 +36927,7 @@
       <c r="A444" t="s">
         <v>942</v>
       </c>
-      <c r="B444" s="55" t="s">
+      <c r="B444" s="15" t="s">
         <v>1801</v>
       </c>
     </row>
@@ -36956,7 +36935,7 @@
       <c r="A445" t="s">
         <v>943</v>
       </c>
-      <c r="B445" s="55" t="s">
+      <c r="B445" s="15" t="s">
         <v>1802</v>
       </c>
     </row>
@@ -36964,7 +36943,7 @@
       <c r="A446" t="s">
         <v>944</v>
       </c>
-      <c r="B446" s="55" t="s">
+      <c r="B446" s="15" t="s">
         <v>1803</v>
       </c>
     </row>
@@ -36972,7 +36951,7 @@
       <c r="A447" t="s">
         <v>945</v>
       </c>
-      <c r="B447" s="55" t="s">
+      <c r="B447" s="15" t="s">
         <v>1804</v>
       </c>
     </row>
@@ -36980,7 +36959,7 @@
       <c r="A448" t="s">
         <v>946</v>
       </c>
-      <c r="B448" s="55" t="s">
+      <c r="B448" s="15" t="s">
         <v>1805</v>
       </c>
     </row>
@@ -36988,7 +36967,7 @@
       <c r="A449" t="s">
         <v>947</v>
       </c>
-      <c r="B449" s="55" t="s">
+      <c r="B449" s="15" t="s">
         <v>1806</v>
       </c>
     </row>
@@ -36996,7 +36975,7 @@
       <c r="A450" t="s">
         <v>948</v>
       </c>
-      <c r="B450" s="55" t="s">
+      <c r="B450" s="15" t="s">
         <v>1363</v>
       </c>
     </row>
@@ -37004,7 +36983,7 @@
       <c r="A451" t="s">
         <v>949</v>
       </c>
-      <c r="B451" s="55" t="s">
+      <c r="B451" s="15" t="s">
         <v>1807</v>
       </c>
     </row>
@@ -37012,7 +36991,7 @@
       <c r="A452" t="s">
         <v>950</v>
       </c>
-      <c r="B452" s="55" t="s">
+      <c r="B452" s="15" t="s">
         <v>1808</v>
       </c>
     </row>
@@ -37020,7 +36999,7 @@
       <c r="A453" t="s">
         <v>951</v>
       </c>
-      <c r="B453" s="55" t="s">
+      <c r="B453" s="15" t="s">
         <v>1809</v>
       </c>
     </row>
@@ -37028,7 +37007,7 @@
       <c r="A454" t="s">
         <v>952</v>
       </c>
-      <c r="B454" s="55" t="s">
+      <c r="B454" s="15" t="s">
         <v>1810</v>
       </c>
     </row>
@@ -37036,7 +37015,7 @@
       <c r="A455" t="s">
         <v>953</v>
       </c>
-      <c r="B455" s="55" t="s">
+      <c r="B455" s="15" t="s">
         <v>1811</v>
       </c>
     </row>
@@ -37044,7 +37023,7 @@
       <c r="A456" t="s">
         <v>954</v>
       </c>
-      <c r="B456" s="55" t="s">
+      <c r="B456" s="15" t="s">
         <v>1812</v>
       </c>
     </row>
@@ -37052,7 +37031,7 @@
       <c r="A457" t="s">
         <v>955</v>
       </c>
-      <c r="B457" s="55" t="s">
+      <c r="B457" s="15" t="s">
         <v>1364</v>
       </c>
     </row>
@@ -37060,7 +37039,7 @@
       <c r="A458" t="s">
         <v>956</v>
       </c>
-      <c r="B458" s="55" t="s">
+      <c r="B458" s="15" t="s">
         <v>1813</v>
       </c>
     </row>
@@ -37068,7 +37047,7 @@
       <c r="A459" t="s">
         <v>957</v>
       </c>
-      <c r="B459" s="55" t="s">
+      <c r="B459" s="15" t="s">
         <v>1814</v>
       </c>
     </row>
@@ -37076,7 +37055,7 @@
       <c r="A460" t="s">
         <v>958</v>
       </c>
-      <c r="B460" s="55" t="s">
+      <c r="B460" s="15" t="s">
         <v>1815</v>
       </c>
     </row>
@@ -37084,7 +37063,7 @@
       <c r="A461" t="s">
         <v>959</v>
       </c>
-      <c r="B461" s="55" t="s">
+      <c r="B461" s="15" t="s">
         <v>1816</v>
       </c>
     </row>
@@ -37092,7 +37071,7 @@
       <c r="A462" t="s">
         <v>960</v>
       </c>
-      <c r="B462" s="55" t="s">
+      <c r="B462" s="15" t="s">
         <v>1817</v>
       </c>
     </row>
@@ -37100,7 +37079,7 @@
       <c r="A463" t="s">
         <v>961</v>
       </c>
-      <c r="B463" s="55" t="s">
+      <c r="B463" s="15" t="s">
         <v>1818</v>
       </c>
     </row>
@@ -37108,7 +37087,7 @@
       <c r="A464" t="s">
         <v>962</v>
       </c>
-      <c r="B464" s="55" t="s">
+      <c r="B464" s="15" t="s">
         <v>1819</v>
       </c>
     </row>
@@ -37116,7 +37095,7 @@
       <c r="A465" t="s">
         <v>963</v>
       </c>
-      <c r="B465" s="55" t="s">
+      <c r="B465" s="15" t="s">
         <v>1820</v>
       </c>
     </row>
@@ -37124,7 +37103,7 @@
       <c r="A466" t="s">
         <v>964</v>
       </c>
-      <c r="B466" s="55" t="s">
+      <c r="B466" s="15" t="s">
         <v>1821</v>
       </c>
     </row>
@@ -37132,7 +37111,7 @@
       <c r="A467" t="s">
         <v>965</v>
       </c>
-      <c r="B467" s="55" t="s">
+      <c r="B467" s="15" t="s">
         <v>1822</v>
       </c>
     </row>
@@ -37140,7 +37119,7 @@
       <c r="A468" t="s">
         <v>966</v>
       </c>
-      <c r="B468" s="55" t="s">
+      <c r="B468" s="15" t="s">
         <v>1823</v>
       </c>
     </row>
@@ -37148,7 +37127,7 @@
       <c r="A469" t="s">
         <v>967</v>
       </c>
-      <c r="B469" s="55" t="s">
+      <c r="B469" s="15" t="s">
         <v>1824</v>
       </c>
     </row>
@@ -37156,7 +37135,7 @@
       <c r="A470" t="s">
         <v>968</v>
       </c>
-      <c r="B470" s="55" t="s">
+      <c r="B470" s="15" t="s">
         <v>1825</v>
       </c>
     </row>
@@ -37164,7 +37143,7 @@
       <c r="A471" t="s">
         <v>969</v>
       </c>
-      <c r="B471" s="55" t="s">
+      <c r="B471" s="15" t="s">
         <v>1826</v>
       </c>
     </row>
@@ -37172,7 +37151,7 @@
       <c r="A472" t="s">
         <v>970</v>
       </c>
-      <c r="B472" s="55" t="s">
+      <c r="B472" s="15" t="s">
         <v>1827</v>
       </c>
     </row>
@@ -37180,7 +37159,7 @@
       <c r="A473" t="s">
         <v>971</v>
       </c>
-      <c r="B473" s="55" t="s">
+      <c r="B473" s="15" t="s">
         <v>1828</v>
       </c>
     </row>
@@ -37188,7 +37167,7 @@
       <c r="A474" t="s">
         <v>972</v>
       </c>
-      <c r="B474" s="55" t="s">
+      <c r="B474" s="15" t="s">
         <v>1829</v>
       </c>
     </row>
@@ -37196,7 +37175,7 @@
       <c r="A475" t="s">
         <v>973</v>
       </c>
-      <c r="B475" s="55" t="s">
+      <c r="B475" s="15" t="s">
         <v>1830</v>
       </c>
     </row>
@@ -37204,7 +37183,7 @@
       <c r="A476" t="s">
         <v>974</v>
       </c>
-      <c r="B476" s="55" t="s">
+      <c r="B476" s="15" t="s">
         <v>1831</v>
       </c>
     </row>
@@ -37212,7 +37191,7 @@
       <c r="A477" t="s">
         <v>975</v>
       </c>
-      <c r="B477" s="55" t="s">
+      <c r="B477" s="15" t="s">
         <v>1832</v>
       </c>
     </row>
@@ -37220,7 +37199,7 @@
       <c r="A478" t="s">
         <v>976</v>
       </c>
-      <c r="B478" s="55" t="s">
+      <c r="B478" s="15" t="s">
         <v>1833</v>
       </c>
     </row>
@@ -37228,7 +37207,7 @@
       <c r="A479" t="s">
         <v>977</v>
       </c>
-      <c r="B479" s="55" t="s">
+      <c r="B479" s="15" t="s">
         <v>1834</v>
       </c>
     </row>
@@ -37236,7 +37215,7 @@
       <c r="A480" t="s">
         <v>978</v>
       </c>
-      <c r="B480" s="55" t="s">
+      <c r="B480" s="15" t="s">
         <v>1835</v>
       </c>
     </row>
@@ -37244,7 +37223,7 @@
       <c r="A481" t="s">
         <v>979</v>
       </c>
-      <c r="B481" s="55" t="s">
+      <c r="B481" s="15" t="s">
         <v>1836</v>
       </c>
     </row>
@@ -37252,7 +37231,7 @@
       <c r="A482" t="s">
         <v>980</v>
       </c>
-      <c r="B482" s="55" t="s">
+      <c r="B482" s="15" t="s">
         <v>1837</v>
       </c>
     </row>
@@ -37260,7 +37239,7 @@
       <c r="A483" t="s">
         <v>981</v>
       </c>
-      <c r="B483" s="55" t="s">
+      <c r="B483" s="15" t="s">
         <v>1838</v>
       </c>
     </row>
@@ -37268,7 +37247,7 @@
       <c r="A484" t="s">
         <v>982</v>
       </c>
-      <c r="B484" s="55" t="s">
+      <c r="B484" s="15" t="s">
         <v>1839</v>
       </c>
     </row>
@@ -37276,7 +37255,7 @@
       <c r="A485" t="s">
         <v>983</v>
       </c>
-      <c r="B485" s="55" t="s">
+      <c r="B485" s="15" t="s">
         <v>1840</v>
       </c>
     </row>
@@ -37284,7 +37263,7 @@
       <c r="A486" t="s">
         <v>984</v>
       </c>
-      <c r="B486" s="55" t="s">
+      <c r="B486" s="15" t="s">
         <v>1841</v>
       </c>
     </row>
@@ -37292,7 +37271,7 @@
       <c r="A487" t="s">
         <v>985</v>
       </c>
-      <c r="B487" s="55" t="s">
+      <c r="B487" s="15" t="s">
         <v>1842</v>
       </c>
     </row>

--- a/bulk_import_template_smith_version.xlsx
+++ b/bulk_import_template_smith_version.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmichelson\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B88220-8970-4B92-BCCA-72264888B974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204725EA-2FA0-4943-B692-445E93C81367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13020" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5179,10 +5179,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ1005"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="BN1" sqref="BN1"/>
-      <selection pane="bottomLeft" activeCell="O11" sqref="O11"/>
+      <selection pane="bottomLeft" activeCell="AH6" sqref="AH6:AH1048576 AN6:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27653,7 +27653,7 @@
       <formula1>"approximate,inferred,questionable"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH1048576 AN6:AN1048576" xr:uid="{9D6F9840-80FE-4C94-9B21-098CA8B9BB8B}">
-      <formula1>"part,whote"</formula1>
+      <formula1>"part,whole"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ6:AJ1048576 AP6:AP1048576" xr:uid="{325F8942-4D4C-4759-AAB0-033BAB4B9BD7}">
       <formula1>"gigabytes,items,HH:MM:SS_duration"</formula1>
